--- a/lu2/aufgabe3.1_rc_tiefpass_bodediagramm.xlsx
+++ b/lu2/aufgabe3.1_rc_tiefpass_bodediagramm.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24292" windowHeight="13042" activeTab="5"/>
+    <workbookView windowWidth="24000" windowHeight="13260" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -95,10 +95,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -106,35 +106,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -146,9 +117,91 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -169,9 +222,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -185,69 +245,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -262,7 +262,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -274,13 +382,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -292,157 +442,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -456,15 +456,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -475,6 +466,69 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -499,207 +553,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -710,54 +710,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
     <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="Accent1" xfId="19" builtinId="29"/>
+    <cellStyle name="Comma[0]" xfId="20" builtinId="6"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Currency[0]" xfId="37" builtinId="7"/>
+    <cellStyle name="Heading 1" xfId="38" builtinId="16"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50"/>
+    <cellStyle name="Title" xfId="40" builtinId="15"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="20% - Accent1" xfId="42" builtinId="30"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="45" builtinId="17"/>
+    <cellStyle name="Comma" xfId="46" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="47" builtinId="23"/>
+    <cellStyle name="Percent" xfId="48" builtinId="5"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
@@ -788,7 +788,7 @@
         <a:effectLst/>
       </c:spPr>
       <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
@@ -996,6 +996,7 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="r"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -1016,6 +1017,7 @@
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
+            <a:noFill/>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -1046,7 +1048,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -1078,6 +1080,7 @@
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
+            <a:noFill/>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -1108,7 +1111,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -1158,7 +1161,7 @@
     <a:effectLst/>
   </c:spPr>
   <c:txPr>
-    <a:bodyPr/>
+    <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
     <a:lstStyle/>
     <a:p>
       <a:pPr>
@@ -1168,7 +1171,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins r="0.7" b="0.75" l="0.7" footer="0.3" header="0.3" t="0.75"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1199,7 +1202,7 @@
         <a:effectLst/>
       </c:spPr>
       <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
@@ -1407,6 +1410,7 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="r"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -1427,6 +1431,7 @@
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
+            <a:noFill/>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -1457,7 +1462,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -1489,6 +1494,7 @@
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
+            <a:noFill/>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -1519,7 +1525,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -1569,7 +1575,7 @@
     <a:effectLst/>
   </c:spPr>
   <c:txPr>
-    <a:bodyPr/>
+    <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
     <a:lstStyle/>
     <a:p>
       <a:pPr>
@@ -1579,7 +1585,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins r="0.7" b="0.75" l="0.7" footer="0.3" header="0.3" t="0.75"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1599,37 +1605,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -1662,9 +1638,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet3!$A$3:$A$39</c:f>
@@ -1787,120 +1760,120 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet3!$E$3:$E$39</c:f>
+              <c:f>Sheet3!$G$3:$G$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="37"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.05607476635514</c:v>
+                  <c:v>0.4738933159642</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.11428571428571</c:v>
+                  <c:v>0.93993125352447</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.31632653061224</c:v>
+                  <c:v>2.38727269213508</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.55681818181818</c:v>
+                  <c:v>3.84475790012476</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.82533333333333</c:v>
+                  <c:v>5.2268436948458</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.14848484848485</c:v>
+                  <c:v>6.64264590610358</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.62206148282098</c:v>
+                  <c:v>8.37285741860553</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.92741935483871</c:v>
+                  <c:v>9.32969879747755</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.28863636363636</c:v>
+                  <c:v>10.340317092657</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.67866323907455</c:v>
+                  <c:v>11.3138006486814</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.00854700854701</c:v>
+                  <c:v>12.0597396193784</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.13253012048193</c:v>
+                  <c:v>12.3243205533339</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.09726443768997</c:v>
+                  <c:v>12.2498798849865</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.525</c:v>
+                  <c:v>10.9431824265483</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.00602409638554</c:v>
+                  <c:v>12.054271145261</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.68103448275862</c:v>
+                  <c:v>11.3193977159621</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.22834645669291</c:v>
+                  <c:v>10.1796027152756</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.80622009569378</c:v>
+                  <c:v>8.96243460680988</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.42608695652174</c:v>
+                  <c:v>7.69812725839972</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.57179487179487</c:v>
+                  <c:v>8.20472651987838</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.46972176759411</c:v>
+                  <c:v>3.344702528495</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.65158924205379</c:v>
+                  <c:v>-3.72052189289501</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.385555555555556</c:v>
+                  <c:v>-8.27826069296902</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.261752136752137</c:v>
+                  <c:v>-11.6421952874715</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.190177638453501</c:v>
+                  <c:v>-14.4168109958354</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.11530612244898</c:v>
+                  <c:v>-18.7629526441815</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.0808080808080808</c:v>
+                  <c:v>-21.8509041521121</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.0556</c:v>
+                  <c:v>-25.0985041683589</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.027281746031746</c:v>
+                  <c:v>-31.2825567655849</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.0133136094674556</c:v>
+                  <c:v>-37.5140837300462</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.0128331688055281</c:v>
+                  <c:v>-37.8333218610689</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1908,6 +1881,7 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="r"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -1915,11 +1889,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="767363981"/>
-        <c:axId val="170039523"/>
+        <c:axId val="118260059"/>
+        <c:axId val="751046084"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="767363981"/>
+        <c:axId val="118260059"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1928,6 +1902,7 @@
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
+            <a:noFill/>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -1940,6 +1915,186 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr vertOverflow="ellipsis" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" defTabSz="914400">
+                  <a:defRPr sz="1000" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="x-none" altLang="de-AT" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" normalizeH="0" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:rPr>
+                  <a:t>Hz</a:t>
+                </a:r>
+                <a:endParaRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" normalizeH="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="751046084"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="751046084"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr vertOverflow="ellipsis" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" defTabSz="914400">
+                  <a:defRPr sz="1000" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="x-none" altLang="de-AT" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" normalizeH="0" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:rPr>
+                  <a:t>dB</a:t>
+                </a:r>
+                <a:endParaRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" normalizeH="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1958,11 +2113,11 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" kern="1200">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1976,69 +2131,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="170039523"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="170039523"/>
-        <c:scaling>
-          <c:logBase val="10"/>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="767363981"/>
+        <c:crossAx val="118260059"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2050,37 +2143,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -2101,17 +2163,24 @@
     <a:effectLst/>
   </c:spPr>
   <c:txPr>
-    <a:bodyPr/>
+    <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr lang="en-US"/>
+        <a:defRPr lang="de-AT" sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
       </a:pPr>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins r="0.7" b="0.75" l="0.7" footer="0.3" header="0.3" t="0.75"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2131,37 +2200,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -2194,9 +2233,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet4!$A$3:$A$34</c:f>
@@ -2304,105 +2340,105 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet4!$E$3:$E$34</c:f>
+              <c:f>Sheet4!$G$3:$G$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>0.938053097345133</c:v>
+                  <c:v>-0.555451564372988</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.00300902708124</c:v>
+                  <c:v>0.0260968337668856</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.00300902708124</c:v>
+                  <c:v>0.0260968337668856</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.00300902708124</c:v>
+                  <c:v>0.0260968337668856</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.987817258883249</c:v>
+                  <c:v>-0.106467804585197</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.956705385427666</c:v>
+                  <c:v>-0.384435626529206</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.905555555555555</c:v>
+                  <c:v>-0.861698013986966</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.842473745624271</c:v>
+                  <c:v>-1.48887248707118</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.772506082725061</c:v>
+                  <c:v>-2.24196184496149</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.735475896168109</c:v>
+                  <c:v>-2.66863111767446</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.695760598503741</c:v>
+                  <c:v>-3.15080338693169</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.658690176322418</c:v>
+                  <c:v>-3.62637627119644</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.616279069767442</c:v>
+                  <c:v>-4.20445163285557</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.581395348837209</c:v>
+                  <c:v>-4.71056893815098</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.545348837209302</c:v>
+                  <c:v>-5.26651217056969</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.529069767441861</c:v>
+                  <c:v>-5.52974109172911</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.541666666666667</c:v>
+                  <c:v>-5.32535778809538</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.498837209302326</c:v>
+                  <c:v>-6.04082318117687</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.465116279069767</c:v>
+                  <c:v>-6.64876919831211</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.426744186046512</c:v>
+                  <c:v>-7.39664773982957</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.326136363636364</c:v>
+                  <c:v>-9.73201550832353</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.25</c:v>
+                  <c:v>-12.0411998265592</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.207446808510638</c:v>
+                  <c:v>-13.6618648447436</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.174468085106383</c:v>
+                  <c:v>-15.16568011104</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.139795918367347</c:v>
+                  <c:v>-17.0901101707218</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.116326530612245</c:v>
+                  <c:v>-18.6864244871204</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.0902912621359223</c:v>
+                  <c:v>-20.8870855230247</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.0728155339805825</c:v>
+                  <c:v>-22.7555192262694</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.0588785046728972</c:v>
+                  <c:v>-24.6008645646326</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.0457943925233645</c:v>
+                  <c:v>-26.7837539531339</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.0401869158878505</c:v>
+                  <c:v>-27.9183064421125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2410,6 +2446,7 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="r"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -2417,11 +2454,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="368492667"/>
-        <c:axId val="561976018"/>
+        <c:axId val="932533099"/>
+        <c:axId val="713527484"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="368492667"/>
+        <c:axId val="932533099"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2430,6 +2467,7 @@
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
+            <a:noFill/>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -2442,6 +2480,186 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr vertOverflow="ellipsis" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" defTabSz="914400">
+                  <a:defRPr sz="1000" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="x-none" altLang="de-AT" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" normalizeH="0" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:rPr>
+                  <a:t>Hz</a:t>
+                </a:r>
+                <a:endParaRPr lang="x-none" altLang="de-AT" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" normalizeH="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="713527484"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="713527484"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr vertOverflow="ellipsis" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" defTabSz="914400">
+                  <a:defRPr sz="1000" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="x-none" altLang="de-AT" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" normalizeH="0" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:rPr>
+                  <a:t>dB</a:t>
+                </a:r>
+                <a:endParaRPr lang="x-none" altLang="de-AT" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" normalizeH="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2460,11 +2678,11 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" kern="1200">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2478,69 +2696,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="561976018"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="561976018"/>
-        <c:scaling>
-          <c:logBase val="10"/>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="368492667"/>
+        <c:crossAx val="932533099"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2572,17 +2728,24 @@
     <a:effectLst/>
   </c:spPr>
   <c:txPr>
-    <a:bodyPr/>
+    <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr lang="en-US"/>
+        <a:defRPr lang="de-AT" sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
       </a:pPr>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins r="0.7" b="0.75" l="0.7" footer="0.3" header="0.3" t="0.75"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2602,37 +2765,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -2665,9 +2798,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet5!$A$3:$A$39</c:f>
@@ -2790,120 +2920,120 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet5!$E$3:$E$39</c:f>
+              <c:f>Sheet5!$G$3:$G$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="37"/>
                 <c:pt idx="0">
-                  <c:v>0.955769230769231</c:v>
+                  <c:v>-0.392939098029341</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.995</c:v>
+                  <c:v>-0.0435383850854909</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.995</c:v>
+                  <c:v>-0.0435383850854909</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.95281124497992</c:v>
+                  <c:v>-0.419862519928121</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.927638190954774</c:v>
+                  <c:v>-0.652427594396267</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.915322580645161</c:v>
+                  <c:v>-0.76851647266187</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.893939393939394</c:v>
+                  <c:v>-0.97383847799449</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.873481781376518</c:v>
+                  <c:v>-1.17492297744837</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.859311740890688</c:v>
+                  <c:v>-1.31698508687351</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.850050658561297</c:v>
+                  <c:v>-1.41110383681873</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.827235772357723</c:v>
+                  <c:v>-1.64741387084281</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.780040733197556</c:v>
+                  <c:v>-2.15765436308691</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.735444330949949</c:v>
+                  <c:v>-2.66900390743739</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.71136131013306</c:v>
+                  <c:v>-2.95819518257318</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.691598360655738</c:v>
+                  <c:v>-3.20292089671334</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.671794871794872</c:v>
+                  <c:v>-3.45526631413507</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.631687242798354</c:v>
+                  <c:v>-3.98995787570214</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.596907216494845</c:v>
+                  <c:v>-4.48186341077617</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.547520661157025</c:v>
+                  <c:v>-5.23198975415209</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.478756476683938</c:v>
+                  <c:v>-6.39770675575334</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.380853277835588</c:v>
+                  <c:v>-8.38484604548269</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.268267223382046</c:v>
+                  <c:v>-11.428647714945</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.206066945606695</c:v>
+                  <c:v>-13.7198333222901</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.166492146596859</c:v>
+                  <c:v>-15.5721249452659</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.0858638743455497</c:v>
+                  <c:v>-21.3237903840006</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.0459290187891441</c:v>
+                  <c:v>-26.7582566518471</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.0310880829015544</c:v>
+                  <c:v>-30.1481211724826</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.023686920700309</c:v>
+                  <c:v>-32.5098278778082</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.0215384615384615</c:v>
+                  <c:v>-33.3357064192924</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.0194472876151484</c:v>
+                  <c:v>-34.2228192553189</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.0173469387755102</c:v>
+                  <c:v>-35.2155430862844</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.0152594099694812</c:v>
+                  <c:v>-36.3292451755291</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.0142131979695431</c:v>
+                  <c:v>-36.9461638963875</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.0131578947368421</c:v>
+                  <c:v>-37.6162718456158</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.0100502512562814</c:v>
+                  <c:v>-39.9564616149145</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.00688976377952756</c:v>
+                  <c:v>-43.2359133586729</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.00682926829268293</c:v>
+                  <c:v>-43.3125165075503</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2911,6 +3041,7 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="r"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -2918,11 +3049,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="869262607"/>
-        <c:axId val="255322887"/>
+        <c:axId val="698702508"/>
+        <c:axId val="525899513"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="869262607"/>
+        <c:axId val="698702508"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2931,6 +3062,7 @@
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
+            <a:noFill/>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -2943,6 +3075,186 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr vertOverflow="ellipsis" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" defTabSz="914400">
+                  <a:defRPr sz="1000" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="x-none" altLang="de-AT" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" normalizeH="0" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:rPr>
+                  <a:t>Hz</a:t>
+                </a:r>
+                <a:endParaRPr lang="x-none" altLang="de-AT" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" normalizeH="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="525899513"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="525899513"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr vertOverflow="ellipsis" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" defTabSz="914400">
+                  <a:defRPr sz="1000" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="x-none" altLang="de-AT" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" normalizeH="0" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:rPr>
+                  <a:t>dB</a:t>
+                </a:r>
+                <a:endParaRPr lang="x-none" altLang="de-AT" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" normalizeH="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2961,11 +3273,11 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" kern="1200">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2979,69 +3291,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="255322887"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="255322887"/>
-        <c:scaling>
-          <c:logBase val="10"/>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="869262607"/>
+        <c:crossAx val="698702508"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3073,17 +3323,24 @@
     <a:effectLst/>
   </c:spPr>
   <c:txPr>
-    <a:bodyPr/>
+    <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr lang="en-US"/>
+        <a:defRPr lang="de-AT" sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
       </a:pPr>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins r="0.7" b="0.75" l="0.7" footer="0.3" header="0.3" t="0.75"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3114,7 +3371,7 @@
         <a:effectLst/>
       </c:spPr>
       <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
@@ -3322,6 +3579,7 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="r"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -3342,6 +3600,7 @@
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
+            <a:noFill/>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -3372,7 +3631,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -3404,6 +3663,7 @@
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
+            <a:noFill/>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -3434,7 +3694,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -3484,7 +3744,7 @@
     <a:effectLst/>
   </c:spPr>
   <c:txPr>
-    <a:bodyPr/>
+    <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
     <a:lstStyle/>
     <a:p>
       <a:pPr>
@@ -3494,7 +3754,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins r="0.7" b="0.75" l="0.7" footer="0.3" header="0.3" t="0.75"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6857,8 +7117,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5181600" y="2733675"/>
-        <a:ext cx="4572000" cy="2743200"/>
+        <a:off x="6754495" y="2447925"/>
+        <a:ext cx="6056630" cy="2457450"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6892,8 +7152,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4834890" y="1395730"/>
-        <a:ext cx="7576185" cy="3909695"/>
+        <a:off x="6221095" y="1262380"/>
+        <a:ext cx="10209530" cy="3490595"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6910,25 +7170,25 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>476885</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>61595</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>33020</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>262255</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>850265</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>108585</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="6" name="Chart 5"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5281295" y="1147445"/>
-        <a:ext cx="6262370" cy="4291330"/>
+        <a:off x="7705725" y="793750"/>
+        <a:ext cx="6835775" cy="3362960"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6945,25 +7205,25 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>555625</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>90170</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>20320</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>132080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>182245</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>23495</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>8890</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>81280</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4064635" y="995045"/>
-        <a:ext cx="8046720" cy="4819650"/>
+        <a:off x="8128635" y="779780"/>
+        <a:ext cx="6866890" cy="3349625"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6981,24 +7241,24 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>5715</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>24130</xdr:rowOff>
+      <xdr:colOff>22225</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>280670</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>6985</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="5" name="Chart 4"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5457825" y="205105"/>
-        <a:ext cx="9342755" cy="4728845"/>
+        <a:off x="7694930" y="1314450"/>
+        <a:ext cx="6863080" cy="3390900"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7032,8 +7292,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3790950" y="971550"/>
-        <a:ext cx="9229090" cy="4123690"/>
+        <a:off x="4939665" y="876300"/>
+        <a:ext cx="12198350" cy="3685540"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7051,7 +7311,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="4A4A4A"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -7298,6 +7558,7 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
@@ -7310,9 +7571,9 @@
       <selection activeCell="A24" sqref="A3:A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="14.25" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.02666666666667" defaultRowHeight="12.75" outlineLevelCol="5"/>
   <cols>
-    <col min="5" max="5" width="12.7964601769912"/>
+    <col min="5" max="5" width="12.7933333333333"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -7674,7 +7935,6 @@
       <c r="C21">
         <v>0.12</v>
       </c>
-      <c r="D21"/>
       <c r="E21">
         <f t="shared" si="0"/>
         <v>0.0574162679425837</v>
@@ -7693,7 +7953,6 @@
       <c r="C22">
         <v>0.1</v>
       </c>
-      <c r="D22"/>
       <c r="E22">
         <f t="shared" si="0"/>
         <v>0.0478468899521531</v>
@@ -7745,10 +8004,10 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="14.25" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.02666666666667" defaultRowHeight="12.75" outlineLevelCol="5"/>
   <cols>
-    <col min="5" max="5" width="13.858407079646"/>
-    <col min="7" max="7" width="12.7964601769912"/>
+    <col min="5" max="5" width="13.86"/>
+    <col min="7" max="7" width="12.7933333333333"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -8185,15 +8444,16 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E39" sqref="A1:E39"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="14.25" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.02666666666667" defaultRowHeight="12.75" outlineLevelCol="6"/>
   <cols>
-    <col min="5" max="5" width="12.7964601769912"/>
+    <col min="5" max="5" width="12.7933333333333"/>
+    <col min="7" max="7" width="13.6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -8215,7 +8475,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>10</v>
       </c>
@@ -8235,8 +8495,12 @@
       <c r="F3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="G3">
+        <f>20*LOG10(C3/B3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>50</v>
       </c>
@@ -8253,8 +8517,12 @@
         <f t="shared" ref="E4:E39" si="0">C4/B4</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="G4">
+        <f t="shared" ref="G4:G39" si="1">20*LOG10(C4/B4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>100</v>
       </c>
@@ -8271,8 +8539,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>500</v>
       </c>
@@ -8289,8 +8561,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>1000</v>
       </c>
@@ -8307,8 +8583,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>2000</v>
       </c>
@@ -8325,8 +8605,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>4000</v>
       </c>
@@ -8343,8 +8627,12 @@
         <f t="shared" si="0"/>
         <v>1.05607476635514</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>0.4738933159642</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>6000</v>
       </c>
@@ -8361,8 +8649,12 @@
         <f t="shared" si="0"/>
         <v>1.11428571428571</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>0.93993125352447</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>8000</v>
       </c>
@@ -8379,8 +8671,12 @@
         <f t="shared" si="0"/>
         <v>1.31632653061224</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>2.38727269213508</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>10000</v>
       </c>
@@ -8397,8 +8693,12 @@
         <f t="shared" si="0"/>
         <v>1.55681818181818</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>3.84475790012476</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>11000</v>
       </c>
@@ -8415,8 +8715,12 @@
         <f t="shared" si="0"/>
         <v>1.82533333333333</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>5.2268436948458</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>12000</v>
       </c>
@@ -8433,8 +8737,12 @@
         <f t="shared" si="0"/>
         <v>2.14848484848485</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>6.64264590610358</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>13000</v>
       </c>
@@ -8451,8 +8759,12 @@
         <f t="shared" si="0"/>
         <v>2.62206148282098</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>8.37285741860553</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>13500</v>
       </c>
@@ -8469,8 +8781,12 @@
         <f t="shared" si="0"/>
         <v>2.92741935483871</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>9.32969879747755</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>14000</v>
       </c>
@@ -8487,8 +8803,12 @@
         <f t="shared" si="0"/>
         <v>3.28863636363636</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>10.340317092657</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>14500</v>
       </c>
@@ -8505,8 +8825,12 @@
         <f t="shared" si="0"/>
         <v>3.67866323907455</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>11.3138006486814</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19">
         <v>15000</v>
       </c>
@@ -8523,8 +8847,12 @@
         <f t="shared" si="0"/>
         <v>4.00854700854701</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>12.0597396193784</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20">
         <v>15500</v>
       </c>
@@ -8541,8 +8869,12 @@
         <f t="shared" si="0"/>
         <v>4.13253012048193</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>12.3243205533339</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21">
         <v>15799</v>
       </c>
@@ -8559,8 +8891,12 @@
         <f t="shared" si="0"/>
         <v>4.09726443768997</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>12.2498798849865</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22">
         <v>15916</v>
       </c>
@@ -8577,8 +8913,12 @@
         <f t="shared" si="0"/>
         <v>3.525</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>10.9431824265483</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23">
         <v>16000</v>
       </c>
@@ -8595,8 +8935,12 @@
         <f t="shared" si="0"/>
         <v>4.00602409638554</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>12.054271145261</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24">
         <v>16500</v>
       </c>
@@ -8613,8 +8957,12 @@
         <f t="shared" si="0"/>
         <v>3.68103448275862</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>11.3193977159621</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25">
         <v>17000</v>
       </c>
@@ -8631,8 +8979,12 @@
         <f t="shared" si="0"/>
         <v>3.22834645669291</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>10.1796027152756</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26">
         <v>17500</v>
       </c>
@@ -8649,8 +9001,12 @@
         <f t="shared" si="0"/>
         <v>2.80622009569378</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="G26">
+        <f t="shared" si="1"/>
+        <v>8.96243460680988</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27">
         <v>18000</v>
       </c>
@@ -8667,8 +9023,12 @@
         <f t="shared" si="0"/>
         <v>2.42608695652174</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="G27">
+        <f t="shared" si="1"/>
+        <v>7.69812725839972</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28">
         <v>19000</v>
       </c>
@@ -8685,8 +9045,12 @@
         <f t="shared" si="0"/>
         <v>2.57179487179487</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="G28">
+        <f t="shared" si="1"/>
+        <v>8.20472651987838</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29">
         <v>20000</v>
       </c>
@@ -8703,8 +9067,12 @@
         <f t="shared" si="0"/>
         <v>1.46972176759411</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="G29">
+        <f t="shared" si="1"/>
+        <v>3.344702528495</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30">
         <v>25000</v>
       </c>
@@ -8721,8 +9089,12 @@
         <f t="shared" si="0"/>
         <v>0.65158924205379</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="G30">
+        <f t="shared" si="1"/>
+        <v>-3.72052189289501</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31">
         <v>30000</v>
       </c>
@@ -8739,8 +9111,12 @@
         <f t="shared" si="0"/>
         <v>0.385555555555556</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="G31">
+        <f t="shared" si="1"/>
+        <v>-8.27826069296902</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32">
         <v>35000</v>
       </c>
@@ -8757,8 +9133,12 @@
         <f t="shared" si="0"/>
         <v>0.261752136752137</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="G32">
+        <f t="shared" si="1"/>
+        <v>-11.6421952874715</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33">
         <v>40000</v>
       </c>
@@ -8775,8 +9155,12 @@
         <f t="shared" si="0"/>
         <v>0.190177638453501</v>
       </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="G33">
+        <f t="shared" si="1"/>
+        <v>-14.4168109958354</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34">
         <v>50000</v>
       </c>
@@ -8793,8 +9177,12 @@
         <f t="shared" si="0"/>
         <v>0.11530612244898</v>
       </c>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="G34">
+        <f t="shared" si="1"/>
+        <v>-18.7629526441815</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35">
         <v>60000</v>
       </c>
@@ -8811,8 +9199,12 @@
         <f t="shared" si="0"/>
         <v>0.0808080808080808</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="G35">
+        <f t="shared" si="1"/>
+        <v>-21.8509041521121</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36">
         <v>70000</v>
       </c>
@@ -8829,8 +9221,12 @@
         <f t="shared" si="0"/>
         <v>0.0556</v>
       </c>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="G36">
+        <f t="shared" si="1"/>
+        <v>-25.0985041683589</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37">
         <v>100000</v>
       </c>
@@ -8847,8 +9243,12 @@
         <f t="shared" si="0"/>
         <v>0.027281746031746</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="G37">
+        <f t="shared" si="1"/>
+        <v>-31.2825567655849</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38">
         <v>150000</v>
       </c>
@@ -8865,8 +9265,12 @@
         <f t="shared" si="0"/>
         <v>0.0133136094674556</v>
       </c>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="G38">
+        <f t="shared" si="1"/>
+        <v>-37.5140837300462</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39">
         <v>200000</v>
       </c>
@@ -8882,6 +9286,10 @@
       <c r="E39">
         <f t="shared" si="0"/>
         <v>0.0128331688055281</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="1"/>
+        <v>-37.8333218610689</v>
       </c>
     </row>
   </sheetData>
@@ -8894,15 +9302,16 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E3" sqref="A3:A34;E3:E34"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="14.25" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.02666666666667" defaultRowHeight="12.75" outlineLevelCol="6"/>
   <cols>
-    <col min="5" max="5" width="12.7964601769912"/>
+    <col min="5" max="5" width="12.7933333333333"/>
+    <col min="6" max="7" width="13.6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -8924,7 +9333,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>10</v>
       </c>
@@ -8938,11 +9347,15 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <f>C3/B3</f>
+        <f t="shared" ref="E3:E34" si="0">C3/B3</f>
         <v>0.938053097345133</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="G3">
+        <f>20*LOG10(C3/B3)</f>
+        <v>-0.555451564372988</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>50</v>
       </c>
@@ -8956,11 +9369,15 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <f>C4/B4</f>
+        <f t="shared" si="0"/>
         <v>1.00300902708124</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="G4">
+        <f t="shared" ref="G4:G34" si="1">20*LOG10(C4/B4)</f>
+        <v>0.0260968337668856</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>100</v>
       </c>
@@ -8974,11 +9391,15 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <f>C5/B5</f>
+        <f t="shared" si="0"/>
         <v>1.00300902708124</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>0.0260968337668856</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>500</v>
       </c>
@@ -8992,11 +9413,15 @@
         <v>-3.2</v>
       </c>
       <c r="E6">
-        <f>C6/B6</f>
+        <f t="shared" si="0"/>
         <v>1.00300902708124</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>0.0260968337668856</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>1000</v>
       </c>
@@ -9010,11 +9435,15 @@
         <v>6.43</v>
       </c>
       <c r="E7">
-        <f>C7/B7</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>2000</v>
       </c>
@@ -9028,11 +9457,15 @@
         <v>12.8</v>
       </c>
       <c r="E8">
-        <f>C8/B8</f>
+        <f t="shared" si="0"/>
         <v>0.987817258883249</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>-0.106467804585197</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>4000</v>
       </c>
@@ -9046,11 +9479,15 @@
         <v>25.32</v>
       </c>
       <c r="E9">
-        <f>C9/B9</f>
+        <f t="shared" si="0"/>
         <v>0.956705385427666</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>-0.384435626529206</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>6000</v>
       </c>
@@ -9064,11 +9501,15 @@
         <v>38</v>
       </c>
       <c r="E10">
-        <f>C10/B10</f>
+        <f t="shared" si="0"/>
         <v>0.905555555555555</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>-0.861698013986966</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>8000</v>
       </c>
@@ -9082,11 +9523,15 @@
         <v>49.78</v>
       </c>
       <c r="E11">
-        <f>C11/B11</f>
+        <f t="shared" si="0"/>
         <v>0.842473745624271</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>-1.48887248707118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>10000</v>
       </c>
@@ -9100,11 +9545,15 @@
         <v>61.3</v>
       </c>
       <c r="E12">
-        <f>C12/B12</f>
+        <f t="shared" si="0"/>
         <v>0.772506082725061</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>-2.24196184496149</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>11000</v>
       </c>
@@ -9118,11 +9567,15 @@
         <v>66.3</v>
       </c>
       <c r="E13">
-        <f>C13/B13</f>
+        <f t="shared" si="0"/>
         <v>0.735475896168109</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>-2.66863111767446</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>12000</v>
       </c>
@@ -9136,11 +9589,15 @@
         <v>71.4</v>
       </c>
       <c r="E14">
-        <f>C14/B14</f>
+        <f t="shared" si="0"/>
         <v>0.695760598503741</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>-3.15080338693169</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>13000</v>
       </c>
@@ -9154,11 +9611,15 @@
         <v>76</v>
       </c>
       <c r="E15">
-        <f>C15/B15</f>
+        <f t="shared" si="0"/>
         <v>0.658690176322418</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>-3.62637627119644</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>14000</v>
       </c>
@@ -9172,11 +9633,15 @@
         <v>83.23</v>
       </c>
       <c r="E16">
-        <f>C16/B16</f>
+        <f t="shared" si="0"/>
         <v>0.616279069767442</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>-4.20445163285557</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>15000</v>
       </c>
@@ -9190,11 +9655,15 @@
         <v>88.3</v>
       </c>
       <c r="E17">
-        <f>C17/B17</f>
+        <f t="shared" si="0"/>
         <v>0.581395348837209</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>-4.71056893815098</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>15500</v>
       </c>
@@ -9208,14 +9677,18 @@
         <v>90</v>
       </c>
       <c r="E18">
-        <f>C18/B18</f>
+        <f t="shared" si="0"/>
         <v>0.545348837209302</v>
       </c>
       <c r="F18" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>-5.26651217056969</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19">
         <v>15916</v>
       </c>
@@ -9229,11 +9702,15 @@
         <v>91.87</v>
       </c>
       <c r="E19">
-        <f>C19/B19</f>
+        <f t="shared" si="0"/>
         <v>0.529069767441861</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>-5.52974109172911</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20">
         <v>16000</v>
       </c>
@@ -9247,11 +9724,15 @@
         <v>92.5</v>
       </c>
       <c r="E20">
-        <f>C20/B20</f>
+        <f t="shared" si="0"/>
         <v>0.541666666666667</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>-5.32535778809538</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21">
         <v>17000</v>
       </c>
@@ -9265,11 +9746,15 @@
         <v>95.7</v>
       </c>
       <c r="E21">
-        <f>C21/B21</f>
+        <f t="shared" si="0"/>
         <v>0.498837209302326</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>-6.04082318117687</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22">
         <v>18000</v>
       </c>
@@ -9283,11 +9768,15 @@
         <v>98.07</v>
       </c>
       <c r="E22">
-        <f>C22/B22</f>
+        <f t="shared" si="0"/>
         <v>0.465116279069767</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>-6.64876919831211</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23">
         <v>20000</v>
       </c>
@@ -9301,11 +9790,15 @@
         <v>105.7</v>
       </c>
       <c r="E23">
-        <f>C23/B23</f>
+        <f t="shared" si="0"/>
         <v>0.426744186046512</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>-7.39664773982957</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24">
         <v>25000</v>
       </c>
@@ -9319,11 +9812,15 @@
         <v>119.45</v>
       </c>
       <c r="E24">
-        <f>C24/B24</f>
+        <f t="shared" si="0"/>
         <v>0.326136363636364</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>-9.73201550832353</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25">
         <v>30000</v>
       </c>
@@ -9337,11 +9834,15 @@
         <v>126</v>
       </c>
       <c r="E25">
-        <f>C25/B25</f>
+        <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>-12.0411998265592</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26">
         <v>35000</v>
       </c>
@@ -9355,11 +9856,15 @@
         <v>135.7</v>
       </c>
       <c r="E26">
-        <f>C26/B26</f>
+        <f t="shared" si="0"/>
         <v>0.207446808510638</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="G26">
+        <f t="shared" si="1"/>
+        <v>-13.6618648447436</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27">
         <v>40000</v>
       </c>
@@ -9373,11 +9878,15 @@
         <v>142.53</v>
       </c>
       <c r="E27">
-        <f>C27/B27</f>
+        <f t="shared" si="0"/>
         <v>0.174468085106383</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="G27">
+        <f t="shared" si="1"/>
+        <v>-15.16568011104</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28">
         <v>45000</v>
       </c>
@@ -9391,11 +9900,15 @@
         <v>146</v>
       </c>
       <c r="E28">
-        <f>C28/B28</f>
+        <f t="shared" si="0"/>
         <v>0.139795918367347</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="G28">
+        <f t="shared" si="1"/>
+        <v>-17.0901101707218</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29">
         <v>50000</v>
       </c>
@@ -9409,11 +9922,15 @@
         <v>155.3</v>
       </c>
       <c r="E29">
-        <f>C29/B29</f>
+        <f t="shared" si="0"/>
         <v>0.116326530612245</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="G29">
+        <f t="shared" si="1"/>
+        <v>-18.6864244871204</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30">
         <v>60000</v>
       </c>
@@ -9427,11 +9944,15 @@
         <v>157.87</v>
       </c>
       <c r="E30">
-        <f>C30/B30</f>
+        <f t="shared" si="0"/>
         <v>0.0902912621359223</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="G30">
+        <f t="shared" si="1"/>
+        <v>-20.8870855230247</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31">
         <v>80000</v>
       </c>
@@ -9441,13 +9962,16 @@
       <c r="C31">
         <v>0.075</v>
       </c>
-      <c r="D31"/>
       <c r="E31">
-        <f>C31/B31</f>
+        <f t="shared" si="0"/>
         <v>0.0728155339805825</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="G31">
+        <f t="shared" si="1"/>
+        <v>-22.7555192262694</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32">
         <v>100000</v>
       </c>
@@ -9457,13 +9981,16 @@
       <c r="C32">
         <v>0.063</v>
       </c>
-      <c r="D32"/>
       <c r="E32">
-        <f>C32/B32</f>
+        <f t="shared" si="0"/>
         <v>0.0588785046728972</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="G32">
+        <f t="shared" si="1"/>
+        <v>-24.6008645646326</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33">
         <v>150000</v>
       </c>
@@ -9473,13 +10000,16 @@
       <c r="C33">
         <v>0.049</v>
       </c>
-      <c r="D33"/>
       <c r="E33">
-        <f>C33/B33</f>
+        <f t="shared" si="0"/>
         <v>0.0457943925233645</v>
       </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="G33">
+        <f t="shared" si="1"/>
+        <v>-26.7837539531339</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34">
         <v>200000</v>
       </c>
@@ -9489,10 +10019,13 @@
       <c r="C34">
         <v>0.043</v>
       </c>
-      <c r="D34"/>
       <c r="E34">
-        <f>C34/B34</f>
+        <f t="shared" si="0"/>
         <v>0.0401869158878505</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="1"/>
+        <v>-27.9183064421125</v>
       </c>
     </row>
   </sheetData>
@@ -9505,15 +10038,16 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.02666666666667" defaultRowHeight="12.75" outlineLevelCol="6"/>
   <cols>
-    <col min="5" max="5" width="12.7964601769912"/>
+    <col min="5" max="5" width="12.7933333333333"/>
+    <col min="7" max="7" width="13.6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -9535,7 +10069,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>10</v>
       </c>
@@ -9552,8 +10086,12 @@
         <f>C3/B3</f>
         <v>0.955769230769231</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="G3">
+        <f>20*LOG10(C3/B3)</f>
+        <v>-0.392939098029341</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>50</v>
       </c>
@@ -9570,8 +10108,12 @@
         <f t="shared" ref="E4:E39" si="0">C4/B4</f>
         <v>0.995</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="G4">
+        <f t="shared" ref="G4:G39" si="1">20*LOG10(C4/B4)</f>
+        <v>-0.0435383850854909</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>100</v>
       </c>
@@ -9588,8 +10130,12 @@
         <f t="shared" si="0"/>
         <v>0.995</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>-0.0435383850854909</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>500</v>
       </c>
@@ -9606,8 +10152,12 @@
         <f t="shared" si="0"/>
         <v>0.95281124497992</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>-0.419862519928121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>600</v>
       </c>
@@ -9624,8 +10174,12 @@
         <f t="shared" si="0"/>
         <v>0.927638190954774</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>-0.652427594396267</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>700</v>
       </c>
@@ -9642,8 +10196,12 @@
         <f t="shared" si="0"/>
         <v>0.915322580645161</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>-0.76851647266187</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>800</v>
       </c>
@@ -9660,8 +10218,12 @@
         <f t="shared" si="0"/>
         <v>0.893939393939394</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>-0.97383847799449</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>900</v>
       </c>
@@ -9678,8 +10240,12 @@
         <f t="shared" si="0"/>
         <v>0.873481781376518</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>-1.17492297744837</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>950</v>
       </c>
@@ -9696,8 +10262,12 @@
         <f t="shared" si="0"/>
         <v>0.859311740890688</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>-1.31698508687351</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>1000</v>
       </c>
@@ -9714,8 +10284,12 @@
         <f t="shared" si="0"/>
         <v>0.850050658561297</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>-1.41110383681873</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>1100</v>
       </c>
@@ -9729,8 +10303,12 @@
         <f t="shared" si="0"/>
         <v>0.827235772357723</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>-1.64741387084281</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>1300</v>
       </c>
@@ -9747,8 +10325,12 @@
         <f t="shared" si="0"/>
         <v>0.780040733197556</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>-2.15765436308691</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>1500</v>
       </c>
@@ -9765,8 +10347,12 @@
         <f t="shared" si="0"/>
         <v>0.735444330949949</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>-2.66900390743739</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>1600</v>
       </c>
@@ -9783,8 +10369,12 @@
         <f t="shared" si="0"/>
         <v>0.71136131013306</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>-2.95819518257318</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>1700</v>
       </c>
@@ -9801,8 +10391,12 @@
         <f t="shared" si="0"/>
         <v>0.691598360655738</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>-3.20292089671334</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>1800</v>
       </c>
@@ -9819,8 +10413,12 @@
         <f t="shared" si="0"/>
         <v>0.671794871794872</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>-3.45526631413507</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19">
         <v>2000</v>
       </c>
@@ -9837,8 +10435,12 @@
         <f t="shared" si="0"/>
         <v>0.631687242798354</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>-3.98995787570214</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20">
         <v>2200</v>
       </c>
@@ -9855,8 +10457,12 @@
         <f t="shared" si="0"/>
         <v>0.596907216494845</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>-4.48186341077617</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21">
         <v>2500</v>
       </c>
@@ -9873,8 +10479,12 @@
         <f t="shared" si="0"/>
         <v>0.547520661157025</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>-5.23198975415209</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22">
         <v>3000</v>
       </c>
@@ -9891,8 +10501,12 @@
         <f t="shared" si="0"/>
         <v>0.478756476683938</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>-6.39770675575334</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23">
         <v>4000</v>
       </c>
@@ -9909,8 +10523,12 @@
         <f t="shared" si="0"/>
         <v>0.380853277835588</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>-8.38484604548269</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24">
         <v>6000</v>
       </c>
@@ -9927,8 +10545,12 @@
         <f t="shared" si="0"/>
         <v>0.268267223382046</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>-11.428647714945</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25">
         <v>8000</v>
       </c>
@@ -9945,8 +10567,12 @@
         <f t="shared" si="0"/>
         <v>0.206066945606695</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>-13.7198333222901</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26">
         <v>10000</v>
       </c>
@@ -9963,8 +10589,12 @@
         <f t="shared" si="0"/>
         <v>0.166492146596859</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="G26">
+        <f t="shared" si="1"/>
+        <v>-15.5721249452659</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27">
         <v>20000</v>
       </c>
@@ -9981,8 +10611,12 @@
         <f t="shared" si="0"/>
         <v>0.0858638743455497</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="G27">
+        <f t="shared" si="1"/>
+        <v>-21.3237903840006</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28">
         <v>40000</v>
       </c>
@@ -9999,8 +10633,12 @@
         <f t="shared" si="0"/>
         <v>0.0459290187891441</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="G28">
+        <f t="shared" si="1"/>
+        <v>-26.7582566518471</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29">
         <v>60000</v>
       </c>
@@ -10017,8 +10655,12 @@
         <f t="shared" si="0"/>
         <v>0.0310880829015544</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="G29">
+        <f t="shared" si="1"/>
+        <v>-30.1481211724826</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30">
         <v>80000</v>
       </c>
@@ -10035,8 +10677,12 @@
         <f t="shared" si="0"/>
         <v>0.023686920700309</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="G30">
+        <f t="shared" si="1"/>
+        <v>-32.5098278778082</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31">
         <v>90000</v>
       </c>
@@ -10053,8 +10699,12 @@
         <f t="shared" si="0"/>
         <v>0.0215384615384615</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="G31">
+        <f t="shared" si="1"/>
+        <v>-33.3357064192924</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32">
         <v>100000</v>
       </c>
@@ -10071,8 +10721,12 @@
         <f t="shared" si="0"/>
         <v>0.0194472876151484</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="G32">
+        <f t="shared" si="1"/>
+        <v>-34.2228192553189</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33">
         <v>110000</v>
       </c>
@@ -10089,8 +10743,12 @@
         <f t="shared" si="0"/>
         <v>0.0173469387755102</v>
       </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="G33">
+        <f t="shared" si="1"/>
+        <v>-35.2155430862844</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34">
         <v>120000</v>
       </c>
@@ -10107,8 +10765,12 @@
         <f t="shared" si="0"/>
         <v>0.0152594099694812</v>
       </c>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="G34">
+        <f t="shared" si="1"/>
+        <v>-36.3292451755291</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35">
         <v>130000</v>
       </c>
@@ -10122,8 +10784,12 @@
         <f t="shared" si="0"/>
         <v>0.0142131979695431</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="G35">
+        <f t="shared" si="1"/>
+        <v>-36.9461638963875</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36">
         <v>150000</v>
       </c>
@@ -10137,8 +10803,12 @@
         <f t="shared" si="0"/>
         <v>0.0131578947368421</v>
       </c>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="G36">
+        <f t="shared" si="1"/>
+        <v>-37.6162718456158</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37">
         <v>200000</v>
       </c>
@@ -10152,8 +10822,12 @@
         <f t="shared" si="0"/>
         <v>0.0100502512562814</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="G37">
+        <f t="shared" si="1"/>
+        <v>-39.9564616149145</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38">
         <v>500000</v>
       </c>
@@ -10167,8 +10841,12 @@
         <f t="shared" si="0"/>
         <v>0.00688976377952756</v>
       </c>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="G38">
+        <f t="shared" si="1"/>
+        <v>-43.2359133586729</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39">
         <v>1000000</v>
       </c>
@@ -10181,6 +10859,10 @@
       <c r="E39">
         <f t="shared" si="0"/>
         <v>0.00682926829268293</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="1"/>
+        <v>-43.3125165075503</v>
       </c>
     </row>
   </sheetData>
@@ -10195,13 +10877,13 @@
   <sheetPr/>
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.02666666666667" defaultRowHeight="12.75" outlineLevelCol="4"/>
   <cols>
-    <col min="5" max="5" width="12.7964601769912"/>
+    <col min="5" max="5" width="12.7933333333333"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">

--- a/lu2/aufgabe3.1_rc_tiefpass_bodediagramm.xlsx
+++ b/lu2/aufgabe3.1_rc_tiefpass_bodediagramm.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24000" windowHeight="13260" activeTab="4"/>
+    <workbookView windowWidth="24292" windowHeight="13042" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -95,10 +96,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -110,21 +111,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -132,16 +118,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -155,11 +150,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -171,7 +180,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -206,52 +253,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -262,7 +263,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -274,25 +317,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -310,7 +335,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -322,31 +419,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -358,61 +431,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,25 +443,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -456,17 +457,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -489,8 +499,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -500,21 +525,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -544,162 +554,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -710,888 +711,60 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
     <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="Accent1" xfId="19" builtinId="29"/>
-    <cellStyle name="Comma[0]" xfId="20" builtinId="6"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Currency[0]" xfId="37" builtinId="7"/>
-    <cellStyle name="Heading 1" xfId="38" builtinId="16"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50"/>
-    <cellStyle name="Title" xfId="40" builtinId="15"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="20% - Accent1" xfId="42" builtinId="30"/>
-    <cellStyle name="Hyperlink" xfId="43" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="45" builtinId="17"/>
-    <cellStyle name="Comma" xfId="46" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="47" builtinId="23"/>
-    <cellStyle name="Percent" xfId="48" builtinId="5"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$A$3:$A$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>723</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>6000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>8000</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>20000</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>40000</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>60000</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>80000</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>100000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$E$3:$E$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
-                <c:pt idx="0">
-                  <c:v>0.990430622009569</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.990430622009569</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.990430622009569</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.990430622009569</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.990430622009569</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.980861244019139</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.952153110047847</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.875598086124402</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.770334928229665</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.712918660287081</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.674641148325359</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.598086124401914</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.354066985645933</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.200956937799043</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.15311004784689</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.124401913875598</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.105263157894737</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.0669856459330144</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.0574162679425837</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.0478468899521531</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.0478468899521531</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.0382775119617225</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="r"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="349476533"/>
-        <c:axId val="15787877"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="349476533"/>
-        <c:scaling>
-          <c:logBase val="10"/>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="15787877"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="15787877"/>
-        <c:scaling>
-          <c:logBase val="10"/>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="349476533"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr lang="en-US"/>
-      </a:pPr>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins r="0.7" b="0.75" l="0.7" footer="0.3" header="0.3" t="0.75"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet2!$A$3:$A$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>7480</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>8000</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>20000</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>40000</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>60000</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>80000</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>100000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet2!$E$3:$E$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
-                <c:pt idx="0">
-                  <c:v>0.0485714285714286</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0504761904761905</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0514285714285714</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0514285714285714</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0533333333333333</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0533333333333333</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.060952380952381</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.0838095238095238</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.111428571428571</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.133644859813084</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.157943925233645</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.282242990654206</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.475652173913044</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.645669291338583</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.725925925925926</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.762962962962963</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.80952380952381</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.932203389830508</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.969543147208122</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.975369458128079</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.00966183574879</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="r"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="156014641"/>
-        <c:axId val="407076094"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="156014641"/>
-        <c:scaling>
-          <c:logBase val="10"/>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="407076094"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="407076094"/>
-        <c:scaling>
-          <c:logBase val="10"/>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="156014641"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr lang="en-US"/>
-      </a:pPr>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins r="0.7" b="0.75" l="0.7" footer="0.3" header="0.3" t="0.75"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -1638,6 +811,1424 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dPt>
+            <c:idx val="14"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="14"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr defTabSz="914400">
+                      <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="75000"/>
+                            <a:lumOff val="25000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:t>-2,78215386 </a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="de-DE" altLang="en-US"/>
+                      <a:t>dB</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="de-DE" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$3:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7480</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$G$3:$G$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>-26.27238245944</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-25.938268589383</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-25.7759107849394</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-25.7759107849394</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-25.4600254412748</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-25.4600254412748</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-24.300186501721</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-21.5341325383954</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-19.0600687464755</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-17.480954804403</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-16.0299414614307</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-10.9875366945612</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-6.45421028040362</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-3.7997973714448</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-2.78215385605023</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-2.34993087579668</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1.83540746711291</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.609786442958007</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.268657178277308</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.216616953033636</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.0835188130827254</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$3:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7480</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$I$3:$I$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>-2.78215385605023</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.78215385605023</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.78215385605023</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.78215385605023</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.78215385605023</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-2.78215385605023</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2.78215385605023</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-2.78215385605023</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2.78215385605023</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2.78215385605023</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2.78215385605023</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-2.78215385605023</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-2.78215385605023</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-2.78215385605023</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-2.78215385605023</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-2.78215385605023</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-2.78215385605023</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-2.78215385605023</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-2.78215385605023</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-2.78215385605023</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-2.78215385605023</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-2.78215385605023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd" cmpd="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:alpha val="86000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$I$3:$I$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>-2.78215385605023</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.78215385605023</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.78215385605023</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.78215385605023</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.78215385605023</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-2.78215385605023</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2.78215385605023</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-2.78215385605023</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2.78215385605023</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2.78215385605023</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2.78215385605023</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-2.78215385605023</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-2.78215385605023</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-2.78215385605023</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-2.78215385605023</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-2.78215385605023</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-2.78215385605023</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-2.78215385605023</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-2.78215385605023</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-2.78215385605023</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-2.78215385605023</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-2.78215385605023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$3:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7480</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="510167633"/>
+        <c:axId val="82802139"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="510167633"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="10"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr defTabSz="914400">
+                  <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE" altLang="en-US"/>
+                  <a:t>Hz</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-DE" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="82802139"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="82802139"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr defTabSz="914400">
+                  <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE" altLang="en-US"/>
+                  <a:t>dB</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-DE" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="510167633"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="en-US"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$3:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7480</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$D$3:$D$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.97</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>47.51</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>61.23</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>65.04</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>67.83</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70.64</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>66.06</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>56.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45.6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>40.01</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>38.4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>32.63</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18.02</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.09</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="950451526"/>
+        <c:axId val="711762293"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="950451526"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="10"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr defTabSz="914400">
+                  <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE" altLang="en-US"/>
+                  <a:t>Hz</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-DE" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="711762293"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="711762293"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="90"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr defTabSz="914400">
+                  <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE" altLang="en-US"/>
+                  <a:t>Phasenverschiebung [°]</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-DE" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="950451526"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="en-US"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet3!$A$3:$A$39</c:f>
@@ -1881,7 +2472,6 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="r"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -1902,7 +2492,6 @@
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:noFill/>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -1910,6 +2499,7 @@
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1918,11 +2508,11 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr vertOverflow="ellipsis" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr algn="ctr" defTabSz="914400">
-                  <a:defRPr sz="1000" kern="1200">
+                  <a:defRPr lang="de-AT" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1987,6 +2577,7 @@
                 <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
+            <a:prstDash val="solid"/>
             <a:round/>
           </a:ln>
           <a:effectLst/>
@@ -1996,7 +2587,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" kern="1200">
+              <a:defRPr lang="de-AT" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2023,7 +2614,6 @@
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:noFill/>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -2031,6 +2621,7 @@
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -2039,11 +2630,11 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr vertOverflow="ellipsis" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr algn="ctr" defTabSz="914400">
-                  <a:defRPr sz="1000" kern="1200">
+                  <a:defRPr lang="de-AT" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -2108,6 +2699,7 @@
                 <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
+            <a:prstDash val="solid"/>
             <a:round/>
           </a:ln>
           <a:effectLst/>
@@ -2117,7 +2709,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" kern="1200">
+              <a:defRPr lang="de-AT" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2158,6 +2750,7 @@
           <a:lumOff val="85000"/>
         </a:schemeClr>
       </a:solidFill>
+      <a:prstDash val="solid"/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -2180,7 +2773,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins r="0.7" b="0.75" l="0.7" footer="0.3" header="0.3" t="0.75"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2210,10 +2803,11 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -2225,14 +2819,19 @@
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
                 </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet4!$A$3:$A$34</c:f>
@@ -2446,7 +3045,6 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="r"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -2467,7 +3065,6 @@
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:noFill/>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -2475,6 +3072,7 @@
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -2483,11 +3081,11 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr vertOverflow="ellipsis" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr algn="ctr" defTabSz="914400">
-                  <a:defRPr sz="1000" kern="1200">
+                  <a:defRPr lang="de-AT" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -2552,6 +3150,7 @@
                 <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
+            <a:prstDash val="solid"/>
             <a:round/>
           </a:ln>
           <a:effectLst/>
@@ -2561,7 +3160,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" kern="1200">
+              <a:defRPr lang="de-AT" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2588,7 +3187,6 @@
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:noFill/>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -2596,6 +3194,7 @@
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -2604,11 +3203,11 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr vertOverflow="ellipsis" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr algn="ctr" defTabSz="914400">
-                  <a:defRPr sz="1000" kern="1200">
+                  <a:defRPr lang="de-AT" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -2673,6 +3272,7 @@
                 <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
+            <a:prstDash val="solid"/>
             <a:round/>
           </a:ln>
           <a:effectLst/>
@@ -2682,7 +3282,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" kern="1200">
+              <a:defRPr lang="de-AT" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2723,6 +3323,7 @@
           <a:lumOff val="85000"/>
         </a:schemeClr>
       </a:solidFill>
+      <a:prstDash val="solid"/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -2745,7 +3346,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins r="0.7" b="0.75" l="0.7" footer="0.3" header="0.3" t="0.75"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2775,10 +3376,11 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -2790,14 +3392,19 @@
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
                 </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet5!$A$3:$A$39</c:f>
@@ -3041,7 +3648,6 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="r"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -3062,7 +3668,6 @@
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:noFill/>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -3070,6 +3675,7 @@
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -3078,11 +3684,11 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr vertOverflow="ellipsis" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr algn="ctr" defTabSz="914400">
-                  <a:defRPr sz="1000" kern="1200">
+                  <a:defRPr lang="de-AT" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -3147,6 +3753,7 @@
                 <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
+            <a:prstDash val="solid"/>
             <a:round/>
           </a:ln>
           <a:effectLst/>
@@ -3156,7 +3763,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" kern="1200">
+              <a:defRPr lang="de-AT" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3183,7 +3790,6 @@
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:noFill/>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -3191,6 +3797,7 @@
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -3199,11 +3806,11 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr vertOverflow="ellipsis" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr algn="ctr" defTabSz="914400">
-                  <a:defRPr sz="1000" kern="1200">
+                  <a:defRPr lang="de-AT" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -3268,6 +3875,7 @@
                 <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
+            <a:prstDash val="solid"/>
             <a:round/>
           </a:ln>
           <a:effectLst/>
@@ -3277,7 +3885,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" kern="1200">
+              <a:defRPr lang="de-AT" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3318,6 +3926,7 @@
           <a:lumOff val="85000"/>
         </a:schemeClr>
       </a:solidFill>
+      <a:prstDash val="solid"/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -3340,7 +3949,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins r="0.7" b="0.75" l="0.7" footer="0.3" header="0.3" t="0.75"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3360,37 +3969,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -3503,75 +4082,75 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet6!$E$3:$E$24</c:f>
+              <c:f>Sheet6!$F$3:$F$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.981308411214953</c:v>
+                  <c:v>-0.163889572305431</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.981308411214953</c:v>
+                  <c:v>-0.163889572305431</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.981308411214953</c:v>
+                  <c:v>-0.163889572305431</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.97196261682243</c:v>
+                  <c:v>-0.247008767728586</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.94392523364486</c:v>
+                  <c:v>-0.501248078051341</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.85981308411215</c:v>
+                  <c:v>-1.31191900679309</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.757009345794392</c:v>
+                  <c:v>-2.4179751761312</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.700934579439252</c:v>
+                  <c:v>-3.08645028587019</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.672897196261682</c:v>
+                  <c:v>-3.44102562507882</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.588785046728972</c:v>
+                  <c:v>-4.60086456463256</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.364485981308411</c:v>
+                  <c:v>-8.76638341317421</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.192523364485981</c:v>
+                  <c:v>-14.3103311463211</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.135514018691589</c:v>
+                  <c:v>-17.3603155090047</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.108411214953271</c:v>
+                  <c:v>-19.2985157691658</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.088785046728972</c:v>
+                  <c:v>-21.0332034479272</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.0551401869158878</c:v>
+                  <c:v>-25.1706353208613</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.0392523364485981</c:v>
+                  <c:v>-28.1226897457462</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.0327102803738318</c:v>
+                  <c:v>-29.7063146666987</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.0289719626168224</c:v>
+                  <c:v>-30.7604416770187</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.0271028037383178</c:v>
+                  <c:v>-31.3397155957251</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3579,7 +4158,6 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="r"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -3587,20 +4165,20 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="928944482"/>
-        <c:axId val="173950400"/>
+        <c:axId val="402905663"/>
+        <c:axId val="51256573"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="928944482"/>
+        <c:axId val="402905663"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
+          <c:min val="10"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:noFill/>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -3613,6 +4191,171 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr defTabSz="914400">
+                  <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE" altLang="en-US"/>
+                  <a:t>Hz</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-DE" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="51256573"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="51256573"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr defTabSz="914400">
+                  <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE" altLang="en-US"/>
+                  <a:t>dB</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-DE" altLang="en-US"/>
+              </a:p>
+              <a:p>
+                <a:pPr defTabSz="914400">
+                  <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3631,7 +4374,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -3649,70 +4392,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="173950400"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="173950400"/>
-        <c:scaling>
-          <c:logBase val="10"/>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="928944482"/>
+        <c:crossAx val="402905663"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3744,7 +4424,7 @@
     <a:effectLst/>
   </c:spPr>
   <c:txPr>
-    <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+    <a:bodyPr/>
     <a:lstStyle/>
     <a:p>
       <a:pPr>
@@ -3754,20 +4434,490 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins r="0.7" b="0.75" l="0.7" footer="0.3" header="0.3" t="0.75"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet6!$A$3:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>723</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet6!$D$3:$D$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.33</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-17</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-30</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-41</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-46</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-49</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-70</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-78</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-83</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-85</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-86</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-90</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="335502554"/>
+        <c:axId val="633381613"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="335502554"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="10"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr defTabSz="914400">
+                  <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE" altLang="en-US"/>
+                  <a:t>Hz</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-DE" altLang="en-US"/>
+              </a:p>
+              <a:p>
+                <a:pPr defTabSz="914400">
+                  <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="633381613"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="633381613"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr defTabSz="914400">
+                  <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE" altLang="en-US"/>
+                  <a:t>Phasenverschiebung [°]</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-DE" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="335502554"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="en-US"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
   <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
   <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
   <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
     <a:lumMod val="60000"/>
@@ -3801,13 +4951,10 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
     <a:lumMod val="60000"/>
@@ -3881,86 +5028,6 @@
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -6064,1065 +7131,63 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>377190</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>178435</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>415290</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>124460</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>99695</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2" title="ddfgs"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6754495" y="2447925"/>
-        <a:ext cx="6056630" cy="2457450"/>
+        <a:off x="8042275" y="457200"/>
+        <a:ext cx="6423025" cy="3442970"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>130175</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>14605</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>105410</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>27940</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="7994015" y="4177030"/>
+        <a:ext cx="6452235" cy="3089910"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7135,25 +7200,25 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>601980</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>128905</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>33020</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>135255</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>108585</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvPr id="6" name="Chart 5"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6221095" y="1262380"/>
-        <a:ext cx="10209530" cy="3490595"/>
+        <a:off x="5813425" y="869950"/>
+        <a:ext cx="5148580" cy="3763010"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7167,41 +7232,6 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>33020</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>850265</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>108585</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="7705725" y="793750"/>
-        <a:ext cx="6835775" cy="3362960"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7222,8 +7252,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8128635" y="779780"/>
-        <a:ext cx="6866890" cy="3349625"/>
+        <a:off x="6129020" y="855980"/>
+        <a:ext cx="5170170" cy="3749675"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7236,7 +7266,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7257,8 +7287,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7694930" y="1314450"/>
-        <a:ext cx="6863080" cy="3390900"/>
+        <a:off x="5802630" y="1466850"/>
+        <a:ext cx="5166360" cy="3790950"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7271,33 +7301,63 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>281940</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>339725</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>176530</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>443230</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>27940</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>253365</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="5" name="Chart 4"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4939665" y="876300"/>
-        <a:ext cx="12198350" cy="3685540"/>
+        <a:off x="5490845" y="176530"/>
+        <a:ext cx="7038340" cy="4023995"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>363855</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>300990</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>8890</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="5514975" y="4343400"/>
+        <a:ext cx="7061835" cy="3990340"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7311,7 +7371,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="4A4A4A"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -7558,7 +7618,6 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
@@ -7571,9 +7630,9 @@
       <selection activeCell="A24" sqref="A3:A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02666666666667" defaultRowHeight="12.75" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <cols>
-    <col min="5" max="5" width="12.7933333333333"/>
+    <col min="5" max="5" width="12.7964601769912"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -7991,23 +8050,24 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02666666666667" defaultRowHeight="12.75" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="14.25"/>
   <cols>
-    <col min="5" max="5" width="13.86"/>
-    <col min="7" max="7" width="12.7933333333333"/>
+    <col min="2" max="2" width="13.858407079646"/>
+    <col min="5" max="5" width="13.858407079646"/>
+    <col min="7" max="7" width="13.858407079646"/>
+    <col min="9" max="9" width="13.858407079646"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -8029,7 +8089,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>10</v>
       </c>
@@ -8049,8 +8109,16 @@
       <c r="F3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="G3">
+        <f>20*LOG10(C3/B3)</f>
+        <v>-26.27238245944</v>
+      </c>
+      <c r="I3">
+        <f>$G$17</f>
+        <v>-2.78215385605023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>20</v>
       </c>
@@ -8067,8 +8135,16 @@
         <f t="shared" ref="E4:E24" si="0">C4/B4</f>
         <v>0.0504761904761905</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="G4">
+        <f t="shared" ref="G4:G24" si="1">20*LOG10(C4/B4)</f>
+        <v>-25.938268589383</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ref="I4:I13" si="2">$G$17</f>
+        <v>-2.78215385605023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>40</v>
       </c>
@@ -8085,8 +8161,16 @@
         <f t="shared" si="0"/>
         <v>0.0514285714285714</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>-25.7759107849394</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="2"/>
+        <v>-2.78215385605023</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>60</v>
       </c>
@@ -8103,8 +8187,16 @@
         <f t="shared" si="0"/>
         <v>0.0514285714285714</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>-25.7759107849394</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="2"/>
+        <v>-2.78215385605023</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>80</v>
       </c>
@@ -8121,8 +8213,16 @@
         <f t="shared" si="0"/>
         <v>0.0533333333333333</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>-25.4600254412748</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="2"/>
+        <v>-2.78215385605023</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>100</v>
       </c>
@@ -8139,8 +8239,16 @@
         <f t="shared" si="0"/>
         <v>0.0533333333333333</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>-25.4600254412748</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="2"/>
+        <v>-2.78215385605023</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>200</v>
       </c>
@@ -8157,8 +8265,16 @@
         <f t="shared" si="0"/>
         <v>0.060952380952381</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>-24.300186501721</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="2"/>
+        <v>-2.78215385605023</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>400</v>
       </c>
@@ -8175,8 +8291,16 @@
         <f t="shared" si="0"/>
         <v>0.0838095238095238</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>-21.5341325383954</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="2"/>
+        <v>-2.78215385605023</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>600</v>
       </c>
@@ -8193,8 +8317,16 @@
         <f t="shared" si="0"/>
         <v>0.111428571428571</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>-19.0600687464755</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="2"/>
+        <v>-2.78215385605023</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12">
         <v>800</v>
       </c>
@@ -8211,8 +8343,16 @@
         <f t="shared" si="0"/>
         <v>0.133644859813084</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>-17.480954804403</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="2"/>
+        <v>-2.78215385605023</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13">
         <v>1000</v>
       </c>
@@ -8229,8 +8369,16 @@
         <f t="shared" si="0"/>
         <v>0.157943925233645</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>-16.0299414614307</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="2"/>
+        <v>-2.78215385605023</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14">
         <v>2000</v>
       </c>
@@ -8247,8 +8395,16 @@
         <f t="shared" si="0"/>
         <v>0.282242990654206</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>-10.9875366945612</v>
+      </c>
+      <c r="I14">
+        <f t="shared" ref="I14:I24" si="3">$G$17</f>
+        <v>-2.78215385605023</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15">
         <v>4000</v>
       </c>
@@ -8265,8 +8421,16 @@
         <f t="shared" si="0"/>
         <v>0.475652173913044</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>-6.45421028040362</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="3"/>
+        <v>-2.78215385605023</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16">
         <v>6000</v>
       </c>
@@ -8283,8 +8447,16 @@
         <f t="shared" si="0"/>
         <v>0.645669291338583</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>-3.7997973714448</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="3"/>
+        <v>-2.78215385605023</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17">
         <v>7480</v>
       </c>
@@ -8304,8 +8476,16 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>-2.78215385605023</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="3"/>
+        <v>-2.78215385605023</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18">
         <v>8000</v>
       </c>
@@ -8322,8 +8502,16 @@
         <f t="shared" si="0"/>
         <v>0.762962962962963</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>-2.34993087579668</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="3"/>
+        <v>-2.78215385605023</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19">
         <v>10000</v>
       </c>
@@ -8340,8 +8528,16 @@
         <f t="shared" si="0"/>
         <v>0.80952380952381</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>-1.83540746711291</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="3"/>
+        <v>-2.78215385605023</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20">
         <v>20000</v>
       </c>
@@ -8358,8 +8554,16 @@
         <f t="shared" si="0"/>
         <v>0.932203389830508</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>-0.609786442958007</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="3"/>
+        <v>-2.78215385605023</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21">
         <v>40000</v>
       </c>
@@ -8376,8 +8580,16 @@
         <f t="shared" si="0"/>
         <v>0.969543147208122</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>-0.268657178277308</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="3"/>
+        <v>-2.78215385605023</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22">
         <v>60000</v>
       </c>
@@ -8394,8 +8606,16 @@
         <f t="shared" si="0"/>
         <v>0.975369458128079</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>-0.216616953033636</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="3"/>
+        <v>-2.78215385605023</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23">
         <v>80000</v>
       </c>
@@ -8412,9 +8632,18 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="3"/>
+        <v>-2.78215385605023</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24">
+        <f>10^5</f>
         <v>100000</v>
       </c>
       <c r="B24">
@@ -8432,6 +8661,32 @@
       </c>
       <c r="F24" t="s">
         <v>12</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>0.0835188130827254</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="3"/>
+        <v>-2.78215385605023</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30">
+        <v>0</v>
+      </c>
+      <c r="B30">
+        <f>G17</f>
+        <v>-2.78215385605023</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31">
+        <v>1000000</v>
+      </c>
+      <c r="B31">
+        <f>G17</f>
+        <v>-2.78215385605023</v>
       </c>
     </row>
   </sheetData>
@@ -8450,10 +8705,10 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02666666666667" defaultRowHeight="12.75" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
-    <col min="5" max="5" width="12.7933333333333"/>
-    <col min="7" max="7" width="13.6"/>
+    <col min="5" max="5" width="12.7964601769912"/>
+    <col min="7" max="7" width="13.6017699115044"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -9308,10 +9563,10 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02666666666667" defaultRowHeight="12.75" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
-    <col min="5" max="5" width="12.7933333333333"/>
-    <col min="6" max="7" width="13.6"/>
+    <col min="5" max="5" width="12.7964601769912"/>
+    <col min="6" max="7" width="13.6017699115044"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -10040,14 +10295,14 @@
   <sheetPr/>
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02666666666667" defaultRowHeight="12.75" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
-    <col min="5" max="5" width="12.7933333333333"/>
-    <col min="7" max="7" width="13.6"/>
+    <col min="5" max="5" width="12.7964601769912"/>
+    <col min="7" max="7" width="13.6017699115044"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -10875,15 +11130,16 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02666666666667" defaultRowHeight="12.75" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <cols>
-    <col min="5" max="5" width="12.7933333333333"/>
+    <col min="5" max="5" width="12.7964601769912"/>
+    <col min="6" max="6" width="13.858407079646"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -10905,7 +11161,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>10</v>
       </c>
@@ -10922,8 +11178,12 @@
         <f>C3/B3</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <f>20*LOG10(C3/B3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>20</v>
       </c>
@@ -10934,14 +11194,18 @@
         <v>1.07</v>
       </c>
       <c r="D4">
-        <v>2.33</v>
+        <v>-2.33</v>
       </c>
       <c r="E4">
         <f t="shared" ref="E4:E24" si="0">C4/B4</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4">
+        <f t="shared" ref="F4:F24" si="1">20*LOG10(C4/B4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>40</v>
       </c>
@@ -10952,14 +11216,18 @@
         <v>1.05</v>
       </c>
       <c r="D5">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
         <v>0.981308411214953</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>-0.163889572305431</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>60</v>
       </c>
@@ -10970,14 +11238,18 @@
         <v>1.05</v>
       </c>
       <c r="D6">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
         <v>0.981308411214953</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>-0.163889572305431</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>80</v>
       </c>
@@ -10988,14 +11260,18 @@
         <v>1.05</v>
       </c>
       <c r="D7">
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
         <v>0.981308411214953</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>-0.163889572305431</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>100</v>
       </c>
@@ -11006,14 +11282,18 @@
         <v>1.04</v>
       </c>
       <c r="D8">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
         <v>0.97196261682243</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>-0.247008767728586</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>200</v>
       </c>
@@ -11024,14 +11304,18 @@
         <v>1.01</v>
       </c>
       <c r="D9">
-        <v>17</v>
+        <v>-17</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
         <v>0.94392523364486</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>-0.501248078051341</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>400</v>
       </c>
@@ -11042,14 +11326,18 @@
         <v>0.92</v>
       </c>
       <c r="D10">
-        <v>30</v>
+        <v>-30</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
         <v>0.85981308411215</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>-1.31191900679309</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>600</v>
       </c>
@@ -11060,14 +11348,18 @@
         <v>0.81</v>
       </c>
       <c r="D11">
-        <v>41</v>
+        <v>-41</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
         <v>0.757009345794392</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>-2.4179751761312</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>723</v>
       </c>
@@ -11078,14 +11370,18 @@
         <v>0.75</v>
       </c>
       <c r="D12">
-        <v>46</v>
+        <v>-46</v>
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
         <v>0.700934579439252</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>-3.08645028587019</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>800</v>
       </c>
@@ -11096,14 +11392,18 @@
         <v>0.72</v>
       </c>
       <c r="D13">
-        <v>49</v>
+        <v>-49</v>
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
         <v>0.672897196261682</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>-3.44102562507882</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>1000</v>
       </c>
@@ -11114,14 +11414,18 @@
         <v>0.63</v>
       </c>
       <c r="D14">
-        <v>55</v>
+        <v>-55</v>
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
         <v>0.588785046728972</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>-4.60086456463256</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>2000</v>
       </c>
@@ -11132,14 +11436,18 @@
         <v>0.39</v>
       </c>
       <c r="D15">
-        <v>70</v>
+        <v>-70</v>
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
         <v>0.364485981308411</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>-8.76638341317421</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>4000</v>
       </c>
@@ -11150,14 +11458,18 @@
         <v>0.206</v>
       </c>
       <c r="D16">
-        <v>78</v>
+        <v>-78</v>
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
         <v>0.192523364485981</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>-14.3103311463211</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>6000</v>
       </c>
@@ -11168,14 +11480,18 @@
         <v>0.145</v>
       </c>
       <c r="D17">
-        <v>83</v>
+        <v>-83</v>
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
         <v>0.135514018691589</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>-17.3603155090047</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>8000</v>
       </c>
@@ -11186,14 +11502,18 @@
         <v>0.116</v>
       </c>
       <c r="D18">
-        <v>85</v>
+        <v>-85</v>
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
         <v>0.108411214953271</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>-19.2985157691658</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>10000</v>
       </c>
@@ -11204,14 +11524,18 @@
         <v>0.095</v>
       </c>
       <c r="D19">
-        <v>86</v>
+        <v>-86</v>
       </c>
       <c r="E19">
         <f t="shared" si="0"/>
         <v>0.088785046728972</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>-21.0332034479272</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>20000</v>
       </c>
@@ -11222,14 +11546,18 @@
         <v>0.059</v>
       </c>
       <c r="D20">
-        <v>90</v>
+        <v>-90</v>
       </c>
       <c r="E20">
         <f t="shared" si="0"/>
         <v>0.0551401869158878</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>-25.1706353208613</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>40000</v>
       </c>
@@ -11243,8 +11571,12 @@
         <f t="shared" si="0"/>
         <v>0.0392523364485981</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>-28.1226897457462</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>60000</v>
       </c>
@@ -11258,8 +11590,12 @@
         <f t="shared" si="0"/>
         <v>0.0327102803738318</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>-29.7063146666987</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>80000</v>
       </c>
@@ -11273,8 +11609,12 @@
         <f t="shared" si="0"/>
         <v>0.0289719626168224</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23">
+        <f t="shared" si="1"/>
+        <v>-30.7604416770187</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>100000</v>
       </c>
@@ -11287,6 +11627,10 @@
       <c r="E24">
         <f t="shared" si="0"/>
         <v>0.0271028037383178</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="1"/>
+        <v>-31.3397155957251</v>
       </c>
     </row>
   </sheetData>
@@ -11294,4 +11638,337 @@
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>0.04</v>
+      </c>
+      <c r="C3">
+        <v>0.028</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <v>0.09</v>
+      </c>
+      <c r="C4">
+        <v>0.028</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>40</v>
+      </c>
+      <c r="B5">
+        <v>0.14</v>
+      </c>
+      <c r="C5">
+        <v>0.028</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>60</v>
+      </c>
+      <c r="B6">
+        <v>0.2</v>
+      </c>
+      <c r="C6">
+        <v>0.032</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>80</v>
+      </c>
+      <c r="B7">
+        <v>0.26</v>
+      </c>
+      <c r="C7">
+        <v>0.032</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>100</v>
+      </c>
+      <c r="B8">
+        <v>0.31</v>
+      </c>
+      <c r="C8">
+        <v>0.032</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>200</v>
+      </c>
+      <c r="B9">
+        <v>0.48</v>
+      </c>
+      <c r="C9">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>400</v>
+      </c>
+      <c r="B10">
+        <v>0.51</v>
+      </c>
+      <c r="C10">
+        <v>0.056</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>600</v>
+      </c>
+      <c r="B11">
+        <v>0.51</v>
+      </c>
+      <c r="C11">
+        <v>0.068</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>800</v>
+      </c>
+      <c r="B12">
+        <v>0.51</v>
+      </c>
+      <c r="C12">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>1000</v>
+      </c>
+      <c r="B13">
+        <v>0.51</v>
+      </c>
+      <c r="C13">
+        <v>0.092</v>
+      </c>
+      <c r="D13">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>2000</v>
+      </c>
+      <c r="B14">
+        <v>0.52</v>
+      </c>
+      <c r="C14">
+        <v>0.157</v>
+      </c>
+      <c r="D14">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>4000</v>
+      </c>
+      <c r="B15">
+        <v>0.55</v>
+      </c>
+      <c r="C15">
+        <v>0.281</v>
+      </c>
+      <c r="D15">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>6000</v>
+      </c>
+      <c r="B16">
+        <v>0.6</v>
+      </c>
+      <c r="C16">
+        <v>0.41</v>
+      </c>
+      <c r="D16">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>7000</v>
+      </c>
+      <c r="B17">
+        <v>0.64</v>
+      </c>
+      <c r="C17">
+        <v>0.46</v>
+      </c>
+      <c r="D17">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>7480</v>
+      </c>
+      <c r="B18">
+        <v>0.65</v>
+      </c>
+      <c r="C18">
+        <v>0.47</v>
+      </c>
+      <c r="D18">
+        <v>43</v>
+      </c>
+      <c r="E18">
+        <f>100*C18/B18</f>
+        <v>72.3076923076923</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>8000</v>
+      </c>
+      <c r="B19">
+        <v>0.66</v>
+      </c>
+      <c r="C19">
+        <v>0.51</v>
+      </c>
+      <c r="D19">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>10000</v>
+      </c>
+      <c r="B20">
+        <v>0.71</v>
+      </c>
+      <c r="C20">
+        <v>0.59</v>
+      </c>
+      <c r="D20">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <v>20000</v>
+      </c>
+      <c r="B21">
+        <v>0.86</v>
+      </c>
+      <c r="C21">
+        <v>0.83</v>
+      </c>
+      <c r="D21">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
+        <v>40000</v>
+      </c>
+      <c r="B22">
+        <v>0.97</v>
+      </c>
+      <c r="C22">
+        <v>0.97</v>
+      </c>
+      <c r="D22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <v>60000</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>1.01</v>
+      </c>
+      <c r="D23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <v>80000</v>
+      </c>
+      <c r="B24">
+        <v>1.01</v>
+      </c>
+      <c r="C24">
+        <v>1.02</v>
+      </c>
+      <c r="D24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25">
+        <f>10^5</f>
+        <v>100000</v>
+      </c>
+      <c r="B25">
+        <v>1.01</v>
+      </c>
+      <c r="C25">
+        <v>1.04</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/lu2/aufgabe3.1_rc_tiefpass_bodediagramm.xlsx
+++ b/lu2/aufgabe3.1_rc_tiefpass_bodediagramm.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24292" windowHeight="13042" activeTab="5"/>
+    <workbookView windowWidth="24000" windowHeight="13260" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -99,17 +99,152 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -128,134 +263,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -266,7 +273,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -278,7 +303,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -290,7 +333,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -302,7 +351,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -314,7 +381,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -326,19 +393,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -350,13 +411,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -368,25 +435,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -398,55 +453,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,41 +467,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -519,17 +511,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -549,11 +550,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -562,206 +569,209 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+  </cellStyleXfs>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-  </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
     <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="Accent1" xfId="19" builtinId="29"/>
+    <cellStyle name="Comma[0]" xfId="20" builtinId="6"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Currency[0]" xfId="37" builtinId="7"/>
+    <cellStyle name="Heading 1" xfId="38" builtinId="16"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50"/>
+    <cellStyle name="Title" xfId="40" builtinId="15"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="20% - Accent1" xfId="42" builtinId="30"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="45" builtinId="17"/>
+    <cellStyle name="Comma" xfId="46" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="47" builtinId="23"/>
+    <cellStyle name="Percent" xfId="48" builtinId="5"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
@@ -832,6 +842,15 @@
               </c:spPr>
             </c:marker>
             <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:dPt>
           <c:dLbls>
             <c:dLbl>
@@ -922,6 +941,7 @@
                   </a:p>
                 </c:rich>
               </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="1"/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -961,6 +981,7 @@
               <c:idx val="21"/>
               <c:delete val="1"/>
             </c:dLbl>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -969,7 +990,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" horzOverflow="overflow" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -1526,6 +1547,7 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="r"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -1547,6 +1569,7 @@
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
+            <a:noFill/>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -1579,7 +1602,7 @@
               <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
-                <a:pPr defTabSz="914400">
+                <a:pPr algn="ctr" defTabSz="914400">
                   <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
@@ -1628,7 +1651,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -1660,6 +1683,7 @@
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
+            <a:noFill/>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -1678,7 +1702,7 @@
               <a:bodyPr rot="-5400000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
-                <a:pPr defTabSz="914400">
+                <a:pPr algn="ctr" defTabSz="914400">
                   <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
@@ -1727,7 +1751,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -1777,7 +1801,7 @@
     <a:effectLst/>
   </c:spPr>
   <c:txPr>
-    <a:bodyPr/>
+    <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
     <a:lstStyle/>
     <a:p>
       <a:pPr>
@@ -1787,7 +1811,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins r="0.7" b="0.75" l="0.7" footer="0.3" header="0.3" t="0.75"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2323,6 +2347,7 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="r"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -2344,6 +2369,7 @@
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
+            <a:noFill/>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -2376,7 +2402,7 @@
               <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
-                <a:pPr defTabSz="914400">
+                <a:pPr algn="ctr" defTabSz="914400">
                   <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
@@ -2396,7 +2422,7 @@
                 <a:endParaRPr lang="de-DE" altLang="en-US"/>
               </a:p>
               <a:p>
-                <a:pPr defTabSz="914400">
+                <a:pPr algn="ctr" defTabSz="914400">
                   <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
@@ -2441,7 +2467,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -2473,6 +2499,7 @@
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
+            <a:noFill/>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -2491,7 +2518,7 @@
               <a:bodyPr rot="-5400000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
-                <a:pPr defTabSz="914400">
+                <a:pPr algn="ctr" defTabSz="914400">
                   <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
@@ -2540,7 +2567,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -2590,7 +2617,7 @@
     <a:effectLst/>
   </c:spPr>
   <c:txPr>
-    <a:bodyPr/>
+    <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
     <a:lstStyle/>
     <a:p>
       <a:pPr>
@@ -2600,7 +2627,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins r="0.7" b="0.75" l="0.7" footer="0.3" header="0.3" t="0.75"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3145,6 +3172,7 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="r"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -3166,6 +3194,7 @@
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
+            <a:noFill/>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -3198,7 +3227,7 @@
               <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
-                <a:pPr defTabSz="914400">
+                <a:pPr algn="ctr" defTabSz="914400">
                   <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
@@ -3247,7 +3276,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -3280,6 +3309,7 @@
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
+            <a:noFill/>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -3298,7 +3328,7 @@
               <a:bodyPr rot="-5400000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
-                <a:pPr defTabSz="914400">
+                <a:pPr algn="ctr" defTabSz="914400">
                   <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
@@ -3347,7 +3377,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -3397,7 +3427,7 @@
     <a:effectLst/>
   </c:spPr>
   <c:txPr>
-    <a:bodyPr/>
+    <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
     <a:lstStyle/>
     <a:p>
       <a:pPr>
@@ -3407,7 +3437,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins r="0.7" b="0.75" l="0.7" footer="0.3" header="0.3" t="0.75"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3910,6 +3940,7 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="r"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -3931,6 +3962,7 @@
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
+            <a:noFill/>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -3963,7 +3995,7 @@
               <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
-                <a:pPr defTabSz="914400">
+                <a:pPr algn="ctr" defTabSz="914400">
                   <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
@@ -4012,7 +4044,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -4044,6 +4076,7 @@
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
+            <a:noFill/>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -4062,7 +4095,7 @@
               <a:bodyPr rot="-5400000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
-                <a:pPr defTabSz="914400">
+                <a:pPr algn="ctr" defTabSz="914400">
                   <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
@@ -4111,7 +4144,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -4161,7 +4194,7 @@
     <a:effectLst/>
   </c:spPr>
   <c:txPr>
-    <a:bodyPr/>
+    <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
     <a:lstStyle/>
     <a:p>
       <a:pPr>
@@ -4171,7 +4204,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins r="0.7" b="0.75" l="0.7" footer="0.3" header="0.3" t="0.75"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4380,6 +4413,7 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="r"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -4401,6 +4435,7 @@
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
+            <a:noFill/>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -4433,7 +4468,7 @@
               <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
-                <a:pPr defTabSz="914400">
+                <a:pPr algn="ctr" defTabSz="914400">
                   <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
@@ -4482,7 +4517,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -4514,6 +4549,7 @@
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
+            <a:noFill/>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -4532,7 +4568,7 @@
               <a:bodyPr rot="-5400000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
-                <a:pPr defTabSz="914400">
+                <a:pPr algn="ctr" defTabSz="914400">
                   <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
@@ -4581,7 +4617,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -4631,7 +4667,7 @@
     <a:effectLst/>
   </c:spPr>
   <c:txPr>
-    <a:bodyPr/>
+    <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
     <a:lstStyle/>
     <a:p>
       <a:pPr>
@@ -4641,7 +4677,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins r="0.7" b="0.75" l="0.7" footer="0.3" header="0.3" t="0.75"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4761,7 +4797,7 @@
                   <c:v>15500</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>15799</c:v>
+                  <c:v>15800</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>15916</c:v>
@@ -4942,7 +4978,315 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"fr"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>fr</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$H$2:$H$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="1">
+                  <c:v>15800</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15800</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15800</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15800</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15800</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15800</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15800</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15800</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15800</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15800</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15800</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15800</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15800</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>15800</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>15800</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>15800</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>15800</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>15800</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>15800</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>15800</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>15800</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>15800</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>15800</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>15800</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>15800</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>15800</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>15800</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>15800</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>15800</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>15800</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>15800</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>15800</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>15800</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>15800</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>15800</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>15800</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$G$2:$G$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.4738933159642</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.93993125352447</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.38727269213508</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.84475790012476</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.2268436948458</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.64264590610358</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.37285741860553</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.32969879747755</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10.340317092657</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11.3138006486814</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>12.0597396193784</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>12.3243205533339</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>12.2498798849865</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10.9431824265483</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>12.054271145261</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>11.3193977159621</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>10.1796027152756</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8.96243460680988</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.69812725839972</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8.20472651987838</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.344702528495</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-3.72052189289501</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-8.27826069296902</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-11.6421952874715</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-14.4168109958354</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-18.7629526441815</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-21.8509041521121</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-25.0985041683589</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-31.2825567655849</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-37.5140837300462</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-37.8333218610689</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
         <c:dLbls>
+          <c:dLblPos val="r"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -4965,6 +5309,7 @@
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
+            <a:noFill/>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -4980,6 +5325,7 @@
         </c:majorGridlines>
         <c:minorGridlines>
           <c:spPr>
+            <a:noFill/>
             <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -4990,6 +5336,7 @@
               <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
         </c:minorGridlines>
         <c:title>
@@ -5102,6 +5449,7 @@
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
+            <a:noFill/>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -5261,7 +5609,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins r="0.7" b="0.75" l="0.7" footer="0.3" header="0.3" t="0.75"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5378,7 +5726,7 @@
                   <c:v>15500</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>15799</c:v>
+                  <c:v>15800</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>15916</c:v>
@@ -5560,6 +5908,7 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="r"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -5581,6 +5930,7 @@
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
+            <a:noFill/>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -5613,7 +5963,7 @@
               <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
-                <a:pPr defTabSz="914400">
+                <a:pPr algn="ctr" defTabSz="914400">
                   <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
@@ -5662,7 +6012,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -5693,6 +6043,7 @@
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
+            <a:noFill/>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -5711,7 +6062,7 @@
               <a:bodyPr rot="-5400000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
-                <a:pPr defTabSz="914400">
+                <a:pPr algn="ctr" defTabSz="914400">
                   <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
@@ -5726,7 +6077,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="de-DE" altLang="en-US"/>
-                  <a:t>dB</a:t>
+                  <a:t>Phasenverschiebung [°]</a:t>
                 </a:r>
                 <a:endParaRPr lang="de-DE" altLang="en-US"/>
               </a:p>
@@ -5760,7 +6111,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -5810,7 +6161,7 @@
     <a:effectLst/>
   </c:spPr>
   <c:txPr>
-    <a:bodyPr/>
+    <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
     <a:lstStyle/>
     <a:p>
       <a:pPr>
@@ -5820,7 +6171,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins r="0.7" b="0.75" l="0.7" footer="0.3" header="0.3" t="0.75"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6091,7 +6442,291 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"fr"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>fr</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet4!$H$2:$H$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>15500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15500</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15500</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15500</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15500</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>15500</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>15500</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>15500</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>15500</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>15500</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>15500</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>15500</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>15500</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>15500</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>15500</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>15500</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>15500</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>15500</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>15500</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>15500</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>15500</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>15500</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>15500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet4!$G$2:$G$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.555451564372988</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0260968337668856</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0260968337668856</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0260968337668856</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.106467804585197</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.384435626529206</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.861698013986966</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.48887248707118</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2.24196184496149</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-2.66863111767446</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-3.15080338693169</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-3.62637627119644</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-4.20445163285557</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-4.71056893815098</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-5.26651217056969</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-5.52974109172911</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-5.32535778809538</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-6.04082318117687</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-6.64876919831211</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-7.39664773982957</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-9.73201550832353</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-12.0411998265592</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-13.6618648447436</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-15.16568011104</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-17.0901101707218</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-18.6864244871204</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-20.8870855230247</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-22.7555192262694</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-24.6008645646326</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-26.7837539531339</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-27.9183064421125</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-34</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
         <c:dLbls>
+          <c:dLblPos val="r"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -6114,6 +6749,7 @@
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
+            <a:noFill/>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -6129,6 +6765,7 @@
         </c:majorGridlines>
         <c:minorGridlines>
           <c:spPr>
+            <a:noFill/>
             <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -6139,6 +6776,7 @@
               <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
         </c:minorGridlines>
         <c:title>
@@ -6250,6 +6888,7 @@
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
+            <a:noFill/>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -6409,7 +7048,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins r="0.7" b="0.75" l="0.7" footer="0.3" header="0.3" t="0.75"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6666,6 +7305,7 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="r"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -6687,6 +7327,7 @@
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
+            <a:noFill/>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -6719,7 +7360,7 @@
               <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
-                <a:pPr defTabSz="914400">
+                <a:pPr algn="ctr" defTabSz="914400">
                   <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
@@ -6768,7 +7409,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -6799,6 +7440,7 @@
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
+            <a:noFill/>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -6817,7 +7459,7 @@
               <a:bodyPr rot="-5400000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
-                <a:pPr defTabSz="914400">
+                <a:pPr algn="ctr" defTabSz="914400">
                   <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
@@ -6832,7 +7474,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="de-DE" altLang="en-US"/>
-                  <a:t>dB</a:t>
+                  <a:t>Phasenverschiebung [°]</a:t>
                 </a:r>
                 <a:endParaRPr lang="de-DE" altLang="en-US"/>
               </a:p>
@@ -6866,7 +7508,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -6916,7 +7558,7 @@
     <a:effectLst/>
   </c:spPr>
   <c:txPr>
-    <a:bodyPr/>
+    <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
     <a:lstStyle/>
     <a:p>
       <a:pPr>
@@ -6926,7 +7568,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins r="0.7" b="0.75" l="0.7" footer="0.3" header="0.3" t="0.75"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6953,8 +7595,318 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"fc"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>fc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFC000"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet5!$H$3:$H$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>1610</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1610</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1610</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1610</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1610</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1610</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1610</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1610</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1610</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1610</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1610</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1610</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1610</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1610</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1610</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1610</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1610</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1610</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1610</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1610</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1610</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1610</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1610</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1610</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1610</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1610</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1610</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1610</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1610</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1610</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1610</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1610</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1610</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1610</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1610</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1610</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1610</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1610</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet5!$G$3:$G$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>-0.392939098029341</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.0435383850854909</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.0435383850854909</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.419862519928121</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.652427594396267</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.76851647266187</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.97383847799449</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.17492297744837</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.31698508687351</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.41110383681873</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.64741387084281</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-2.15765436308691</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-2.66900390743739</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-2.95819518257318</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-3.20292089671334</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-3.45526631413507</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-3.98995787570214</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-4.48186341077617</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-5.23198975415209</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-6.39770675575334</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-8.38484604548269</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-11.428647714945</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-13.7198333222901</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-15.5721249452659</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-21.3237903840006</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-26.7582566518471</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-30.1481211724826</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-32.5098278778082</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-33.3357064192924</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-34.2228192553189</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-35.2155430862844</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-36.3292451755291</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-36.9461638963875</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-37.6162718456158</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-39.9564616149145</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-43.2359133586729</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-43.3125165075503</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-45</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
           <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:order val="1"/>
           <c:spPr>
             <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
               <a:solidFill>
@@ -7227,7 +8179,320 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"fl"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>fl</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFC000"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet5!$I$3:$I$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>145000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>145000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>145000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>145000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>145000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>145000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>145000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>145000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>145000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>145000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>145000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>145000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>145000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>145000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>145000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>145000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>145000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>145000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>145000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>145000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>145000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>145000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>145000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>145000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>145000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>145000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>145000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>145000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>145000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>145000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>145000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>145000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>145000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>145000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>145000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>145000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>145000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>145000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet5!$G$3:$G$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>-0.392939098029341</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.0435383850854909</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.0435383850854909</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.419862519928121</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.652427594396267</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.76851647266187</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.97383847799449</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.17492297744837</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.31698508687351</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.41110383681873</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.64741387084281</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-2.15765436308691</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-2.66900390743739</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-2.95819518257318</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-3.20292089671334</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-3.45526631413507</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-3.98995787570214</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-4.48186341077617</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-5.23198975415209</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-6.39770675575334</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-8.38484604548269</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-11.428647714945</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-13.7198333222901</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-15.5721249452659</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-21.3237903840006</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-26.7582566518471</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-30.1481211724826</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-32.5098278778082</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-33.3357064192924</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-34.2228192553189</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-35.2155430862844</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-36.3292451755291</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-36.9461638963875</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-37.6162718456158</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-39.9564616149145</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-43.2359133586729</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-43.3125165075503</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-45</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
         <c:dLbls>
+          <c:dLblPos val="r"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -7249,6 +8514,7 @@
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
+            <a:noFill/>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -7264,6 +8530,7 @@
         </c:majorGridlines>
         <c:minorGridlines>
           <c:spPr>
+            <a:noFill/>
             <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -7274,6 +8541,7 @@
               <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
         </c:minorGridlines>
         <c:title>
@@ -7386,6 +8654,7 @@
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
+            <a:noFill/>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -7508,7 +8777,7 @@
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
+    <c:dispBlanksAs val="span"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -7545,7 +8814,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins r="0.7" b="0.75" l="0.7" footer="0.3" header="0.3" t="0.75"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7829,6 +9098,7 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="r"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -7850,6 +9120,7 @@
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
+            <a:noFill/>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -7882,7 +9153,7 @@
               <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
-                <a:pPr defTabSz="914400">
+                <a:pPr algn="ctr" defTabSz="914400">
                   <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
@@ -7931,7 +9202,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -7962,6 +9233,7 @@
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
+            <a:noFill/>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -7980,7 +9252,7 @@
               <a:bodyPr rot="-5400000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
-                <a:pPr defTabSz="914400">
+                <a:pPr algn="ctr" defTabSz="914400">
                   <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
@@ -8029,7 +9301,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -8079,7 +9351,7 @@
     <a:effectLst/>
   </c:spPr>
   <c:txPr>
-    <a:bodyPr/>
+    <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
     <a:lstStyle/>
     <a:p>
       <a:pPr>
@@ -8089,7 +9361,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins r="0.7" b="0.75" l="0.7" footer="0.3" header="0.3" t="0.75"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -8646,6 +9918,7 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="r"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -8667,6 +9940,7 @@
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
+            <a:noFill/>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -8699,7 +9973,7 @@
               <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
-                <a:pPr defTabSz="914400">
+                <a:pPr algn="ctr" defTabSz="914400">
                   <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
@@ -8748,7 +10022,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -8780,6 +10054,7 @@
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
+            <a:noFill/>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -8798,7 +10073,7 @@
               <a:bodyPr rot="-5400000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
-                <a:pPr defTabSz="914400">
+                <a:pPr algn="ctr" defTabSz="914400">
                   <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
@@ -8818,7 +10093,7 @@
                 <a:endParaRPr lang="de-DE" altLang="en-US"/>
               </a:p>
               <a:p>
-                <a:pPr defTabSz="914400">
+                <a:pPr algn="ctr" defTabSz="914400">
                   <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
@@ -8863,7 +10138,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -8913,7 +10188,7 @@
     <a:effectLst/>
   </c:spPr>
   <c:txPr>
-    <a:bodyPr/>
+    <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
     <a:lstStyle/>
     <a:p>
       <a:pPr>
@@ -8923,7 +10198,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins r="0.7" b="0.75" l="0.7" footer="0.3" header="0.3" t="0.75"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -13948,8 +15223,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8042275" y="457200"/>
-        <a:ext cx="6423025" cy="3442970"/>
+        <a:off x="10617835" y="419100"/>
+        <a:ext cx="8543925" cy="3081020"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -13978,8 +15253,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7994015" y="4177030"/>
-        <a:ext cx="6452235" cy="3089910"/>
+        <a:off x="10569575" y="3738880"/>
+        <a:ext cx="8573135" cy="2766060"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -13996,16 +15271,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>469265</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:rowOff>107950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -14013,8 +15288,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5780405" y="212725"/>
-        <a:ext cx="6457950" cy="3781425"/>
+        <a:off x="9001760" y="269875"/>
+        <a:ext cx="8366760" cy="3381375"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -14026,16 +15301,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>39370</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>496570</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>624840</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>142240</xdr:rowOff>
+      <xdr:rowOff>151765</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -14043,8 +15318,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5819775" y="4181475"/>
-        <a:ext cx="6414770" cy="3561715"/>
+        <a:off x="9029065" y="3752850"/>
+        <a:ext cx="8323580" cy="3199765"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -14061,16 +15336,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>631825</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>793750</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>624205</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>5715</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>786130</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -14078,8 +15353,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6092825" y="356235"/>
-        <a:ext cx="6469380" cy="3449955"/>
+        <a:off x="9761855" y="266700"/>
+        <a:ext cx="8590280" cy="3082290"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -14091,16 +15366,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>10160</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>19685</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>154940</xdr:rowOff>
+      <xdr:rowOff>135890</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>631190</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>640715</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>147320</xdr:rowOff>
+      <xdr:rowOff>128270</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -14108,8 +15383,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6118860" y="3955415"/>
-        <a:ext cx="6450330" cy="3611880"/>
+        <a:off x="9847580" y="3536315"/>
+        <a:ext cx="8359140" cy="3230880"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -14126,16 +15401,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>8890</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>13970</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>147955</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>146685</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>638810</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>777875</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>39370</xdr:rowOff>
+      <xdr:rowOff>10160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -14143,8 +15418,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5789295" y="375920"/>
-        <a:ext cx="6459220" cy="3463925"/>
+        <a:off x="8680450" y="308610"/>
+        <a:ext cx="8368030" cy="3101975"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -14156,16 +15431,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>24130</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>461645</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>147955</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>628015</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>158115</xdr:rowOff>
+      <xdr:rowOff>120015</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -14173,8 +15448,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5788025" y="4005580"/>
-        <a:ext cx="6449695" cy="3391535"/>
+        <a:off x="8994140" y="3548380"/>
+        <a:ext cx="8358505" cy="3048635"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -14208,8 +15483,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8042910" y="361950"/>
-        <a:ext cx="6518275" cy="3430270"/>
+        <a:off x="10479405" y="323850"/>
+        <a:ext cx="8639175" cy="3076575"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -14238,8 +15513,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8105775" y="3971925"/>
-        <a:ext cx="6471920" cy="3608705"/>
+        <a:off x="10754360" y="3562350"/>
+        <a:ext cx="8592820" cy="3237230"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -14273,8 +15548,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6539230" y="382270"/>
-        <a:ext cx="6452870" cy="3722370"/>
+        <a:off x="8675370" y="344170"/>
+        <a:ext cx="8361680" cy="3341370"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -14303,8 +15578,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6543675" y="4371975"/>
-        <a:ext cx="6457950" cy="3586480"/>
+        <a:off x="8679815" y="3914775"/>
+        <a:ext cx="8578850" cy="3209925"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -14322,7 +15597,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="4A4A4A"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -14569,6 +15844,7 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
@@ -14581,9 +15857,9 @@
       <selection activeCell="A24" sqref="A3:A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="14.25" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.02666666666667" defaultRowHeight="12.75" outlineLevelCol="5"/>
   <cols>
-    <col min="5" max="5" width="12.7964601769912"/>
+    <col min="5" max="5" width="12.7933333333333"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -15009,16 +16285,16 @@
   <sheetPr/>
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.02666666666667" defaultRowHeight="12.75"/>
   <cols>
-    <col min="2" max="2" width="13.858407079646"/>
-    <col min="5" max="5" width="13.858407079646"/>
-    <col min="7" max="7" width="13.858407079646"/>
-    <col min="9" max="9" width="13.858407079646"/>
+    <col min="2" max="2" width="13.86"/>
+    <col min="5" max="5" width="13.86"/>
+    <col min="7" max="7" width="13.86"/>
+    <col min="9" max="9" width="13.86"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -15650,16 +16926,16 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N50" sqref="N50"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.02666666666667" defaultRowHeight="12.75" outlineLevelCol="7"/>
   <cols>
-    <col min="5" max="5" width="12.7964601769912"/>
-    <col min="7" max="7" width="13.6017699115044"/>
+    <col min="5" max="5" width="12.7933333333333"/>
+    <col min="7" max="7" width="13.6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -15681,7 +16957,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>10</v>
       </c>
@@ -15705,8 +16981,11 @@
         <f>20*LOG10(C3/B3)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="1">
+        <v>15800</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>50</v>
       </c>
@@ -15727,8 +17006,11 @@
         <f t="shared" ref="G4:G39" si="1">20*LOG10(C4/B4)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="1">
+        <v>15800</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>100</v>
       </c>
@@ -15749,8 +17031,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="1">
+        <v>15800</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>500</v>
       </c>
@@ -15771,8 +17056,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" s="1">
+        <v>15800</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>1000</v>
       </c>
@@ -15793,8 +17081,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7" s="1">
+        <v>15800</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>2000</v>
       </c>
@@ -15815,8 +17106,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8" s="1">
+        <v>15800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>4000</v>
       </c>
@@ -15837,8 +17131,11 @@
         <f t="shared" si="1"/>
         <v>0.4738933159642</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9" s="1">
+        <v>15800</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>6000</v>
       </c>
@@ -15859,8 +17156,11 @@
         <f t="shared" si="1"/>
         <v>0.93993125352447</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10" s="1">
+        <v>15800</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>8000</v>
       </c>
@@ -15881,8 +17181,11 @@
         <f t="shared" si="1"/>
         <v>2.38727269213508</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11" s="1">
+        <v>15800</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>10000</v>
       </c>
@@ -15903,8 +17206,11 @@
         <f t="shared" si="1"/>
         <v>3.84475790012476</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12" s="1">
+        <v>15800</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13">
         <v>11000</v>
       </c>
@@ -15925,8 +17231,11 @@
         <f t="shared" si="1"/>
         <v>5.2268436948458</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13" s="1">
+        <v>15800</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>12000</v>
       </c>
@@ -15947,8 +17256,11 @@
         <f t="shared" si="1"/>
         <v>6.64264590610358</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="H14" s="1">
+        <v>15800</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15">
         <v>13000</v>
       </c>
@@ -15969,8 +17281,11 @@
         <f t="shared" si="1"/>
         <v>8.37285741860553</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15" s="1">
+        <v>15800</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16">
         <v>13500</v>
       </c>
@@ -15991,8 +17306,11 @@
         <f t="shared" si="1"/>
         <v>9.32969879747755</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="H16" s="1">
+        <v>15800</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>14000</v>
       </c>
@@ -16013,8 +17331,11 @@
         <f t="shared" si="1"/>
         <v>10.340317092657</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17" s="1">
+        <v>15800</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18">
         <v>14500</v>
       </c>
@@ -16035,8 +17356,11 @@
         <f t="shared" si="1"/>
         <v>11.3138006486814</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18" s="1">
+        <v>15800</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19">
         <v>15000</v>
       </c>
@@ -16057,8 +17381,11 @@
         <f t="shared" si="1"/>
         <v>12.0597396193784</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19" s="1">
+        <v>15800</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20">
         <v>15500</v>
       </c>
@@ -16079,10 +17406,13 @@
         <f t="shared" si="1"/>
         <v>12.3243205533339</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="H20" s="1">
+        <v>15800</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21">
-        <v>15799</v>
+        <v>15800</v>
       </c>
       <c r="B21">
         <v>0.329</v>
@@ -16101,8 +17431,11 @@
         <f t="shared" si="1"/>
         <v>12.2498798849865</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="H21" s="1">
+        <v>15800</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22">
         <v>15916</v>
       </c>
@@ -16123,8 +17456,11 @@
         <f t="shared" si="1"/>
         <v>10.9431824265483</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22" s="1">
+        <v>15800</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23">
         <v>16000</v>
       </c>
@@ -16145,8 +17481,11 @@
         <f t="shared" si="1"/>
         <v>12.054271145261</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23" s="1">
+        <v>15800</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24">
         <v>16500</v>
       </c>
@@ -16167,8 +17506,11 @@
         <f t="shared" si="1"/>
         <v>11.3193977159621</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="H24" s="1">
+        <v>15800</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25">
         <v>17000</v>
       </c>
@@ -16189,8 +17531,11 @@
         <f t="shared" si="1"/>
         <v>10.1796027152756</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="H25" s="1">
+        <v>15800</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26">
         <v>17500</v>
       </c>
@@ -16211,8 +17556,11 @@
         <f t="shared" si="1"/>
         <v>8.96243460680988</v>
       </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="H26" s="1">
+        <v>15800</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27">
         <v>18000</v>
       </c>
@@ -16233,8 +17581,11 @@
         <f t="shared" si="1"/>
         <v>7.69812725839972</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27" s="1">
+        <v>15800</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28">
         <v>19000</v>
       </c>
@@ -16255,8 +17606,11 @@
         <f t="shared" si="1"/>
         <v>8.20472651987838</v>
       </c>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="H28" s="1">
+        <v>15800</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29">
         <v>20000</v>
       </c>
@@ -16277,8 +17631,11 @@
         <f t="shared" si="1"/>
         <v>3.344702528495</v>
       </c>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="H29" s="1">
+        <v>15800</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30">
         <v>25000</v>
       </c>
@@ -16299,8 +17656,11 @@
         <f t="shared" si="1"/>
         <v>-3.72052189289501</v>
       </c>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="H30" s="1">
+        <v>15800</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31">
         <v>30000</v>
       </c>
@@ -16321,8 +17681,11 @@
         <f t="shared" si="1"/>
         <v>-8.27826069296902</v>
       </c>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="H31" s="1">
+        <v>15800</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32">
         <v>35000</v>
       </c>
@@ -16343,8 +17706,11 @@
         <f t="shared" si="1"/>
         <v>-11.6421952874715</v>
       </c>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="H32" s="1">
+        <v>15800</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33">
         <v>40000</v>
       </c>
@@ -16365,8 +17731,11 @@
         <f t="shared" si="1"/>
         <v>-14.4168109958354</v>
       </c>
-    </row>
-    <row r="34" spans="1:7">
+      <c r="H33" s="1">
+        <v>15800</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34">
         <v>50000</v>
       </c>
@@ -16387,8 +17756,11 @@
         <f t="shared" si="1"/>
         <v>-18.7629526441815</v>
       </c>
-    </row>
-    <row r="35" spans="1:7">
+      <c r="H34" s="1">
+        <v>15800</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35">
         <v>60000</v>
       </c>
@@ -16409,8 +17781,11 @@
         <f t="shared" si="1"/>
         <v>-21.8509041521121</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35" s="1">
+        <v>15800</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36">
         <v>70000</v>
       </c>
@@ -16431,8 +17806,11 @@
         <f t="shared" si="1"/>
         <v>-25.0985041683589</v>
       </c>
-    </row>
-    <row r="37" spans="1:7">
+      <c r="H36" s="1">
+        <v>15800</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37">
         <v>100000</v>
       </c>
@@ -16453,8 +17831,11 @@
         <f t="shared" si="1"/>
         <v>-31.2825567655849</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37" s="1">
+        <v>15800</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38">
         <v>150000</v>
       </c>
@@ -16475,8 +17856,11 @@
         <f t="shared" si="1"/>
         <v>-37.5140837300462</v>
       </c>
-    </row>
-    <row r="39" spans="1:7">
+      <c r="H38" s="1">
+        <v>15800</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39">
         <v>200000</v>
       </c>
@@ -16496,6 +17880,17 @@
       <c r="G39">
         <f t="shared" si="1"/>
         <v>-37.8333218610689</v>
+      </c>
+      <c r="H39" s="1">
+        <v>15800</v>
+      </c>
+    </row>
+    <row r="40" spans="7:8">
+      <c r="G40">
+        <v>-40</v>
+      </c>
+      <c r="H40" s="1">
+        <v>15800</v>
       </c>
     </row>
   </sheetData>
@@ -16508,16 +17903,16 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T30" sqref="T30"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.02666666666667" defaultRowHeight="12.75" outlineLevelCol="7"/>
   <cols>
-    <col min="5" max="5" width="12.7964601769912"/>
-    <col min="6" max="7" width="13.6017699115044"/>
+    <col min="5" max="5" width="12.7933333333333"/>
+    <col min="6" max="7" width="13.6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -16525,7 +17920,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -16538,8 +17933,14 @@
       <c r="D2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="H2">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>10</v>
       </c>
@@ -16560,8 +17961,11 @@
         <f>20*LOG10(C3/B3)</f>
         <v>-0.555451564372988</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="1">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>50</v>
       </c>
@@ -16582,8 +17986,11 @@
         <f t="shared" ref="G4:G34" si="1">20*LOG10(C4/B4)</f>
         <v>0.0260968337668856</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="1">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>100</v>
       </c>
@@ -16604,8 +18011,11 @@
         <f t="shared" si="1"/>
         <v>0.0260968337668856</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="1">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>500</v>
       </c>
@@ -16626,8 +18036,11 @@
         <f t="shared" si="1"/>
         <v>0.0260968337668856</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" s="1">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>1000</v>
       </c>
@@ -16648,8 +18061,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7" s="1">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>2000</v>
       </c>
@@ -16670,8 +18086,11 @@
         <f t="shared" si="1"/>
         <v>-0.106467804585197</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8" s="1">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>4000</v>
       </c>
@@ -16692,8 +18111,11 @@
         <f t="shared" si="1"/>
         <v>-0.384435626529206</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9" s="1">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>6000</v>
       </c>
@@ -16714,8 +18136,11 @@
         <f t="shared" si="1"/>
         <v>-0.861698013986966</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10" s="1">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>8000</v>
       </c>
@@ -16736,8 +18161,11 @@
         <f t="shared" si="1"/>
         <v>-1.48887248707118</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11" s="1">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>10000</v>
       </c>
@@ -16758,8 +18186,11 @@
         <f t="shared" si="1"/>
         <v>-2.24196184496149</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12" s="1">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13">
         <v>11000</v>
       </c>
@@ -16780,8 +18211,11 @@
         <f t="shared" si="1"/>
         <v>-2.66863111767446</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13" s="1">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>12000</v>
       </c>
@@ -16802,8 +18236,11 @@
         <f t="shared" si="1"/>
         <v>-3.15080338693169</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="H14" s="1">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15">
         <v>13000</v>
       </c>
@@ -16824,8 +18261,11 @@
         <f t="shared" si="1"/>
         <v>-3.62637627119644</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15" s="1">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16">
         <v>14000</v>
       </c>
@@ -16846,8 +18286,11 @@
         <f t="shared" si="1"/>
         <v>-4.20445163285557</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="H16" s="1">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>15000</v>
       </c>
@@ -16868,8 +18311,11 @@
         <f t="shared" si="1"/>
         <v>-4.71056893815098</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17" s="1">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18">
         <v>15500</v>
       </c>
@@ -16893,8 +18339,11 @@
         <f t="shared" si="1"/>
         <v>-5.26651217056969</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18" s="1">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19">
         <v>15916</v>
       </c>
@@ -16915,8 +18364,11 @@
         <f t="shared" si="1"/>
         <v>-5.52974109172911</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19" s="1">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20">
         <v>16000</v>
       </c>
@@ -16937,8 +18389,11 @@
         <f t="shared" si="1"/>
         <v>-5.32535778809538</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="H20" s="1">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21">
         <v>17000</v>
       </c>
@@ -16959,8 +18414,11 @@
         <f t="shared" si="1"/>
         <v>-6.04082318117687</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="H21" s="1">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22">
         <v>18000</v>
       </c>
@@ -16981,8 +18439,11 @@
         <f t="shared" si="1"/>
         <v>-6.64876919831211</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22" s="1">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23">
         <v>20000</v>
       </c>
@@ -17003,8 +18464,11 @@
         <f t="shared" si="1"/>
         <v>-7.39664773982957</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23" s="1">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24">
         <v>25000</v>
       </c>
@@ -17025,8 +18489,11 @@
         <f t="shared" si="1"/>
         <v>-9.73201550832353</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="H24" s="1">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25">
         <v>30000</v>
       </c>
@@ -17047,8 +18514,11 @@
         <f t="shared" si="1"/>
         <v>-12.0411998265592</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="H25" s="1">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26">
         <v>35000</v>
       </c>
@@ -17069,8 +18539,11 @@
         <f t="shared" si="1"/>
         <v>-13.6618648447436</v>
       </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="H26" s="1">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27">
         <v>40000</v>
       </c>
@@ -17091,8 +18564,11 @@
         <f t="shared" si="1"/>
         <v>-15.16568011104</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27" s="1">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28">
         <v>45000</v>
       </c>
@@ -17113,8 +18589,11 @@
         <f t="shared" si="1"/>
         <v>-17.0901101707218</v>
       </c>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="H28" s="1">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29">
         <v>50000</v>
       </c>
@@ -17135,8 +18614,11 @@
         <f t="shared" si="1"/>
         <v>-18.6864244871204</v>
       </c>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="H29" s="1">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30">
         <v>60000</v>
       </c>
@@ -17157,8 +18639,11 @@
         <f t="shared" si="1"/>
         <v>-20.8870855230247</v>
       </c>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="H30" s="1">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31">
         <v>80000</v>
       </c>
@@ -17176,8 +18661,11 @@
         <f t="shared" si="1"/>
         <v>-22.7555192262694</v>
       </c>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="H31" s="1">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32">
         <v>100000</v>
       </c>
@@ -17195,8 +18683,11 @@
         <f t="shared" si="1"/>
         <v>-24.6008645646326</v>
       </c>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="H32" s="1">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33">
         <v>150000</v>
       </c>
@@ -17214,8 +18705,11 @@
         <f t="shared" si="1"/>
         <v>-26.7837539531339</v>
       </c>
-    </row>
-    <row r="34" spans="1:7">
+      <c r="H33" s="1">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34">
         <v>200000</v>
       </c>
@@ -17232,6 +18726,17 @@
       <c r="G34">
         <f t="shared" si="1"/>
         <v>-27.9183064421125</v>
+      </c>
+      <c r="H34" s="1">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="35" spans="7:8">
+      <c r="G35">
+        <v>-34</v>
+      </c>
+      <c r="H35">
+        <v>15500</v>
       </c>
     </row>
   </sheetData>
@@ -17244,16 +18749,16 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.02666666666667" defaultRowHeight="12.75"/>
   <cols>
-    <col min="5" max="5" width="12.7964601769912"/>
-    <col min="7" max="7" width="13.6017699115044"/>
+    <col min="5" max="5" width="12.7933333333333"/>
+    <col min="7" max="7" width="13.6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -17275,7 +18780,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>10</v>
       </c>
@@ -17296,8 +18801,14 @@
         <f>20*LOG10(C3/B3)</f>
         <v>-0.392939098029341</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="1">
+        <v>1610</v>
+      </c>
+      <c r="I3" s="1">
+        <v>145000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>50</v>
       </c>
@@ -17318,8 +18829,14 @@
         <f t="shared" ref="G4:G39" si="1">20*LOG10(C4/B4)</f>
         <v>-0.0435383850854909</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="1">
+        <v>1610</v>
+      </c>
+      <c r="I4" s="1">
+        <v>145000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>100</v>
       </c>
@@ -17340,8 +18857,14 @@
         <f t="shared" si="1"/>
         <v>-0.0435383850854909</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="1">
+        <v>1610</v>
+      </c>
+      <c r="I5" s="1">
+        <v>145000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>500</v>
       </c>
@@ -17362,8 +18885,14 @@
         <f t="shared" si="1"/>
         <v>-0.419862519928121</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" s="1">
+        <v>1610</v>
+      </c>
+      <c r="I6" s="1">
+        <v>145000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>600</v>
       </c>
@@ -17384,8 +18913,14 @@
         <f t="shared" si="1"/>
         <v>-0.652427594396267</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7" s="1">
+        <v>1610</v>
+      </c>
+      <c r="I7" s="1">
+        <v>145000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>700</v>
       </c>
@@ -17406,8 +18941,14 @@
         <f t="shared" si="1"/>
         <v>-0.76851647266187</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8" s="1">
+        <v>1610</v>
+      </c>
+      <c r="I8" s="1">
+        <v>145000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>800</v>
       </c>
@@ -17428,8 +18969,14 @@
         <f t="shared" si="1"/>
         <v>-0.97383847799449</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9" s="1">
+        <v>1610</v>
+      </c>
+      <c r="I9" s="1">
+        <v>145000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>900</v>
       </c>
@@ -17450,8 +18997,14 @@
         <f t="shared" si="1"/>
         <v>-1.17492297744837</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10" s="1">
+        <v>1610</v>
+      </c>
+      <c r="I10" s="1">
+        <v>145000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>950</v>
       </c>
@@ -17472,8 +19025,14 @@
         <f t="shared" si="1"/>
         <v>-1.31698508687351</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11" s="1">
+        <v>1610</v>
+      </c>
+      <c r="I11" s="1">
+        <v>145000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12">
         <v>1000</v>
       </c>
@@ -17494,8 +19053,14 @@
         <f t="shared" si="1"/>
         <v>-1.41110383681873</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12" s="1">
+        <v>1610</v>
+      </c>
+      <c r="I12" s="1">
+        <v>145000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13">
         <v>1100</v>
       </c>
@@ -17516,8 +19081,14 @@
         <f t="shared" si="1"/>
         <v>-1.64741387084281</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13" s="1">
+        <v>1610</v>
+      </c>
+      <c r="I13" s="1">
+        <v>145000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14">
         <v>1300</v>
       </c>
@@ -17538,8 +19109,14 @@
         <f t="shared" si="1"/>
         <v>-2.15765436308691</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="H14" s="1">
+        <v>1610</v>
+      </c>
+      <c r="I14" s="1">
+        <v>145000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15">
         <v>1500</v>
       </c>
@@ -17560,8 +19137,14 @@
         <f t="shared" si="1"/>
         <v>-2.66900390743739</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15" s="1">
+        <v>1610</v>
+      </c>
+      <c r="I15" s="1">
+        <v>145000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16">
         <v>1600</v>
       </c>
@@ -17582,8 +19165,14 @@
         <f t="shared" si="1"/>
         <v>-2.95819518257318</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="H16" s="1">
+        <v>1610</v>
+      </c>
+      <c r="I16" s="1">
+        <v>145000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17">
         <v>1700</v>
       </c>
@@ -17604,8 +19193,14 @@
         <f t="shared" si="1"/>
         <v>-3.20292089671334</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17" s="1">
+        <v>1610</v>
+      </c>
+      <c r="I17" s="1">
+        <v>145000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18">
         <v>1800</v>
       </c>
@@ -17626,8 +19221,14 @@
         <f t="shared" si="1"/>
         <v>-3.45526631413507</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18" s="1">
+        <v>1610</v>
+      </c>
+      <c r="I18" s="1">
+        <v>145000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19">
         <v>2000</v>
       </c>
@@ -17648,8 +19249,14 @@
         <f t="shared" si="1"/>
         <v>-3.98995787570214</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19" s="1">
+        <v>1610</v>
+      </c>
+      <c r="I19" s="1">
+        <v>145000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20">
         <v>2200</v>
       </c>
@@ -17670,8 +19277,14 @@
         <f t="shared" si="1"/>
         <v>-4.48186341077617</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="H20" s="1">
+        <v>1610</v>
+      </c>
+      <c r="I20" s="1">
+        <v>145000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21">
         <v>2500</v>
       </c>
@@ -17692,8 +19305,14 @@
         <f t="shared" si="1"/>
         <v>-5.23198975415209</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="H21" s="1">
+        <v>1610</v>
+      </c>
+      <c r="I21" s="1">
+        <v>145000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22">
         <v>3000</v>
       </c>
@@ -17714,8 +19333,14 @@
         <f t="shared" si="1"/>
         <v>-6.39770675575334</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22" s="1">
+        <v>1610</v>
+      </c>
+      <c r="I22" s="1">
+        <v>145000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23">
         <v>4000</v>
       </c>
@@ -17736,8 +19361,14 @@
         <f t="shared" si="1"/>
         <v>-8.38484604548269</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23" s="1">
+        <v>1610</v>
+      </c>
+      <c r="I23" s="1">
+        <v>145000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24">
         <v>6000</v>
       </c>
@@ -17758,8 +19389,14 @@
         <f t="shared" si="1"/>
         <v>-11.428647714945</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="H24" s="1">
+        <v>1610</v>
+      </c>
+      <c r="I24" s="1">
+        <v>145000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25">
         <v>8000</v>
       </c>
@@ -17780,8 +19417,14 @@
         <f t="shared" si="1"/>
         <v>-13.7198333222901</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="H25" s="1">
+        <v>1610</v>
+      </c>
+      <c r="I25" s="1">
+        <v>145000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26">
         <v>10000</v>
       </c>
@@ -17802,8 +19445,14 @@
         <f t="shared" si="1"/>
         <v>-15.5721249452659</v>
       </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="H26" s="1">
+        <v>1610</v>
+      </c>
+      <c r="I26" s="1">
+        <v>145000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27">
         <v>20000</v>
       </c>
@@ -17824,8 +19473,14 @@
         <f t="shared" si="1"/>
         <v>-21.3237903840006</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27" s="1">
+        <v>1610</v>
+      </c>
+      <c r="I27" s="1">
+        <v>145000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28">
         <v>40000</v>
       </c>
@@ -17846,8 +19501,14 @@
         <f t="shared" si="1"/>
         <v>-26.7582566518471</v>
       </c>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="H28" s="1">
+        <v>1610</v>
+      </c>
+      <c r="I28" s="1">
+        <v>145000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29">
         <v>60000</v>
       </c>
@@ -17868,8 +19529,14 @@
         <f t="shared" si="1"/>
         <v>-30.1481211724826</v>
       </c>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="H29" s="1">
+        <v>1610</v>
+      </c>
+      <c r="I29" s="1">
+        <v>145000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30">
         <v>80000</v>
       </c>
@@ -17890,8 +19557,14 @@
         <f t="shared" si="1"/>
         <v>-32.5098278778082</v>
       </c>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="H30" s="1">
+        <v>1610</v>
+      </c>
+      <c r="I30" s="1">
+        <v>145000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31">
         <v>90000</v>
       </c>
@@ -17912,8 +19585,14 @@
         <f t="shared" si="1"/>
         <v>-33.3357064192924</v>
       </c>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="H31" s="1">
+        <v>1610</v>
+      </c>
+      <c r="I31" s="1">
+        <v>145000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32">
         <v>100000</v>
       </c>
@@ -17934,8 +19613,14 @@
         <f t="shared" si="1"/>
         <v>-34.2228192553189</v>
       </c>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="H32" s="1">
+        <v>1610</v>
+      </c>
+      <c r="I32" s="1">
+        <v>145000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33">
         <v>110000</v>
       </c>
@@ -17956,8 +19641,14 @@
         <f t="shared" si="1"/>
         <v>-35.2155430862844</v>
       </c>
-    </row>
-    <row r="34" spans="1:7">
+      <c r="H33" s="1">
+        <v>1610</v>
+      </c>
+      <c r="I33" s="1">
+        <v>145000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34">
         <v>120000</v>
       </c>
@@ -17978,8 +19669,14 @@
         <f t="shared" si="1"/>
         <v>-36.3292451755291</v>
       </c>
-    </row>
-    <row r="35" spans="1:7">
+      <c r="H34" s="1">
+        <v>1610</v>
+      </c>
+      <c r="I34" s="1">
+        <v>145000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35">
         <v>130000</v>
       </c>
@@ -17997,8 +19694,14 @@
         <f t="shared" si="1"/>
         <v>-36.9461638963875</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35" s="1">
+        <v>1610</v>
+      </c>
+      <c r="I35" s="1">
+        <v>145000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36">
         <v>150000</v>
       </c>
@@ -18016,8 +19719,14 @@
         <f t="shared" si="1"/>
         <v>-37.6162718456158</v>
       </c>
-    </row>
-    <row r="37" spans="1:7">
+      <c r="H36" s="1">
+        <v>1610</v>
+      </c>
+      <c r="I36" s="1">
+        <v>145000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37">
         <v>200000</v>
       </c>
@@ -18035,8 +19744,14 @@
         <f t="shared" si="1"/>
         <v>-39.9564616149145</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37" s="1">
+        <v>1610</v>
+      </c>
+      <c r="I37" s="1">
+        <v>145000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38">
         <v>500000</v>
       </c>
@@ -18054,8 +19769,14 @@
         <f t="shared" si="1"/>
         <v>-43.2359133586729</v>
       </c>
-    </row>
-    <row r="39" spans="1:7">
+      <c r="H38" s="1">
+        <v>1610</v>
+      </c>
+      <c r="I38" s="1">
+        <v>145000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39">
         <v>1000000</v>
       </c>
@@ -18072,6 +19793,23 @@
       <c r="G39">
         <f t="shared" si="1"/>
         <v>-43.3125165075503</v>
+      </c>
+      <c r="H39" s="1">
+        <v>1610</v>
+      </c>
+      <c r="I39" s="1">
+        <v>145000</v>
+      </c>
+    </row>
+    <row r="40" spans="7:9">
+      <c r="G40">
+        <v>-45</v>
+      </c>
+      <c r="H40">
+        <v>1610</v>
+      </c>
+      <c r="I40">
+        <v>145000</v>
       </c>
     </row>
   </sheetData>
@@ -18086,15 +19824,15 @@
   <sheetPr/>
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="Y20" sqref="Y20"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.02666666666667" defaultRowHeight="12.75"/>
   <cols>
-    <col min="5" max="5" width="12.7964601769912"/>
-    <col min="6" max="6" width="13.858407079646"/>
-    <col min="8" max="8" width="13.858407079646"/>
+    <col min="5" max="5" width="12.7933333333333"/>
+    <col min="6" max="6" width="13.86"/>
+    <col min="8" max="8" width="13.86"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -18516,7 +20254,7 @@
         <v>-3.08645028587019</v>
       </c>
       <c r="I14">
-        <f t="shared" ref="I14:I24" si="6">$A$12</f>
+        <f t="shared" ref="I14:I25" si="6">$A$12</f>
         <v>723</v>
       </c>
       <c r="J14">
@@ -18860,7 +20598,7 @@
         <v>-40</v>
       </c>
       <c r="I25">
-        <f>$A$12</f>
+        <f t="shared" si="6"/>
         <v>723</v>
       </c>
       <c r="J25">
@@ -18880,13 +20618,13 @@
   <sheetPr/>
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="U47" sqref="U47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9.02666666666667" defaultRowHeight="12.75" outlineLevelCol="7"/>
   <cols>
-    <col min="5" max="6" width="13.858407079646"/>
+    <col min="5" max="6" width="13.86"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -19233,7 +20971,7 @@
         <v>-2.81630997414276</v>
       </c>
       <c r="G14">
-        <f t="shared" ref="G14:G25" si="5">$A$18</f>
+        <f t="shared" ref="G14:G26" si="5">$A$18</f>
         <v>7480</v>
       </c>
       <c r="H14">
@@ -19580,7 +21318,7 @@
         <v>-25</v>
       </c>
       <c r="G26">
-        <f>$A$18</f>
+        <f t="shared" si="5"/>
         <v>7480</v>
       </c>
       <c r="H26">

--- a/lu2/aufgabe3.1_rc_tiefpass_bodediagramm.xlsx
+++ b/lu2/aufgabe3.1_rc_tiefpass_bodediagramm.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24000" windowHeight="13260" activeTab="4"/>
+    <workbookView windowWidth="24292" windowHeight="13042" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -99,12 +99,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,7 +116,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -128,31 +128,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -166,6 +152,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,7 +183,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -197,30 +220,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -235,30 +244,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -273,7 +266,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -285,19 +392,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -309,151 +440,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -487,6 +480,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -526,30 +534,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -564,153 +548,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -718,60 +711,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
     <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="Accent1" xfId="19" builtinId="29"/>
-    <cellStyle name="Comma[0]" xfId="20" builtinId="6"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Currency[0]" xfId="37" builtinId="7"/>
-    <cellStyle name="Heading 1" xfId="38" builtinId="16"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50"/>
-    <cellStyle name="Title" xfId="40" builtinId="15"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="20% - Accent1" xfId="42" builtinId="30"/>
-    <cellStyle name="Hyperlink" xfId="43" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="45" builtinId="17"/>
-    <cellStyle name="Comma" xfId="46" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="47" builtinId="23"/>
-    <cellStyle name="Percent" xfId="48" builtinId="5"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
@@ -801,10 +794,11 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -816,10 +810,12 @@
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
                 </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -835,18 +831,21 @@
                     <a:lumMod val="75000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:ln w="9525">
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                   <a:noFill/>
+                  <a:prstDash val="solid"/>
+                  <a:round/>
                 </a:ln>
                 <a:effectLst/>
               </c:spPr>
             </c:marker>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:ln w="19050" cap="rnd">
+              <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
                 </a:solidFill>
+                <a:prstDash val="solid"/>
                 <a:round/>
               </a:ln>
               <a:effectLst/>
@@ -942,6 +941,32 @@
                 </c:rich>
               </c:tx>
               <c:numFmt formatCode="General" sourceLinked="1"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -1029,6 +1054,7 @@
                           <a:lumOff val="65000"/>
                         </a:schemeClr>
                       </a:solidFill>
+                      <a:prstDash val="solid"/>
                       <a:round/>
                     </a:ln>
                     <a:effectLst/>
@@ -1193,12 +1219,13 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:spPr>
-            <a:ln w="9525" cap="rnd">
+            <a:ln w="9525" cap="rnd" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="accent2">
                   <a:lumMod val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1365,7 +1392,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:spPr>
-            <a:ln w="12700" cap="rnd" cmpd="sng">
+            <a:ln w="12700" cap="rnd" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="accent5">
                   <a:alpha val="86000"/>
@@ -1383,10 +1410,12 @@
               <a:solidFill>
                 <a:schemeClr val="accent5"/>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                 <a:solidFill>
                   <a:schemeClr val="accent5"/>
                 </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -1547,7 +1576,6 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="r"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -1569,7 +1597,6 @@
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:noFill/>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -1577,6 +1604,7 @@
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1591,6 +1619,7 @@
                   <a:lumOff val="95000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1646,6 +1675,7 @@
                 <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
+            <a:prstDash val="solid"/>
             <a:round/>
           </a:ln>
           <a:effectLst/>
@@ -1683,7 +1713,6 @@
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:noFill/>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -1691,6 +1720,7 @@
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1746,6 +1776,7 @@
                 <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
+            <a:prstDash val="solid"/>
             <a:round/>
           </a:ln>
           <a:effectLst/>
@@ -1796,6 +1827,7 @@
           <a:lumOff val="85000"/>
         </a:schemeClr>
       </a:solidFill>
+      <a:prstDash val="solid"/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -1811,7 +1843,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins r="0.7" b="0.75" l="0.7" footer="0.3" header="0.3" t="0.75"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2347,7 +2379,6 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="r"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -2369,7 +2400,6 @@
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:noFill/>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -2499,7 +2529,6 @@
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:noFill/>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -2627,7 +2656,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins r="0.7" b="0.75" l="0.7" footer="0.3" header="0.3" t="0.75"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3172,7 +3201,6 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="r"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -3194,7 +3222,6 @@
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:noFill/>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -3309,7 +3336,6 @@
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:noFill/>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -3437,7 +3463,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins r="0.7" b="0.75" l="0.7" footer="0.3" header="0.3" t="0.75"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3940,7 +3966,6 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="r"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -3962,7 +3987,6 @@
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:noFill/>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -4076,7 +4100,6 @@
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:noFill/>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -4204,7 +4227,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins r="0.7" b="0.75" l="0.7" footer="0.3" header="0.3" t="0.75"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4413,7 +4436,6 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="r"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -4435,7 +4457,6 @@
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:noFill/>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -4549,7 +4570,6 @@
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:noFill/>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -4677,7 +4697,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins r="0.7" b="0.75" l="0.7" footer="0.3" header="0.3" t="0.75"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4993,10 +5013,12 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575">
+            <a:ln w="6350" cap="rnd" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -5004,13 +5026,183 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="11"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="12"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="13"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="14"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="15"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="16"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="17"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="18"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="19"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="20"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="21"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="22"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="23"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="24"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="25"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="26"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="27"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="28"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="29"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="30"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="31"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="32"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="33"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="34"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="35"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="36"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="37"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="38"/>
+              <c:delete val="1"/>
+            </c:dLbl>
             <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" horzOverflow="overflow" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr lang="de-AT" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
                 </a:pPr>
               </a:p>
             </c:txPr>
@@ -5028,8 +5220,10 @@
                 <c15:showLeaderLines val="0"/>
                 <c15:leaderLines>
                   <c:spPr>
-                    <a:ln>
+                    <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
                       <a:noFill/>
+                      <a:prstDash val="solid"/>
+                      <a:round/>
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
@@ -5039,10 +5233,10 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet3!$H$2:$H$40</c:f>
+              <c:f>Sheet3!$H$2:$H$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="1">
                   <c:v>15800</c:v>
                 </c:pt>
@@ -5155,6 +5349,9 @@
                   <c:v>15800</c:v>
                 </c:pt>
                 <c:pt idx="38">
+                  <c:v>15800</c:v>
+                </c:pt>
+                <c:pt idx="39">
                   <c:v>15800</c:v>
                 </c:pt>
               </c:numCache>
@@ -5162,10 +5359,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet3!$G$2:$G$40</c:f>
+              <c:f>Sheet3!$G$2:$G$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5279,6 +5476,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>-40</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5286,7 +5486,6 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="r"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -5309,7 +5508,6 @@
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:noFill/>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -5325,7 +5523,6 @@
         </c:majorGridlines>
         <c:minorGridlines>
           <c:spPr>
-            <a:noFill/>
             <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -5443,13 +5640,13 @@
         <c:axId val="751046084"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="15"/>
           <c:min val="-40"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:noFill/>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -5609,7 +5806,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins r="0.7" b="0.75" l="0.7" footer="0.3" header="0.3" t="0.75"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5649,7 +5846,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="3"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -5907,8 +6104,276 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="6350" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$H$3:$H$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>15800</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15800</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15800</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15800</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15800</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15800</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15800</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15800</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15800</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15800</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15800</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15800</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15800</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15800</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>15800</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>15800</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>15800</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>15800</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>15800</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>15800</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>15800</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>15800</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>15800</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>15800</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>15800</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>15800</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>15800</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>15800</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>15800</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>15800</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>15800</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>15800</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>15800</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>15800</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>15800</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>15800</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>15800</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$D$3:$D$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.67</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-3.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-5.73</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-7.23</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-10.31</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-15.03</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-17.7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-23</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-31.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-37.1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-44.8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-54.7</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-66.9</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-81.2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-90</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-92.13</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-96.3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-110</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-121.3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-130.3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-137.1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-146.3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-152.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-165.1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-169.3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-171.4</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-172.3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-173.9</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-175.3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-176.3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-178</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-181.9</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-184</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-190</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
         <c:dLbls>
-          <c:dLblPos val="r"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -5930,7 +6395,6 @@
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:noFill/>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -6038,12 +6502,13 @@
         <c:axId val="94895867"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="5"/>
+          <c:min val="-190"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:noFill/>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -6171,7 +6636,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins r="0.7" b="0.75" l="0.7" footer="0.3" header="0.3" t="0.75"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6457,10 +6922,12 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575">
+            <a:ln w="6350" cap="rnd" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -6468,13 +6935,163 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="11"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="12"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="13"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="14"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="15"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="16"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="17"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="18"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="19"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="20"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="21"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="22"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="23"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="24"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="25"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="26"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="27"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="28"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="29"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="30"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="31"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="32"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="33"/>
+              <c:delete val="1"/>
+            </c:dLbl>
             <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" horzOverflow="overflow" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr lang="de-AT" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
                 </a:pPr>
               </a:p>
             </c:txPr>
@@ -6492,8 +7109,10 @@
                 <c15:showLeaderLines val="0"/>
                 <c15:leaderLines>
                   <c:spPr>
-                    <a:ln>
+                    <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
                       <a:noFill/>
+                      <a:prstDash val="solid"/>
+                      <a:round/>
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
@@ -6726,7 +7345,6 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="r"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -6749,7 +7367,6 @@
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:noFill/>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -6765,7 +7382,6 @@
         </c:majorGridlines>
         <c:minorGridlines>
           <c:spPr>
-            <a:noFill/>
             <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -6883,12 +7499,13 @@
         <c:axId val="713527484"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="5"/>
+          <c:min val="-30"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:noFill/>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -7048,7 +7665,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins r="0.7" b="0.75" l="0.7" footer="0.3" header="0.3" t="0.75"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7088,7 +7705,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="3"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -7299,13 +7916,243 @@
                 <c:pt idx="27">
                   <c:v>-157.87</c:v>
                 </c:pt>
+                <c:pt idx="28">
+                  <c:v>-180</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="6350" cap="rnd" cmpd="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet4!$H$2:$H$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>15500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15500</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15500</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15500</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15500</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>15500</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>15500</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>15500</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>15500</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>15500</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>15500</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>15500</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>15500</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>15500</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>15500</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>15500</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>15500</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>15500</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>15500</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>15500</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>15500</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>15500</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>15500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet4!$D$3:$D$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-6.43</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-12.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-25.32</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-38</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-49.78</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-61.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-66.3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-71.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-76</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-83.23</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-88.3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-90</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-91.87</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-92.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-95.7</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-98.07</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-105.7</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-119.45</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-126</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-135.7</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-142.53</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-146</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-155.3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-157.87</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-180</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="r"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -7327,7 +8174,6 @@
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:noFill/>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -7440,7 +8286,6 @@
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:noFill/>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -7568,7 +8413,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins r="0.7" b="0.75" l="0.7" footer="0.3" header="0.3" t="0.75"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7592,7 +8437,7 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+        <c:scatterStyle val="line"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
@@ -7609,13 +8454,12 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="FFC000"/>
-            </a:solidFill>
-            <a:ln w="28575">
+            <a:ln w="6350" cap="rnd" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -7623,13 +8467,179 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="11"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="12"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="13"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="14"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="15"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="16"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="17"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="18"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="19"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="20"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="21"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="22"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="23"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="24"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="25"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="26"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="27"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="28"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="29"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="30"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="31"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="32"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="33"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="34"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="35"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="36"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="37"/>
+              <c:delete val="1"/>
+            </c:dLbl>
             <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" horzOverflow="overflow" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr lang="de-AT" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
                 </a:pPr>
               </a:p>
             </c:txPr>
@@ -7647,8 +8657,10 @@
                 <c15:showLeaderLines val="0"/>
                 <c15:leaderLines>
                   <c:spPr>
-                    <a:ln>
+                    <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
                       <a:noFill/>
+                      <a:prstDash val="solid"/>
+                      <a:round/>
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
@@ -8194,15 +9206,14 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="FFC000"/>
-            </a:solidFill>
-            <a:ln w="28575">
+            <a:ln w="6350" cap="rnd" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="accent6">
                   <a:lumMod val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -8210,13 +9221,179 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="11"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="12"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="13"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="14"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="15"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="16"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="17"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="18"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="19"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="20"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="21"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="22"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="23"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="24"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="25"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="26"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="27"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="28"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="29"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="30"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="31"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="32"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="33"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="34"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="35"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="36"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="37"/>
+              <c:delete val="1"/>
+            </c:dLbl>
             <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" horzOverflow="overflow" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr lang="de-AT" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
                 </a:pPr>
               </a:p>
             </c:txPr>
@@ -8234,8 +9411,10 @@
                 <c15:showLeaderLines val="0"/>
                 <c15:leaderLines>
                   <c:spPr>
-                    <a:ln>
+                    <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
                       <a:noFill/>
+                      <a:prstDash val="solid"/>
+                      <a:round/>
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
@@ -8492,7 +9671,6 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="r"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -8514,7 +9692,6 @@
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:noFill/>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -8530,7 +9707,6 @@
         </c:majorGridlines>
         <c:minorGridlines>
           <c:spPr>
-            <a:noFill/>
             <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -8654,7 +9830,6 @@
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:noFill/>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -8814,7 +9989,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins r="0.7" b="0.75" l="0.7" footer="0.3" header="0.3" t="0.75"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -9092,13 +10267,521 @@
                 <c:pt idx="31">
                   <c:v>-147</c:v>
                 </c:pt>
+                <c:pt idx="32">
+                  <c:v>-180</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="6350" cap="rnd" cmpd="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet5!$I$3:$I$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>145000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>145000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>145000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>145000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>145000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>145000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>145000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>145000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>145000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>145000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>145000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>145000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>145000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>145000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>145000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>145000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>145000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>145000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>145000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>145000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>145000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>145000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>145000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>145000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>145000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>145000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>145000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>145000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>145000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>145000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>145000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>145000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>145000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>145000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>145000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>145000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>145000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>145000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet5!$D$3:$D$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>-0.41</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-17.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-20.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-23.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-26</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-28.63</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-29.15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-31.45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-34.25</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-39.34</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-42.7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-44</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-46</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-48</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-50.9</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-53.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-57.3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-62.3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-68.2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-76</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-80</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-83</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-93</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-104</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-114</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-124</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-130</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-134</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-138</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-147</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-180</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="6350" cap="rnd" cmpd="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet5!$H$3:$H$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>1610</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1610</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1610</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1610</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1610</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1610</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1610</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1610</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1610</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1610</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1610</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1610</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1610</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1610</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1610</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1610</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1610</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1610</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1610</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1610</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1610</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1610</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1610</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1610</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1610</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1610</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1610</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1610</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1610</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1610</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1610</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1610</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1610</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1610</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1610</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1610</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1610</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1610</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet5!$D$3:$D$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>-0.41</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-17.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-20.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-23.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-26</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-28.63</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-29.15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-31.45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-34.25</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-39.34</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-42.7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-44</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-46</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-48</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-50.9</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-53.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-57.3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-62.3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-68.2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-76</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-80</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-83</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-93</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-104</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-114</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-124</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-130</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-134</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-138</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-147</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-180</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="r"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -9120,7 +10803,6 @@
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:noFill/>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -9228,12 +10910,12 @@
         <c:axId val="544951191"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="-180"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:noFill/>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -9361,7 +11043,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins r="0.7" b="0.75" l="0.7" footer="0.3" header="0.3" t="0.75"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -9918,7 +11600,6 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="r"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -9940,7 +11621,6 @@
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:noFill/>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -10054,7 +11734,6 @@
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:noFill/>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -10198,17 +11877,17 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins r="0.7" b="0.75" l="0.7" footer="0.3" header="0.3" t="0.75"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent3"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
   <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
   <cs:variation/>
   <cs:variation>
     <a:lumMod val="60000"/>
@@ -10242,10 +11921,13 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent6"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent4"/>
   <cs:variation/>
   <cs:variation>
     <a:lumMod val="60000"/>
@@ -10518,46 +12200,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -14171,522 +15813,6 @@
 </file>
 
 <file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -15223,8 +16349,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="10617835" y="419100"/>
-        <a:ext cx="8543925" cy="3081020"/>
+        <a:off x="8042275" y="457200"/>
+        <a:ext cx="6423025" cy="3442970"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -15253,8 +16379,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="10569575" y="3738880"/>
-        <a:ext cx="8573135" cy="2766060"/>
+        <a:off x="7994015" y="4177030"/>
+        <a:ext cx="6452235" cy="3089910"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -15288,8 +16414,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9001760" y="269875"/>
-        <a:ext cx="8366760" cy="3381375"/>
+        <a:off x="6897370" y="288925"/>
+        <a:ext cx="6245860" cy="3781425"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -15308,7 +16434,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>222250</xdr:colOff>
+      <xdr:colOff>236855</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>151765</xdr:rowOff>
     </xdr:to>
@@ -15318,8 +16444,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9029065" y="3752850"/>
-        <a:ext cx="8323580" cy="3199765"/>
+        <a:off x="6924675" y="4191000"/>
+        <a:ext cx="6217285" cy="3561715"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -15337,13 +16463,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>793750</xdr:colOff>
+      <xdr:colOff>647700</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>786130</xdr:colOff>
+      <xdr:colOff>647700</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>110490</xdr:rowOff>
     </xdr:to>
@@ -15353,8 +16479,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9761855" y="266700"/>
-        <a:ext cx="8590280" cy="3082290"/>
+        <a:off x="7404100" y="285750"/>
+        <a:ext cx="6477000" cy="3444240"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -15383,8 +16509,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9847580" y="3536315"/>
-        <a:ext cx="8359140" cy="3230880"/>
+        <a:off x="7423785" y="3936365"/>
+        <a:ext cx="6450330" cy="3611880"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -15408,7 +16534,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>777875</xdr:colOff>
+      <xdr:colOff>647700</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>10160</xdr:rowOff>
     </xdr:to>
@@ -15418,8 +16544,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8680450" y="308610"/>
-        <a:ext cx="8368030" cy="3101975"/>
+        <a:off x="6576060" y="327660"/>
+        <a:ext cx="6329045" cy="3482975"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -15432,15 +16558,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>461645</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>147955</xdr:rowOff>
+      <xdr:colOff>176530</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>10795</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>222250</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>584835</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>120015</xdr:rowOff>
+      <xdr:rowOff>163830</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -15448,8 +16574,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8994140" y="3548380"/>
-        <a:ext cx="8358505" cy="3048635"/>
+        <a:off x="6604635" y="3992245"/>
+        <a:ext cx="6237605" cy="3410585"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -15475,7 +16601,7 @@
       <xdr:col>20</xdr:col>
       <xdr:colOff>643255</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>172720</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -15483,8 +16609,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="10479405" y="323850"/>
-        <a:ext cx="8639175" cy="3076575"/>
+        <a:off x="8042910" y="361950"/>
+        <a:ext cx="6518275" cy="3419475"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -15499,7 +16625,7 @@
       <xdr:col>11</xdr:col>
       <xdr:colOff>17145</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
@@ -15513,8 +16639,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="10754360" y="3562350"/>
-        <a:ext cx="8592820" cy="3237230"/>
+        <a:off x="8105775" y="3962400"/>
+        <a:ext cx="6471920" cy="3618230"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -15548,8 +16674,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8675370" y="344170"/>
-        <a:ext cx="8361680" cy="3341370"/>
+        <a:off x="6539230" y="382270"/>
+        <a:ext cx="6452870" cy="3722370"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -15570,7 +16696,7 @@
       <xdr:col>19</xdr:col>
       <xdr:colOff>1905</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>176530</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -15578,8 +16704,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8679815" y="3914775"/>
-        <a:ext cx="8578850" cy="3209925"/>
+        <a:off x="6543675" y="4371975"/>
+        <a:ext cx="6457950" cy="3571875"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -15597,7 +16723,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="4A4A4A"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -15844,7 +16970,6 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
@@ -15857,9 +16982,9 @@
       <selection activeCell="A24" sqref="A3:A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02666666666667" defaultRowHeight="12.75" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <cols>
-    <col min="5" max="5" width="12.7933333333333"/>
+    <col min="5" max="5" width="12.7964601769912"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -16289,12 +17414,12 @@
       <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02666666666667" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="13.86"/>
-    <col min="5" max="5" width="13.86"/>
-    <col min="7" max="7" width="13.86"/>
-    <col min="9" max="9" width="13.86"/>
+    <col min="2" max="2" width="13.858407079646"/>
+    <col min="5" max="5" width="13.858407079646"/>
+    <col min="7" max="7" width="13.858407079646"/>
+    <col min="9" max="9" width="13.858407079646"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -16926,16 +18051,16 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02666666666667" defaultRowHeight="12.75" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="14.25" outlineLevelCol="7"/>
   <cols>
-    <col min="5" max="5" width="12.7933333333333"/>
-    <col min="7" max="7" width="13.6"/>
+    <col min="5" max="5" width="12.7964601769912"/>
+    <col min="7" max="7" width="13.6017699115044"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -17885,11 +19010,22 @@
         <v>15800</v>
       </c>
     </row>
-    <row r="40" spans="7:8">
+    <row r="40" spans="4:8">
+      <c r="D40">
+        <v>-190</v>
+      </c>
       <c r="G40">
         <v>-40</v>
       </c>
       <c r="H40" s="1">
+        <v>15800</v>
+      </c>
+    </row>
+    <row r="41" spans="7:8">
+      <c r="G41">
+        <v>15</v>
+      </c>
+      <c r="H41">
         <v>15800</v>
       </c>
     </row>
@@ -17906,13 +19042,13 @@
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="V22" sqref="V22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02666666666667" defaultRowHeight="12.75" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="14.25" outlineLevelCol="7"/>
   <cols>
-    <col min="5" max="5" width="12.7933333333333"/>
-    <col min="6" max="7" width="13.6"/>
+    <col min="5" max="5" width="12.7964601769912"/>
+    <col min="6" max="7" width="13.6017699115044"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -18652,6 +19788,9 @@
       </c>
       <c r="C31">
         <v>0.075</v>
+      </c>
+      <c r="D31">
+        <v>-180</v>
       </c>
       <c r="E31">
         <f t="shared" si="0"/>
@@ -18751,14 +19890,14 @@
   <sheetPr/>
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02666666666667" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="14.25"/>
   <cols>
-    <col min="5" max="5" width="12.7933333333333"/>
-    <col min="7" max="7" width="13.6"/>
+    <col min="5" max="5" width="12.7964601769912"/>
+    <col min="7" max="7" width="13.6017699115044"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -19686,6 +20825,9 @@
       <c r="C35">
         <v>0.014</v>
       </c>
+      <c r="D35">
+        <v>-180</v>
+      </c>
       <c r="E35">
         <f t="shared" si="0"/>
         <v>0.0142131979695431</v>
@@ -19711,6 +20853,7 @@
       <c r="C36">
         <v>0.013</v>
       </c>
+      <c r="D36"/>
       <c r="E36">
         <f t="shared" si="0"/>
         <v>0.0131578947368421</v>
@@ -19736,6 +20879,7 @@
       <c r="C37">
         <v>0.01</v>
       </c>
+      <c r="D37"/>
       <c r="E37">
         <f t="shared" si="0"/>
         <v>0.0100502512562814</v>
@@ -19828,11 +20972,11 @@
       <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02666666666667" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="14.25"/>
   <cols>
-    <col min="5" max="5" width="12.7933333333333"/>
-    <col min="6" max="6" width="13.86"/>
-    <col min="8" max="8" width="13.86"/>
+    <col min="5" max="5" width="12.7964601769912"/>
+    <col min="6" max="6" width="13.858407079646"/>
+    <col min="8" max="8" width="13.858407079646"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -20622,9 +21766,9 @@
       <selection activeCell="U47" sqref="U47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02666666666667" defaultRowHeight="12.75" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="14.25" outlineLevelCol="7"/>
   <cols>
-    <col min="5" max="6" width="13.86"/>
+    <col min="5" max="6" width="13.858407079646"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">

--- a/lu2/aufgabe3.1_rc_tiefpass_bodediagramm.xlsx
+++ b/lu2/aufgabe3.1_rc_tiefpass_bodediagramm.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24292" windowHeight="13042" activeTab="2"/>
+    <workbookView windowWidth="24300" windowHeight="13260" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -99,10 +99,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -121,14 +121,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -136,9 +128,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -152,28 +196,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,15 +205,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,31 +227,15 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -243,15 +249,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -266,13 +266,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -284,13 +344,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -302,7 +374,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -314,49 +416,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -368,85 +440,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,26 +460,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -519,17 +519,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -548,162 +557,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -717,54 +717,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
     <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="Accent1" xfId="19" builtinId="29"/>
+    <cellStyle name="Comma[0]" xfId="20" builtinId="6"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Currency[0]" xfId="37" builtinId="7"/>
+    <cellStyle name="Heading 1" xfId="38" builtinId="16"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50"/>
+    <cellStyle name="Title" xfId="40" builtinId="15"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="20% - Accent1" xfId="42" builtinId="30"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="45" builtinId="17"/>
+    <cellStyle name="Comma" xfId="46" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="47" builtinId="23"/>
+    <cellStyle name="Percent" xfId="48" builtinId="5"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
@@ -794,6 +794,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
+            <a:noFill/>
             <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -841,6 +842,7 @@
             </c:marker>
             <c:bubble3D val="0"/>
             <c:spPr>
+              <a:noFill/>
               <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
@@ -916,7 +918,7 @@
                   <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:pPr defTabSz="914400">
+                    <a:pPr algn="ctr" defTabSz="914400">
                       <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                         <a:solidFill>
                           <a:schemeClr val="tx1">
@@ -948,25 +950,6 @@
                 </a:ln>
                 <a:effectLst/>
               </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="75000"/>
-                          <a:lumOff val="25000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -1047,6 +1030,7 @@
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
+                    <a:noFill/>
                     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                       <a:solidFill>
                         <a:schemeClr val="tx1">
@@ -1219,6 +1203,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:spPr>
+            <a:noFill/>
             <a:ln w="9525" cap="rnd" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="accent2">
@@ -1392,6 +1377,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:spPr>
+            <a:noFill/>
             <a:ln w="12700" cap="rnd" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="accent5">
@@ -1576,6 +1562,7 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="r"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -1597,6 +1584,7 @@
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
+            <a:noFill/>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -1612,6 +1600,7 @@
         </c:majorGridlines>
         <c:minorGridlines>
           <c:spPr>
+            <a:noFill/>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -1713,6 +1702,7 @@
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
+            <a:noFill/>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -1843,7 +1833,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins r="0.7" b="0.75" l="0.7" footer="0.3" header="0.3" t="0.75"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2379,6 +2369,7 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="r"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -2400,6 +2391,7 @@
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
+            <a:noFill/>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -2529,6 +2521,7 @@
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
+            <a:noFill/>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -2656,7 +2649,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins r="0.7" b="0.75" l="0.7" footer="0.3" header="0.3" t="0.75"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3201,6 +3194,7 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="r"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -3222,6 +3216,7 @@
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
+            <a:noFill/>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -3336,6 +3331,7 @@
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
+            <a:noFill/>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -3463,7 +3459,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins r="0.7" b="0.75" l="0.7" footer="0.3" header="0.3" t="0.75"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3966,6 +3962,7 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="r"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -3987,6 +3984,7 @@
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
+            <a:noFill/>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -4100,6 +4098,7 @@
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
+            <a:noFill/>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -4227,7 +4226,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins r="0.7" b="0.75" l="0.7" footer="0.3" header="0.3" t="0.75"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4436,6 +4435,7 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="r"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -4457,6 +4457,7 @@
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
+            <a:noFill/>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -4570,6 +4571,7 @@
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
+            <a:noFill/>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -4697,7 +4699,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins r="0.7" b="0.75" l="0.7" footer="0.3" header="0.3" t="0.75"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4727,6 +4729,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
+            <a:noFill/>
             <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -5013,6 +5016,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
+            <a:noFill/>
             <a:ln w="6350" cap="rnd" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
@@ -5220,6 +5224,7 @@
                 <c15:showLeaderLines val="0"/>
                 <c15:leaderLines>
                   <c:spPr>
+                    <a:noFill/>
                     <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
                       <a:noFill/>
                       <a:prstDash val="solid"/>
@@ -5486,6 +5491,7 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="r"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -5508,6 +5514,7 @@
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
+            <a:noFill/>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -5523,6 +5530,7 @@
         </c:majorGridlines>
         <c:minorGridlines>
           <c:spPr>
+            <a:noFill/>
             <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -5647,6 +5655,7 @@
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
+            <a:noFill/>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -5806,7 +5815,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins r="0.7" b="0.75" l="0.7" footer="0.3" header="0.3" t="0.75"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6374,6 +6383,7 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="r"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -6395,6 +6405,7 @@
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
+            <a:noFill/>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -6509,6 +6520,7 @@
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
+            <a:noFill/>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -6636,7 +6648,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins r="0.7" b="0.75" l="0.7" footer="0.3" header="0.3" t="0.75"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6666,6 +6678,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
+            <a:noFill/>
             <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -6922,6 +6935,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
+            <a:noFill/>
             <a:ln w="6350" cap="rnd" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
@@ -7109,6 +7123,7 @@
                 <c15:showLeaderLines val="0"/>
                 <c15:leaderLines>
                   <c:spPr>
+                    <a:noFill/>
                     <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
                       <a:noFill/>
                       <a:prstDash val="solid"/>
@@ -7345,6 +7360,7 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="r"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -7367,6 +7383,7 @@
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
+            <a:noFill/>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -7382,6 +7399,7 @@
         </c:majorGridlines>
         <c:minorGridlines>
           <c:spPr>
+            <a:noFill/>
             <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -7506,6 +7524,7 @@
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
+            <a:noFill/>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -7665,7 +7684,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins r="0.7" b="0.75" l="0.7" footer="0.3" header="0.3" t="0.75"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -8153,6 +8172,7 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="r"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -8174,6 +8194,7 @@
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
+            <a:noFill/>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -8286,6 +8307,7 @@
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
+            <a:noFill/>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -8413,7 +8435,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins r="0.7" b="0.75" l="0.7" footer="0.3" header="0.3" t="0.75"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -8454,6 +8476,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
+            <a:noFill/>
             <a:ln w="6350" cap="rnd" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
@@ -8657,6 +8680,7 @@
                 <c15:showLeaderLines val="0"/>
                 <c15:leaderLines>
                   <c:spPr>
+                    <a:noFill/>
                     <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
                       <a:noFill/>
                       <a:prstDash val="solid"/>
@@ -8920,6 +8944,7 @@
           <c:idx val="0"/>
           <c:order val="1"/>
           <c:spPr>
+            <a:noFill/>
             <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -9206,6 +9231,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
+            <a:noFill/>
             <a:ln w="6350" cap="rnd" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="accent6">
@@ -9411,6 +9437,7 @@
                 <c15:showLeaderLines val="0"/>
                 <c15:leaderLines>
                   <c:spPr>
+                    <a:noFill/>
                     <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
                       <a:noFill/>
                       <a:prstDash val="solid"/>
@@ -9671,6 +9698,7 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="r"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -9692,6 +9720,7 @@
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
+            <a:noFill/>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -9707,6 +9736,7 @@
         </c:majorGridlines>
         <c:minorGridlines>
           <c:spPr>
+            <a:noFill/>
             <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -9830,6 +9860,7 @@
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
+            <a:noFill/>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -9989,7 +10020,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins r="0.7" b="0.75" l="0.7" footer="0.3" header="0.3" t="0.75"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -10047,10 +10078,10 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet5!$A$3:$A$39</c:f>
+              <c:f>Sheet5!$A$3:$A$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -10152,25 +10183,16 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>150000</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>200000</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>500000</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet5!$D$3:$D$39</c:f>
+              <c:f>Sheet5!$D$3:$D$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>-0.41</c:v>
                 </c:pt>
@@ -10265,10 +10287,13 @@
                   <c:v>-138</c:v>
                 </c:pt>
                 <c:pt idx="31">
+                  <c:v>-142</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>-147</c:v>
                 </c:pt>
-                <c:pt idx="32">
-                  <c:v>-180</c:v>
+                <c:pt idx="33">
+                  <c:v>-150</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10298,10 +10323,10 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet5!$I$3:$I$40</c:f>
+              <c:f>Sheet5!$I$3:$I$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>145000</c:v>
                 </c:pt>
@@ -10402,18 +10427,6 @@
                   <c:v>145000</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>145000</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>145000</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>145000</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>145000</c:v>
-                </c:pt>
-                <c:pt idx="37">
                   <c:v>145000</c:v>
                 </c:pt>
               </c:numCache>
@@ -10421,10 +10434,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet5!$D$3:$D$40</c:f>
+              <c:f>Sheet5!$D$3:$D$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>-0.41</c:v>
                 </c:pt>
@@ -10519,10 +10532,13 @@
                   <c:v>-138</c:v>
                 </c:pt>
                 <c:pt idx="31">
+                  <c:v>-142</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>-147</c:v>
                 </c:pt>
-                <c:pt idx="32">
-                  <c:v>-180</c:v>
+                <c:pt idx="33">
+                  <c:v>-150</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10550,10 +10566,10 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet5!$H$3:$H$40</c:f>
+              <c:f>Sheet5!$H$3:$H$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>1610</c:v>
                 </c:pt>
@@ -10654,18 +10670,6 @@
                   <c:v>1610</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1610</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1610</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1610</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1610</c:v>
-                </c:pt>
-                <c:pt idx="37">
                   <c:v>1610</c:v>
                 </c:pt>
               </c:numCache>
@@ -10673,10 +10677,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet5!$D$3:$D$40</c:f>
+              <c:f>Sheet5!$D$3:$D$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>-0.41</c:v>
                 </c:pt>
@@ -10771,10 +10775,13 @@
                   <c:v>-138</c:v>
                 </c:pt>
                 <c:pt idx="31">
+                  <c:v>-142</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>-147</c:v>
                 </c:pt>
-                <c:pt idx="32">
-                  <c:v>-180</c:v>
+                <c:pt idx="33">
+                  <c:v>-150</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10782,6 +10789,7 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="r"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -10803,6 +10811,7 @@
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
+            <a:noFill/>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -10869,7 +10878,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="low"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -10910,12 +10919,13 @@
         <c:axId val="544951191"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="-180"/>
+          <c:min val="-150"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
+            <a:noFill/>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -11043,7 +11053,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins r="0.7" b="0.75" l="0.7" footer="0.3" header="0.3" t="0.75"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -11600,6 +11610,7 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="r"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -11621,6 +11632,7 @@
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
+            <a:noFill/>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -11734,6 +11746,7 @@
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
+            <a:noFill/>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -11877,7 +11890,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins r="0.7" b="0.75" l="0.7" footer="0.3" header="0.3" t="0.75"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -16349,8 +16362,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8042275" y="457200"/>
-        <a:ext cx="6423025" cy="3442970"/>
+        <a:off x="10617835" y="419100"/>
+        <a:ext cx="8543925" cy="3081020"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -16379,8 +16392,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7994015" y="4177030"/>
-        <a:ext cx="6452235" cy="3089910"/>
+        <a:off x="10569575" y="3738880"/>
+        <a:ext cx="8573135" cy="2766060"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -16414,8 +16427,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6897370" y="288925"/>
-        <a:ext cx="6245860" cy="3781425"/>
+        <a:off x="9001760" y="269875"/>
+        <a:ext cx="8366760" cy="3381375"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -16444,8 +16457,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6924675" y="4191000"/>
-        <a:ext cx="6217285" cy="3561715"/>
+        <a:off x="9029065" y="3752850"/>
+        <a:ext cx="8338185" cy="3199765"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -16479,8 +16492,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7404100" y="285750"/>
-        <a:ext cx="6477000" cy="3444240"/>
+        <a:off x="9615805" y="266700"/>
+        <a:ext cx="8597900" cy="3082290"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -16509,8 +16522,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7423785" y="3936365"/>
-        <a:ext cx="6450330" cy="3611880"/>
+        <a:off x="9847580" y="3536315"/>
+        <a:ext cx="8359140" cy="3230880"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -16544,8 +16557,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6576060" y="327660"/>
-        <a:ext cx="6329045" cy="3482975"/>
+        <a:off x="8680450" y="308610"/>
+        <a:ext cx="8237855" cy="3101975"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -16558,15 +16571,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>176530</xdr:colOff>
+      <xdr:colOff>168275</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>10795</xdr:rowOff>
+      <xdr:rowOff>10160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>584835</xdr:colOff>
+      <xdr:colOff>576580</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>163830</xdr:rowOff>
+      <xdr:rowOff>161290</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -16574,8 +16587,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6604635" y="3992245"/>
-        <a:ext cx="6237605" cy="3410585"/>
+        <a:off x="8700770" y="3572510"/>
+        <a:ext cx="8146415" cy="3065780"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -16609,8 +16622,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8042910" y="361950"/>
-        <a:ext cx="6518275" cy="3419475"/>
+        <a:off x="10479405" y="323850"/>
+        <a:ext cx="8639175" cy="3076575"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -16639,8 +16652,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8105775" y="3962400"/>
-        <a:ext cx="6471920" cy="3618230"/>
+        <a:off x="10754360" y="3562350"/>
+        <a:ext cx="8592820" cy="3237230"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -16674,8 +16687,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6539230" y="382270"/>
-        <a:ext cx="6452870" cy="3722370"/>
+        <a:off x="8675370" y="344170"/>
+        <a:ext cx="8361680" cy="3341370"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -16704,8 +16717,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6543675" y="4371975"/>
-        <a:ext cx="6457950" cy="3571875"/>
+        <a:off x="8679815" y="3914775"/>
+        <a:ext cx="8578850" cy="3209925"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -16723,7 +16736,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="4A4A4A"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -16970,6 +16983,7 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
@@ -16982,9 +16996,9 @@
       <selection activeCell="A24" sqref="A3:A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="14.25" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.02666666666667" defaultRowHeight="12.75" outlineLevelCol="5"/>
   <cols>
-    <col min="5" max="5" width="12.7964601769912"/>
+    <col min="5" max="5" width="12.7933333333333"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -17414,12 +17428,12 @@
       <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.02666666666667" defaultRowHeight="12.75"/>
   <cols>
-    <col min="2" max="2" width="13.858407079646"/>
-    <col min="5" max="5" width="13.858407079646"/>
-    <col min="7" max="7" width="13.858407079646"/>
-    <col min="9" max="9" width="13.858407079646"/>
+    <col min="2" max="2" width="13.86"/>
+    <col min="5" max="5" width="13.86"/>
+    <col min="7" max="7" width="13.86"/>
+    <col min="9" max="9" width="13.86"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -18053,14 +18067,14 @@
   <sheetPr/>
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9.02666666666667" defaultRowHeight="12.75" outlineLevelCol="7"/>
   <cols>
-    <col min="5" max="5" width="12.7964601769912"/>
-    <col min="7" max="7" width="13.6017699115044"/>
+    <col min="5" max="5" width="12.7933333333333"/>
+    <col min="7" max="7" width="13.6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -19041,14 +19055,14 @@
   <sheetPr/>
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="V22" sqref="V22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9.02666666666667" defaultRowHeight="12.75" outlineLevelCol="7"/>
   <cols>
-    <col min="5" max="5" width="12.7964601769912"/>
-    <col min="6" max="7" width="13.6017699115044"/>
+    <col min="5" max="5" width="12.7933333333333"/>
+    <col min="6" max="7" width="13.6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -19890,14 +19904,14 @@
   <sheetPr/>
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.02666666666667" defaultRowHeight="12.75"/>
   <cols>
-    <col min="5" max="5" width="12.7964601769912"/>
-    <col min="7" max="7" width="13.6017699115044"/>
+    <col min="5" max="5" width="12.7933333333333"/>
+    <col min="7" max="7" width="13.6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -20798,7 +20812,7 @@
         <v>0.015</v>
       </c>
       <c r="D34">
-        <v>-147</v>
+        <v>-142</v>
       </c>
       <c r="E34">
         <f t="shared" si="0"/>
@@ -20826,7 +20840,7 @@
         <v>0.014</v>
       </c>
       <c r="D35">
-        <v>-180</v>
+        <v>-147</v>
       </c>
       <c r="E35">
         <f t="shared" si="0"/>
@@ -20853,7 +20867,9 @@
       <c r="C36">
         <v>0.013</v>
       </c>
-      <c r="D36"/>
+      <c r="D36">
+        <v>-150</v>
+      </c>
       <c r="E36">
         <f t="shared" si="0"/>
         <v>0.0131578947368421</v>
@@ -20879,7 +20895,6 @@
       <c r="C37">
         <v>0.01</v>
       </c>
-      <c r="D37"/>
       <c r="E37">
         <f t="shared" si="0"/>
         <v>0.0100502512562814</v>
@@ -20972,11 +20987,11 @@
       <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.02666666666667" defaultRowHeight="12.75"/>
   <cols>
-    <col min="5" max="5" width="12.7964601769912"/>
-    <col min="6" max="6" width="13.858407079646"/>
-    <col min="8" max="8" width="13.858407079646"/>
+    <col min="5" max="5" width="12.7933333333333"/>
+    <col min="6" max="6" width="13.86"/>
+    <col min="8" max="8" width="13.86"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -21766,9 +21781,9 @@
       <selection activeCell="U47" sqref="U47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9.02666666666667" defaultRowHeight="12.75" outlineLevelCol="7"/>
   <cols>
-    <col min="5" max="6" width="13.858407079646"/>
+    <col min="5" max="6" width="13.86"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">

--- a/lu2/aufgabe3.1_rc_tiefpass_bodediagramm.xlsx
+++ b/lu2/aufgabe3.1_rc_tiefpass_bodediagramm.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24300" windowHeight="13260" activeTab="4"/>
+    <workbookView windowWidth="28695" windowHeight="13260" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -64,6 +64,18 @@
     <t>LRC-Tiefpass mit L=1mH, C=100nF, R=22O</t>
   </si>
   <si>
+    <t>f[Hz]</t>
+  </si>
+  <si>
+    <t>Ue[V]</t>
+  </si>
+  <si>
+    <t>Ua[V]</t>
+  </si>
+  <si>
+    <t>Phi[°]</t>
+  </si>
+  <si>
     <t>scope19</t>
   </si>
   <si>
@@ -79,18 +91,6 @@
     <t>RC-Tiefpass 1VPP</t>
   </si>
   <si>
-    <t>f[Hz]</t>
-  </si>
-  <si>
-    <t>Ue</t>
-  </si>
-  <si>
-    <t>Ua</t>
-  </si>
-  <si>
-    <t>Phi</t>
-  </si>
-  <si>
     <t>db</t>
   </si>
 </sst>
@@ -100,9 +100,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -113,8 +113,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -128,16 +129,53 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -151,66 +189,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -220,15 +198,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -243,7 +220,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -256,8 +240,24 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -266,37 +266,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -314,7 +296,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -326,7 +386,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -338,19 +410,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -362,31 +440,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -398,55 +452,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,10 +466,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -510,32 +542,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -562,153 +568,156 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -9020,7 +9029,7 @@
                   <c:v>1500</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1600</c:v>
+                  <c:v>1610</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>1700</c:v>
@@ -9080,7 +9089,7 @@
                   <c:v>130000</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>150000</c:v>
+                  <c:v>145000</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>200000</c:v>
@@ -10122,7 +10131,7 @@
                   <c:v>1500</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1600</c:v>
+                  <c:v>1610</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>1700</c:v>
@@ -10182,7 +10191,7 @@
                   <c:v>130000</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>150000</c:v>
+                  <c:v>145000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16993,7 +17002,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A3:A24"/>
+      <selection activeCell="A3" sqref="A3:D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02666666666667" defaultRowHeight="12.75" outlineLevelCol="5"/>
@@ -17415,6 +17424,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -18067,8 +18077,8 @@
   <sheetPr/>
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02666666666667" defaultRowHeight="12.75" outlineLevelCol="7"/>
@@ -18084,16 +18094,16 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -18114,13 +18124,13 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G3">
         <f>20*LOG10(C3/B3)</f>
         <v>0</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="2">
         <v>15800</v>
       </c>
     </row>
@@ -18145,7 +18155,7 @@
         <f t="shared" ref="G4:G39" si="1">20*LOG10(C4/B4)</f>
         <v>0</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="2">
         <v>15800</v>
       </c>
     </row>
@@ -18170,7 +18180,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="2">
         <v>15800</v>
       </c>
     </row>
@@ -18195,7 +18205,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="2">
         <v>15800</v>
       </c>
     </row>
@@ -18220,7 +18230,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="2">
         <v>15800</v>
       </c>
     </row>
@@ -18245,7 +18255,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="2">
         <v>15800</v>
       </c>
     </row>
@@ -18270,7 +18280,7 @@
         <f t="shared" si="1"/>
         <v>0.4738933159642</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="2">
         <v>15800</v>
       </c>
     </row>
@@ -18295,7 +18305,7 @@
         <f t="shared" si="1"/>
         <v>0.93993125352447</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="2">
         <v>15800</v>
       </c>
     </row>
@@ -18320,7 +18330,7 @@
         <f t="shared" si="1"/>
         <v>2.38727269213508</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="2">
         <v>15800</v>
       </c>
     </row>
@@ -18345,7 +18355,7 @@
         <f t="shared" si="1"/>
         <v>3.84475790012476</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="2">
         <v>15800</v>
       </c>
     </row>
@@ -18370,7 +18380,7 @@
         <f t="shared" si="1"/>
         <v>5.2268436948458</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13" s="2">
         <v>15800</v>
       </c>
     </row>
@@ -18395,7 +18405,7 @@
         <f t="shared" si="1"/>
         <v>6.64264590610358</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14" s="2">
         <v>15800</v>
       </c>
     </row>
@@ -18420,7 +18430,7 @@
         <f t="shared" si="1"/>
         <v>8.37285741860553</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H15" s="2">
         <v>15800</v>
       </c>
     </row>
@@ -18445,7 +18455,7 @@
         <f t="shared" si="1"/>
         <v>9.32969879747755</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H16" s="2">
         <v>15800</v>
       </c>
     </row>
@@ -18470,7 +18480,7 @@
         <f t="shared" si="1"/>
         <v>10.340317092657</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H17" s="2">
         <v>15800</v>
       </c>
     </row>
@@ -18495,7 +18505,7 @@
         <f t="shared" si="1"/>
         <v>11.3138006486814</v>
       </c>
-      <c r="H18" s="1">
+      <c r="H18" s="2">
         <v>15800</v>
       </c>
     </row>
@@ -18520,7 +18530,7 @@
         <f t="shared" si="1"/>
         <v>12.0597396193784</v>
       </c>
-      <c r="H19" s="1">
+      <c r="H19" s="2">
         <v>15800</v>
       </c>
     </row>
@@ -18545,21 +18555,21 @@
         <f t="shared" si="1"/>
         <v>12.3243205533339</v>
       </c>
-      <c r="H20" s="1">
+      <c r="H20" s="2">
         <v>15800</v>
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21">
+      <c r="A21" s="1">
         <v>15800</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="1">
         <v>0.329</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="1">
         <v>1.348</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="1">
         <v>-90</v>
       </c>
       <c r="E21">
@@ -18570,7 +18580,7 @@
         <f t="shared" si="1"/>
         <v>12.2498798849865</v>
       </c>
-      <c r="H21" s="1">
+      <c r="H21" s="2">
         <v>15800</v>
       </c>
     </row>
@@ -18595,7 +18605,7 @@
         <f t="shared" si="1"/>
         <v>10.9431824265483</v>
       </c>
-      <c r="H22" s="1">
+      <c r="H22" s="2">
         <v>15800</v>
       </c>
     </row>
@@ -18620,7 +18630,7 @@
         <f t="shared" si="1"/>
         <v>12.054271145261</v>
       </c>
-      <c r="H23" s="1">
+      <c r="H23" s="2">
         <v>15800</v>
       </c>
     </row>
@@ -18645,7 +18655,7 @@
         <f t="shared" si="1"/>
         <v>11.3193977159621</v>
       </c>
-      <c r="H24" s="1">
+      <c r="H24" s="2">
         <v>15800</v>
       </c>
     </row>
@@ -18670,7 +18680,7 @@
         <f t="shared" si="1"/>
         <v>10.1796027152756</v>
       </c>
-      <c r="H25" s="1">
+      <c r="H25" s="2">
         <v>15800</v>
       </c>
     </row>
@@ -18695,7 +18705,7 @@
         <f t="shared" si="1"/>
         <v>8.96243460680988</v>
       </c>
-      <c r="H26" s="1">
+      <c r="H26" s="2">
         <v>15800</v>
       </c>
     </row>
@@ -18720,7 +18730,7 @@
         <f t="shared" si="1"/>
         <v>7.69812725839972</v>
       </c>
-      <c r="H27" s="1">
+      <c r="H27" s="2">
         <v>15800</v>
       </c>
     </row>
@@ -18745,7 +18755,7 @@
         <f t="shared" si="1"/>
         <v>8.20472651987838</v>
       </c>
-      <c r="H28" s="1">
+      <c r="H28" s="2">
         <v>15800</v>
       </c>
     </row>
@@ -18770,7 +18780,7 @@
         <f t="shared" si="1"/>
         <v>3.344702528495</v>
       </c>
-      <c r="H29" s="1">
+      <c r="H29" s="2">
         <v>15800</v>
       </c>
     </row>
@@ -18795,7 +18805,7 @@
         <f t="shared" si="1"/>
         <v>-3.72052189289501</v>
       </c>
-      <c r="H30" s="1">
+      <c r="H30" s="2">
         <v>15800</v>
       </c>
     </row>
@@ -18820,7 +18830,7 @@
         <f t="shared" si="1"/>
         <v>-8.27826069296902</v>
       </c>
-      <c r="H31" s="1">
+      <c r="H31" s="2">
         <v>15800</v>
       </c>
     </row>
@@ -18845,7 +18855,7 @@
         <f t="shared" si="1"/>
         <v>-11.6421952874715</v>
       </c>
-      <c r="H32" s="1">
+      <c r="H32" s="2">
         <v>15800</v>
       </c>
     </row>
@@ -18870,7 +18880,7 @@
         <f t="shared" si="1"/>
         <v>-14.4168109958354</v>
       </c>
-      <c r="H33" s="1">
+      <c r="H33" s="2">
         <v>15800</v>
       </c>
     </row>
@@ -18895,7 +18905,7 @@
         <f t="shared" si="1"/>
         <v>-18.7629526441815</v>
       </c>
-      <c r="H34" s="1">
+      <c r="H34" s="2">
         <v>15800</v>
       </c>
     </row>
@@ -18920,7 +18930,7 @@
         <f t="shared" si="1"/>
         <v>-21.8509041521121</v>
       </c>
-      <c r="H35" s="1">
+      <c r="H35" s="2">
         <v>15800</v>
       </c>
     </row>
@@ -18945,7 +18955,7 @@
         <f t="shared" si="1"/>
         <v>-25.0985041683589</v>
       </c>
-      <c r="H36" s="1">
+      <c r="H36" s="2">
         <v>15800</v>
       </c>
     </row>
@@ -18970,7 +18980,7 @@
         <f t="shared" si="1"/>
         <v>-31.2825567655849</v>
       </c>
-      <c r="H37" s="1">
+      <c r="H37" s="2">
         <v>15800</v>
       </c>
     </row>
@@ -18995,7 +19005,7 @@
         <f t="shared" si="1"/>
         <v>-37.5140837300462</v>
       </c>
-      <c r="H38" s="1">
+      <c r="H38" s="2">
         <v>15800</v>
       </c>
     </row>
@@ -19020,7 +19030,7 @@
         <f t="shared" si="1"/>
         <v>-37.8333218610689</v>
       </c>
-      <c r="H39" s="1">
+      <c r="H39" s="2">
         <v>15800</v>
       </c>
     </row>
@@ -19031,7 +19041,7 @@
       <c r="G40">
         <v>-40</v>
       </c>
-      <c r="H40" s="1">
+      <c r="H40" s="2">
         <v>15800</v>
       </c>
     </row>
@@ -19055,8 +19065,8 @@
   <sheetPr/>
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="V22" sqref="V22"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02666666666667" defaultRowHeight="12.75" outlineLevelCol="7"/>
@@ -19067,21 +19077,21 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="G2">
         <v>5</v>
@@ -19111,7 +19121,7 @@
         <f>20*LOG10(C3/B3)</f>
         <v>-0.555451564372988</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="2">
         <v>15500</v>
       </c>
     </row>
@@ -19136,7 +19146,7 @@
         <f t="shared" ref="G4:G34" si="1">20*LOG10(C4/B4)</f>
         <v>0.0260968337668856</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="2">
         <v>15500</v>
       </c>
     </row>
@@ -19161,7 +19171,7 @@
         <f t="shared" si="1"/>
         <v>0.0260968337668856</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="2">
         <v>15500</v>
       </c>
     </row>
@@ -19186,7 +19196,7 @@
         <f t="shared" si="1"/>
         <v>0.0260968337668856</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="2">
         <v>15500</v>
       </c>
     </row>
@@ -19211,7 +19221,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="2">
         <v>15500</v>
       </c>
     </row>
@@ -19236,7 +19246,7 @@
         <f t="shared" si="1"/>
         <v>-0.106467804585197</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="2">
         <v>15500</v>
       </c>
     </row>
@@ -19261,7 +19271,7 @@
         <f t="shared" si="1"/>
         <v>-0.384435626529206</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="2">
         <v>15500</v>
       </c>
     </row>
@@ -19286,7 +19296,7 @@
         <f t="shared" si="1"/>
         <v>-0.861698013986966</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="2">
         <v>15500</v>
       </c>
     </row>
@@ -19311,7 +19321,7 @@
         <f t="shared" si="1"/>
         <v>-1.48887248707118</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="2">
         <v>15500</v>
       </c>
     </row>
@@ -19336,7 +19346,7 @@
         <f t="shared" si="1"/>
         <v>-2.24196184496149</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="2">
         <v>15500</v>
       </c>
     </row>
@@ -19361,7 +19371,7 @@
         <f t="shared" si="1"/>
         <v>-2.66863111767446</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13" s="2">
         <v>15500</v>
       </c>
     </row>
@@ -19386,7 +19396,7 @@
         <f t="shared" si="1"/>
         <v>-3.15080338693169</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14" s="2">
         <v>15500</v>
       </c>
     </row>
@@ -19411,7 +19421,7 @@
         <f t="shared" si="1"/>
         <v>-3.62637627119644</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H15" s="2">
         <v>15500</v>
       </c>
     </row>
@@ -19436,7 +19446,7 @@
         <f t="shared" si="1"/>
         <v>-4.20445163285557</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H16" s="2">
         <v>15500</v>
       </c>
     </row>
@@ -19461,21 +19471,21 @@
         <f t="shared" si="1"/>
         <v>-4.71056893815098</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H17" s="2">
         <v>15500</v>
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18">
+      <c r="A18" s="1">
         <v>15500</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="1">
         <v>0.86</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="1">
         <v>0.469</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="1">
         <v>-90</v>
       </c>
       <c r="E18">
@@ -19483,13 +19493,13 @@
         <v>0.545348837209302</v>
       </c>
       <c r="F18" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G18">
         <f t="shared" si="1"/>
         <v>-5.26651217056969</v>
       </c>
-      <c r="H18" s="1">
+      <c r="H18" s="2">
         <v>15500</v>
       </c>
     </row>
@@ -19514,7 +19524,7 @@
         <f t="shared" si="1"/>
         <v>-5.52974109172911</v>
       </c>
-      <c r="H19" s="1">
+      <c r="H19" s="2">
         <v>15500</v>
       </c>
     </row>
@@ -19539,7 +19549,7 @@
         <f t="shared" si="1"/>
         <v>-5.32535778809538</v>
       </c>
-      <c r="H20" s="1">
+      <c r="H20" s="2">
         <v>15500</v>
       </c>
     </row>
@@ -19564,7 +19574,7 @@
         <f t="shared" si="1"/>
         <v>-6.04082318117687</v>
       </c>
-      <c r="H21" s="1">
+      <c r="H21" s="2">
         <v>15500</v>
       </c>
     </row>
@@ -19589,7 +19599,7 @@
         <f t="shared" si="1"/>
         <v>-6.64876919831211</v>
       </c>
-      <c r="H22" s="1">
+      <c r="H22" s="2">
         <v>15500</v>
       </c>
     </row>
@@ -19614,7 +19624,7 @@
         <f t="shared" si="1"/>
         <v>-7.39664773982957</v>
       </c>
-      <c r="H23" s="1">
+      <c r="H23" s="2">
         <v>15500</v>
       </c>
     </row>
@@ -19639,7 +19649,7 @@
         <f t="shared" si="1"/>
         <v>-9.73201550832353</v>
       </c>
-      <c r="H24" s="1">
+      <c r="H24" s="2">
         <v>15500</v>
       </c>
     </row>
@@ -19664,7 +19674,7 @@
         <f t="shared" si="1"/>
         <v>-12.0411998265592</v>
       </c>
-      <c r="H25" s="1">
+      <c r="H25" s="2">
         <v>15500</v>
       </c>
     </row>
@@ -19689,7 +19699,7 @@
         <f t="shared" si="1"/>
         <v>-13.6618648447436</v>
       </c>
-      <c r="H26" s="1">
+      <c r="H26" s="2">
         <v>15500</v>
       </c>
     </row>
@@ -19714,7 +19724,7 @@
         <f t="shared" si="1"/>
         <v>-15.16568011104</v>
       </c>
-      <c r="H27" s="1">
+      <c r="H27" s="2">
         <v>15500</v>
       </c>
     </row>
@@ -19739,7 +19749,7 @@
         <f t="shared" si="1"/>
         <v>-17.0901101707218</v>
       </c>
-      <c r="H28" s="1">
+      <c r="H28" s="2">
         <v>15500</v>
       </c>
     </row>
@@ -19764,7 +19774,7 @@
         <f t="shared" si="1"/>
         <v>-18.6864244871204</v>
       </c>
-      <c r="H29" s="1">
+      <c r="H29" s="2">
         <v>15500</v>
       </c>
     </row>
@@ -19789,7 +19799,7 @@
         <f t="shared" si="1"/>
         <v>-20.8870855230247</v>
       </c>
-      <c r="H30" s="1">
+      <c r="H30" s="2">
         <v>15500</v>
       </c>
     </row>
@@ -19814,7 +19824,7 @@
         <f t="shared" si="1"/>
         <v>-22.7555192262694</v>
       </c>
-      <c r="H31" s="1">
+      <c r="H31" s="2">
         <v>15500</v>
       </c>
     </row>
@@ -19836,7 +19846,7 @@
         <f t="shared" si="1"/>
         <v>-24.6008645646326</v>
       </c>
-      <c r="H32" s="1">
+      <c r="H32" s="2">
         <v>15500</v>
       </c>
     </row>
@@ -19858,7 +19868,7 @@
         <f t="shared" si="1"/>
         <v>-26.7837539531339</v>
       </c>
-      <c r="H33" s="1">
+      <c r="H33" s="2">
         <v>15500</v>
       </c>
     </row>
@@ -19880,7 +19890,7 @@
         <f t="shared" si="1"/>
         <v>-27.9183064421125</v>
       </c>
-      <c r="H34" s="1">
+      <c r="H34" s="2">
         <v>15500</v>
       </c>
     </row>
@@ -19904,8 +19914,8 @@
   <sheetPr/>
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02666666666667" defaultRowHeight="12.75"/>
@@ -19916,21 +19926,21 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -19954,10 +19964,10 @@
         <f>20*LOG10(C3/B3)</f>
         <v>-0.392939098029341</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="2">
         <v>1610</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="2">
         <v>145000</v>
       </c>
     </row>
@@ -19982,10 +19992,10 @@
         <f t="shared" ref="G4:G39" si="1">20*LOG10(C4/B4)</f>
         <v>-0.0435383850854909</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="2">
         <v>1610</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="2">
         <v>145000</v>
       </c>
     </row>
@@ -20010,10 +20020,10 @@
         <f t="shared" si="1"/>
         <v>-0.0435383850854909</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="2">
         <v>1610</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="2">
         <v>145000</v>
       </c>
     </row>
@@ -20038,10 +20048,10 @@
         <f t="shared" si="1"/>
         <v>-0.419862519928121</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="2">
         <v>1610</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="2">
         <v>145000</v>
       </c>
     </row>
@@ -20066,10 +20076,10 @@
         <f t="shared" si="1"/>
         <v>-0.652427594396267</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="2">
         <v>1610</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="2">
         <v>145000</v>
       </c>
     </row>
@@ -20094,10 +20104,10 @@
         <f t="shared" si="1"/>
         <v>-0.76851647266187</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="2">
         <v>1610</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="2">
         <v>145000</v>
       </c>
     </row>
@@ -20122,10 +20132,10 @@
         <f t="shared" si="1"/>
         <v>-0.97383847799449</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="2">
         <v>1610</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="2">
         <v>145000</v>
       </c>
     </row>
@@ -20150,10 +20160,10 @@
         <f t="shared" si="1"/>
         <v>-1.17492297744837</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="2">
         <v>1610</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10" s="2">
         <v>145000</v>
       </c>
     </row>
@@ -20178,10 +20188,10 @@
         <f t="shared" si="1"/>
         <v>-1.31698508687351</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="2">
         <v>1610</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="2">
         <v>145000</v>
       </c>
     </row>
@@ -20206,10 +20216,10 @@
         <f t="shared" si="1"/>
         <v>-1.41110383681873</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="2">
         <v>1610</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12" s="2">
         <v>145000</v>
       </c>
     </row>
@@ -20234,10 +20244,10 @@
         <f t="shared" si="1"/>
         <v>-1.64741387084281</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13" s="2">
         <v>1610</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13" s="2">
         <v>145000</v>
       </c>
     </row>
@@ -20262,10 +20272,10 @@
         <f t="shared" si="1"/>
         <v>-2.15765436308691</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14" s="2">
         <v>1610</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14" s="2">
         <v>145000</v>
       </c>
     </row>
@@ -20290,24 +20300,24 @@
         <f t="shared" si="1"/>
         <v>-2.66900390743739</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H15" s="2">
         <v>1610</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I15" s="2">
         <v>145000</v>
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16">
-        <v>1600</v>
-      </c>
-      <c r="B16">
+      <c r="A16" s="1">
+        <v>1610</v>
+      </c>
+      <c r="B16" s="1">
         <v>0.977</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="1">
         <v>0.695</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="1">
         <v>-44</v>
       </c>
       <c r="E16">
@@ -20318,10 +20328,10 @@
         <f t="shared" si="1"/>
         <v>-2.95819518257318</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H16" s="2">
         <v>1610</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I16" s="2">
         <v>145000</v>
       </c>
     </row>
@@ -20346,10 +20356,10 @@
         <f t="shared" si="1"/>
         <v>-3.20292089671334</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H17" s="2">
         <v>1610</v>
       </c>
-      <c r="I17" s="1">
+      <c r="I17" s="2">
         <v>145000</v>
       </c>
     </row>
@@ -20374,10 +20384,10 @@
         <f t="shared" si="1"/>
         <v>-3.45526631413507</v>
       </c>
-      <c r="H18" s="1">
+      <c r="H18" s="2">
         <v>1610</v>
       </c>
-      <c r="I18" s="1">
+      <c r="I18" s="2">
         <v>145000</v>
       </c>
     </row>
@@ -20402,10 +20412,10 @@
         <f t="shared" si="1"/>
         <v>-3.98995787570214</v>
       </c>
-      <c r="H19" s="1">
+      <c r="H19" s="2">
         <v>1610</v>
       </c>
-      <c r="I19" s="1">
+      <c r="I19" s="2">
         <v>145000</v>
       </c>
     </row>
@@ -20430,10 +20440,10 @@
         <f t="shared" si="1"/>
         <v>-4.48186341077617</v>
       </c>
-      <c r="H20" s="1">
+      <c r="H20" s="2">
         <v>1610</v>
       </c>
-      <c r="I20" s="1">
+      <c r="I20" s="2">
         <v>145000</v>
       </c>
     </row>
@@ -20458,10 +20468,10 @@
         <f t="shared" si="1"/>
         <v>-5.23198975415209</v>
       </c>
-      <c r="H21" s="1">
+      <c r="H21" s="2">
         <v>1610</v>
       </c>
-      <c r="I21" s="1">
+      <c r="I21" s="2">
         <v>145000</v>
       </c>
     </row>
@@ -20486,10 +20496,10 @@
         <f t="shared" si="1"/>
         <v>-6.39770675575334</v>
       </c>
-      <c r="H22" s="1">
+      <c r="H22" s="2">
         <v>1610</v>
       </c>
-      <c r="I22" s="1">
+      <c r="I22" s="2">
         <v>145000</v>
       </c>
     </row>
@@ -20514,10 +20524,10 @@
         <f t="shared" si="1"/>
         <v>-8.38484604548269</v>
       </c>
-      <c r="H23" s="1">
+      <c r="H23" s="2">
         <v>1610</v>
       </c>
-      <c r="I23" s="1">
+      <c r="I23" s="2">
         <v>145000</v>
       </c>
     </row>
@@ -20542,10 +20552,10 @@
         <f t="shared" si="1"/>
         <v>-11.428647714945</v>
       </c>
-      <c r="H24" s="1">
+      <c r="H24" s="2">
         <v>1610</v>
       </c>
-      <c r="I24" s="1">
+      <c r="I24" s="2">
         <v>145000</v>
       </c>
     </row>
@@ -20570,10 +20580,10 @@
         <f t="shared" si="1"/>
         <v>-13.7198333222901</v>
       </c>
-      <c r="H25" s="1">
+      <c r="H25" s="2">
         <v>1610</v>
       </c>
-      <c r="I25" s="1">
+      <c r="I25" s="2">
         <v>145000</v>
       </c>
     </row>
@@ -20598,10 +20608,10 @@
         <f t="shared" si="1"/>
         <v>-15.5721249452659</v>
       </c>
-      <c r="H26" s="1">
+      <c r="H26" s="2">
         <v>1610</v>
       </c>
-      <c r="I26" s="1">
+      <c r="I26" s="2">
         <v>145000</v>
       </c>
     </row>
@@ -20626,10 +20636,10 @@
         <f t="shared" si="1"/>
         <v>-21.3237903840006</v>
       </c>
-      <c r="H27" s="1">
+      <c r="H27" s="2">
         <v>1610</v>
       </c>
-      <c r="I27" s="1">
+      <c r="I27" s="2">
         <v>145000</v>
       </c>
     </row>
@@ -20654,10 +20664,10 @@
         <f t="shared" si="1"/>
         <v>-26.7582566518471</v>
       </c>
-      <c r="H28" s="1">
+      <c r="H28" s="2">
         <v>1610</v>
       </c>
-      <c r="I28" s="1">
+      <c r="I28" s="2">
         <v>145000</v>
       </c>
     </row>
@@ -20682,10 +20692,10 @@
         <f t="shared" si="1"/>
         <v>-30.1481211724826</v>
       </c>
-      <c r="H29" s="1">
+      <c r="H29" s="2">
         <v>1610</v>
       </c>
-      <c r="I29" s="1">
+      <c r="I29" s="2">
         <v>145000</v>
       </c>
     </row>
@@ -20710,10 +20720,10 @@
         <f t="shared" si="1"/>
         <v>-32.5098278778082</v>
       </c>
-      <c r="H30" s="1">
+      <c r="H30" s="2">
         <v>1610</v>
       </c>
-      <c r="I30" s="1">
+      <c r="I30" s="2">
         <v>145000</v>
       </c>
     </row>
@@ -20738,10 +20748,10 @@
         <f t="shared" si="1"/>
         <v>-33.3357064192924</v>
       </c>
-      <c r="H31" s="1">
+      <c r="H31" s="2">
         <v>1610</v>
       </c>
-      <c r="I31" s="1">
+      <c r="I31" s="2">
         <v>145000</v>
       </c>
     </row>
@@ -20766,10 +20776,10 @@
         <f t="shared" si="1"/>
         <v>-34.2228192553189</v>
       </c>
-      <c r="H32" s="1">
+      <c r="H32" s="2">
         <v>1610</v>
       </c>
-      <c r="I32" s="1">
+      <c r="I32" s="2">
         <v>145000</v>
       </c>
     </row>
@@ -20794,10 +20804,10 @@
         <f t="shared" si="1"/>
         <v>-35.2155430862844</v>
       </c>
-      <c r="H33" s="1">
+      <c r="H33" s="2">
         <v>1610</v>
       </c>
-      <c r="I33" s="1">
+      <c r="I33" s="2">
         <v>145000</v>
       </c>
     </row>
@@ -20822,10 +20832,10 @@
         <f t="shared" si="1"/>
         <v>-36.3292451755291</v>
       </c>
-      <c r="H34" s="1">
+      <c r="H34" s="2">
         <v>1610</v>
       </c>
-      <c r="I34" s="1">
+      <c r="I34" s="2">
         <v>145000</v>
       </c>
     </row>
@@ -20850,24 +20860,24 @@
         <f t="shared" si="1"/>
         <v>-36.9461638963875</v>
       </c>
-      <c r="H35" s="1">
+      <c r="H35" s="2">
         <v>1610</v>
       </c>
-      <c r="I35" s="1">
+      <c r="I35" s="2">
         <v>145000</v>
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36">
-        <v>150000</v>
-      </c>
-      <c r="B36">
+      <c r="A36" s="1">
+        <v>145000</v>
+      </c>
+      <c r="B36" s="1">
         <v>0.988</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="1">
         <v>0.013</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="1">
         <v>-150</v>
       </c>
       <c r="E36">
@@ -20878,10 +20888,10 @@
         <f t="shared" si="1"/>
         <v>-37.6162718456158</v>
       </c>
-      <c r="H36" s="1">
+      <c r="H36" s="2">
         <v>1610</v>
       </c>
-      <c r="I36" s="1">
+      <c r="I36" s="2">
         <v>145000</v>
       </c>
     </row>
@@ -20903,10 +20913,10 @@
         <f t="shared" si="1"/>
         <v>-39.9564616149145</v>
       </c>
-      <c r="H37" s="1">
+      <c r="H37" s="2">
         <v>1610</v>
       </c>
-      <c r="I37" s="1">
+      <c r="I37" s="2">
         <v>145000</v>
       </c>
     </row>
@@ -20928,10 +20938,10 @@
         <f t="shared" si="1"/>
         <v>-43.2359133586729</v>
       </c>
-      <c r="H38" s="1">
+      <c r="H38" s="2">
         <v>1610</v>
       </c>
-      <c r="I38" s="1">
+      <c r="I38" s="2">
         <v>145000</v>
       </c>
     </row>
@@ -20953,10 +20963,10 @@
         <f t="shared" si="1"/>
         <v>-43.3125165075503</v>
       </c>
-      <c r="H39" s="1">
+      <c r="H39" s="2">
         <v>1610</v>
       </c>
-      <c r="I39" s="1">
+      <c r="I39" s="2">
         <v>145000</v>
       </c>
     </row>
@@ -20983,8 +20993,8 @@
   <sheetPr/>
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02666666666667" defaultRowHeight="12.75"/>
@@ -20996,21 +21006,21 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -21320,16 +21330,16 @@
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12">
+      <c r="A12" s="1">
         <v>723</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="1">
         <v>1.07</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1">
         <v>0.75</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="1">
         <v>-46</v>
       </c>
       <c r="E12">
@@ -21777,8 +21787,8 @@
   <sheetPr/>
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="U47" sqref="U47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02666666666667" defaultRowHeight="12.75" outlineLevelCol="7"/>
@@ -21793,16 +21803,16 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
         <v>23</v>
@@ -22229,16 +22239,16 @@
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18">
+      <c r="A18" s="1">
         <v>7480</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="1">
         <v>0.65</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="1">
         <v>0.47</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="1">
         <v>43</v>
       </c>
       <c r="E18">

--- a/lu2/aufgabe3.1_rc_tiefpass_bodediagramm.xlsx
+++ b/lu2/aufgabe3.1_rc_tiefpass_bodediagramm.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13260" activeTab="6"/>
+    <workbookView windowWidth="28695" windowHeight="13260" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
   <si>
     <t>RC Tiefpass</t>
   </si>
@@ -64,6 +64,9 @@
     <t>LRC-Tiefpass mit L=1mH, C=100nF, R=22O</t>
   </si>
   <si>
+    <t>(gelb $\hdots$ Eingangsspannung, gr\"un $\hdots$ Ausgangsspannung)</t>
+  </si>
+  <si>
     <t>f[Hz]</t>
   </si>
   <si>
@@ -77,6 +80,9 @@
   </si>
   <si>
     <t>scope19</t>
+  </si>
+  <si>
+    <t>fg</t>
   </si>
   <si>
     <t>LRC-Tiefpass mit L=1mH, C=100nF, R=180O</t>
@@ -100,9 +106,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -121,11 +127,65 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -138,14 +198,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -159,53 +235,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -218,42 +249,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -278,7 +284,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -290,31 +422,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -326,37 +434,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -368,91 +452,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -492,11 +498,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -512,6 +516,32 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -534,32 +564,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -568,121 +574,130 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -691,19 +706,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -6660,6 +6666,7 @@
     <c:pageMargins r="0.7" b="0.75" l="0.7" footer="0.3" header="0.3" t="0.75"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId1"/>
 </c:chartSpace>
 </file>
 
@@ -10032,6 +10039,7 @@
     <c:pageMargins r="0.7" b="0.75" l="0.7" footer="0.3" header="0.3" t="0.75"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId1"/>
 </c:chartSpace>
 </file>
 
@@ -16420,13 +16428,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>469265</xdr:colOff>
+      <xdr:colOff>477520</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>107950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
+      <xdr:colOff>246380</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
@@ -16436,7 +16444,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9001760" y="269875"/>
+        <a:off x="9010015" y="269875"/>
         <a:ext cx="8366760" cy="3381375"/>
       </xdr:xfrm>
       <a:graphic>
@@ -16450,15 +16458,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>496570</xdr:colOff>
+      <xdr:colOff>596265</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>111125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>236855</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>151765</xdr:rowOff>
+      <xdr:colOff>336550</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>72390</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -16466,7 +16474,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9029065" y="3752850"/>
+        <a:off x="9128760" y="3835400"/>
         <a:ext cx="8338185" cy="3199765"/>
       </xdr:xfrm>
       <a:graphic>
@@ -16477,23 +16485,152 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>55880</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>338455</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15466695" y="3088005"/>
+          <a:ext cx="282575" cy="260985"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="x-none" altLang="de-AT" sz="900"/>
+            <a:t>f</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="x-none" altLang="de-AT" sz="900" baseline="-25000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:uFillTx/>
+            </a:rPr>
+            <a:t>g</a:t>
+          </a:r>
+          <a:endParaRPr lang="x-none" altLang="de-AT" sz="900" baseline="-25000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:uFillTx/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.628838552751596</cdr:x>
+      <cdr:y>0.822712418300654</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.663499543934327</cdr:x>
+      <cdr:y>0.929330065359477</cdr:y>
+    </cdr:to>
+    <cdr:sp>
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="Rectangle 1"/>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="5253355" y="2557780"/>
+          <a:ext cx="289560" cy="331470"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="x-none" altLang="de-AT" sz="900"/>
+            <a:t>f</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="x-none" altLang="de-AT" sz="900" baseline="-25000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:uFillTx/>
+            </a:rPr>
+            <a:t>g</a:t>
+          </a:r>
+          <a:endParaRPr lang="x-none" altLang="de-AT" sz="900" baseline="-25000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:uFillTx/>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
+      <xdr:colOff>647065</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>96520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
+      <xdr:colOff>647065</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>110490</xdr:rowOff>
+      <xdr:rowOff>102235</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -16501,7 +16638,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9615805" y="266700"/>
+        <a:off x="9615170" y="258445"/>
         <a:ext cx="8597900" cy="3082290"/>
       </xdr:xfrm>
       <a:graphic>
@@ -16515,15 +16652,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>19685</xdr:colOff>
+      <xdr:colOff>4445</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>135890</xdr:rowOff>
+      <xdr:rowOff>118745</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>640715</xdr:colOff>
+      <xdr:colOff>625475</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>128270</xdr:rowOff>
+      <xdr:rowOff>111125</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -16531,7 +16668,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9847580" y="3536315"/>
+        <a:off x="9832340" y="3519170"/>
         <a:ext cx="8359140" cy="3230880"/>
       </xdr:xfrm>
       <a:graphic>
@@ -16542,10 +16679,162 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>397510</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>16510</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>679450</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>134620</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16243935" y="2769235"/>
+          <a:ext cx="281940" cy="280035"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="x-none" altLang="de-AT" sz="900"/>
+            <a:t>f</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="x-none" altLang="de-AT" sz="900" baseline="-25000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:uFillTx/>
+            </a:rPr>
+            <a:t>g</a:t>
+          </a:r>
+          <a:endParaRPr lang="x-none" altLang="de-AT" sz="900" baseline="-25000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:uFillTx/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>440055</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>762635</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>100330</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextBox 4"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16286480" y="6187440"/>
+          <a:ext cx="322580" cy="227965"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="x-none" altLang="de-AT" sz="900"/>
+            <a:t>f</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="x-none" altLang="de-AT" sz="900" baseline="-25000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:uFillTx/>
+            </a:rPr>
+            <a:t>g</a:t>
+          </a:r>
+          <a:endParaRPr lang="x-none" altLang="de-AT" sz="900" baseline="-25000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:uFillTx/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -16607,10 +16896,293 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>450215</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>90170</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>789305</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>145415</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12421870" y="2842895"/>
+          <a:ext cx="339090" cy="217170"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="x-none" altLang="de-AT" sz="900"/>
+            <a:t>f</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="x-none" altLang="de-AT" sz="900" baseline="-25000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:uFillTx/>
+            </a:rPr>
+            <a:t>C</a:t>
+          </a:r>
+          <a:endParaRPr lang="x-none" altLang="de-AT" sz="900" baseline="-25000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:uFillTx/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>433070</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>747395</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>127635</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12404725" y="6067425"/>
+          <a:ext cx="314325" cy="213360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="x-none" altLang="de-AT" sz="900"/>
+            <a:t>f</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="x-none" altLang="de-AT" sz="900" baseline="-25000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:uFillTx/>
+            </a:rPr>
+            <a:t>C</a:t>
+          </a:r>
+          <a:endParaRPr lang="x-none" altLang="de-AT" sz="900" baseline="-25000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:uFillTx/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>777875</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>86360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>243205</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>65405</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextBox 5"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15328900" y="6077585"/>
+          <a:ext cx="325120" cy="302895"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="x-none" altLang="de-AT" sz="900"/>
+            <a:t>f</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="x-none" altLang="de-AT" sz="900" baseline="-25000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:uFillTx/>
+            </a:rPr>
+            <a:t>L</a:t>
+          </a:r>
+          <a:endParaRPr lang="x-none" altLang="de-AT" sz="900" baseline="-25000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:uFillTx/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.80440135426285</cdr:x>
+      <cdr:y>0.823665893271462</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.84041243459526</cdr:x>
+      <cdr:y>0.901708500316389</cdr:y>
+    </cdr:to>
+    <cdr:sp>
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="Rectangle 1"/>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="6638290" y="2479675"/>
+          <a:ext cx="297180" cy="234950"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="x-none" altLang="de-AT" sz="900"/>
+            <a:t>f</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="x-none" altLang="de-AT" sz="900" baseline="-25000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:uFillTx/>
+            </a:rPr>
+            <a:t>L</a:t>
+          </a:r>
+          <a:endParaRPr lang="x-none" altLang="de-AT" sz="900" baseline="-25000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:uFillTx/>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -16675,7 +17247,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -18075,35 +18647,38 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:U41"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="I2" workbookViewId="0">
+      <selection activeCell="U40" sqref="U40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02666666666667" defaultRowHeight="12.75" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9.02666666666667" defaultRowHeight="12.75"/>
   <cols>
     <col min="5" max="5" width="12.7933333333333"/>
     <col min="7" max="7" width="13.6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>13</v>
+      </c>
+      <c r="I1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -18124,7 +18699,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G3">
         <f>20*LOG10(C3/B3)</f>
@@ -19034,7 +19609,7 @@
         <v>15800</v>
       </c>
     </row>
-    <row r="40" spans="4:8">
+    <row r="40" spans="4:21">
       <c r="D40">
         <v>-190</v>
       </c>
@@ -19043,6 +19618,9 @@
       </c>
       <c r="H40" s="2">
         <v>15800</v>
+      </c>
+      <c r="U40" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="41" spans="7:8">
@@ -19065,8 +19643,8 @@
   <sheetPr/>
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="U30" sqref="U30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02666666666667" defaultRowHeight="12.75" outlineLevelCol="7"/>
@@ -19077,21 +19655,21 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2">
         <v>5</v>
@@ -19493,7 +20071,7 @@
         <v>0.545348837209302</v>
       </c>
       <c r="F18" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G18">
         <f t="shared" si="1"/>
@@ -19914,7 +20492,7 @@
   <sheetPr/>
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="G1" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -19926,21 +20504,21 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -20993,7 +21571,7 @@
   <sheetPr/>
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="G1" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -21006,21 +21584,21 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -21787,7 +22365,7 @@
   <sheetPr/>
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -21803,19 +22381,19 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:8">

--- a/lu2/aufgabe3.1_rc_tiefpass_bodediagramm.xlsx
+++ b/lu2/aufgabe3.1_rc_tiefpass_bodediagramm.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13260" activeTab="4"/>
+    <workbookView windowWidth="24300" windowHeight="13260" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -105,9 +105,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="20">
@@ -127,8 +127,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -142,27 +188,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -174,6 +218,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -189,47 +234,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,22 +248,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -284,7 +284,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -296,13 +296,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -314,7 +314,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -326,31 +332,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -368,73 +428,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -446,7 +440,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -487,11 +487,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -500,7 +506,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -516,21 +522,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -569,147 +560,156 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -5716,7 +5716,7 @@
                     <a:ea typeface="+mn-ea"/>
                     <a:cs typeface="+mn-cs"/>
                   </a:rPr>
-                  <a:t>dB</a:t>
+                  <a:t>Amplitude [dB]</a:t>
                 </a:r>
                 <a:endParaRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" normalizeH="0" baseline="0">
                   <a:solidFill>
@@ -7586,7 +7586,7 @@
                     <a:ea typeface="+mn-ea"/>
                     <a:cs typeface="+mn-cs"/>
                   </a:rPr>
-                  <a:t>dB</a:t>
+                  <a:t>Amplitude [dB]</a:t>
                 </a:r>
                 <a:endParaRPr lang="x-none" altLang="de-AT" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" normalizeH="0" baseline="0">
                   <a:solidFill>
@@ -9922,7 +9922,7 @@
                     <a:ea typeface="+mn-ea"/>
                     <a:cs typeface="+mn-cs"/>
                   </a:rPr>
-                  <a:t>dB</a:t>
+                  <a:t>Amplitude [dB]</a:t>
                 </a:r>
                 <a:endParaRPr lang="x-none" altLang="de-AT" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" normalizeH="0" baseline="0">
                   <a:solidFill>
@@ -9939,7 +9939,14 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.0149276700523238"/>
+              <c:y val="0.30830217884861"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -18649,7 +18656,7 @@
   <sheetPr/>
   <dimension ref="A1:U41"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="I2" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="J2" workbookViewId="0">
       <selection activeCell="U40" sqref="U40"/>
     </sheetView>
   </sheetViews>
@@ -19644,7 +19651,7 @@
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="U30" sqref="U30"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02666666666667" defaultRowHeight="12.75" outlineLevelCol="7"/>
